--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>index|索引</t>
   </si>
@@ -508,42 +508,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新年福利</t>
+    <t>yxfl_bg_1</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天领金币</t>
+  </si>
+  <si>
+    <t>天天领金币_cjj</t>
+  </si>
+  <si>
+    <t>act_xyxfl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新年福利_cjj</t>
+    <t>act_xyxfl_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年福利_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_khfl_044</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_khfl_044_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yxfl_bg_1</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1026,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1089,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1113,13 +1103,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
@@ -1156,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1177,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1211,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,8 +1288,8 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
-        <v>1000240</v>
+      <c r="B2" s="10">
+        <v>1000301</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>45</v>
@@ -1317,7 +1307,7 @@
         <v>48</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1330,8 +1320,8 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
-        <v>1000241</v>
+      <c r="B3" s="10">
+        <v>1000302</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>33</v>
@@ -1349,7 +1339,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1364,8 +1354,8 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
-        <v>1000242</v>
+      <c r="B4" s="10">
+        <v>1000303</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>50</v>
@@ -1383,7 +1373,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1396,8 +1386,8 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
-        <v>1000243</v>
+      <c r="B5" s="10">
+        <v>1000304</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>53</v>
@@ -1415,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1428,8 +1418,8 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
-        <v>1000244</v>
+      <c r="B6" s="10">
+        <v>1000305</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>50</v>
@@ -1447,7 +1437,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1460,8 +1450,8 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
-        <v>1000245</v>
+      <c r="B7" s="10">
+        <v>1000306</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
@@ -1476,10 +1466,10 @@
         <v>49</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1493,8 +1483,8 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
-        <v>1000246</v>
+      <c r="B8" s="10">
+        <v>1000307</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>34</v>
@@ -1512,15 +1502,15 @@
         <v>38</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
-        <v>1000247</v>
+      <c r="B9" s="10">
+        <v>1000308</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>58</v>
@@ -1538,15 +1528,15 @@
         <v>60</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
-        <v>1000248</v>
+      <c r="B10" s="10">
+        <v>1000309</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>61</v>
@@ -1564,15 +1554,15 @@
         <v>39</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>1000249</v>
+      <c r="B11" s="10">
+        <v>1000310</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>63</v>
@@ -1597,8 +1587,8 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>1000250</v>
+      <c r="B12" s="10">
+        <v>1000311</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>66</v>
@@ -1623,8 +1613,8 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
-        <v>1000251</v>
+      <c r="B13" s="10">
+        <v>1000312</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>69</v>
@@ -1649,8 +1639,8 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
-        <v>1000252</v>
+      <c r="B14" s="10">
+        <v>1000313</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>73</v>
@@ -1675,8 +1665,8 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
-        <v>1000253</v>
+      <c r="B15" s="10">
+        <v>1000314</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>76</v>
@@ -1701,8 +1691,8 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
-        <v>1000254</v>
+      <c r="B16" s="10">
+        <v>1000315</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>69</v>
@@ -1727,8 +1717,8 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
-        <v>1000255</v>
+      <c r="B17" s="10">
+        <v>1000316</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>78</v>
@@ -1753,8 +1743,8 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
-        <v>1000256</v>
+      <c r="B18" s="10">
+        <v>1000317</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>66</v>
@@ -1779,8 +1769,8 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
-        <v>1000257</v>
+      <c r="B19" s="10">
+        <v>1000318</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>80</v>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>index|索引</t>
   </si>
@@ -233,22 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金80万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -273,27 +257,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在3D捕鱼深海探险当前层数+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -338,10 +306,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -384,10 +348,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>8</t>
     </r>
@@ -409,10 +369,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -434,14 +390,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -463,10 +411,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>8</t>
     </r>
@@ -504,10 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yxfl_bg_1</t>
   </si>
   <si>
@@ -516,16 +456,6 @@
   <si>
     <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天领金币</t>
-  </si>
-  <si>
-    <t>天天领金币_cjj</t>
   </si>
   <si>
     <t>act_xyxfl</t>
@@ -534,6 +464,93 @@
   <si>
     <t>act_xyxfl_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利需求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利需求_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1016,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1079,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1103,7 +1120,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1167,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1201,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1229,7 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
@@ -1289,25 +1306,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>1000301</v>
+        <v>1000333</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1321,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>1000302</v>
+        <v>1000334</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>33</v>
@@ -1333,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1355,25 +1372,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>1000303</v>
+        <v>1000335</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1387,25 +1404,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>1000304</v>
+        <v>1000336</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1419,25 +1436,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>1000305</v>
+        <v>1000337</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1451,25 +1468,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>1000306</v>
+        <v>1000338</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1484,25 +1501,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>1000307</v>
+        <v>1000339</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1510,25 +1527,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>1000308</v>
+        <v>1000340</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1536,25 +1553,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>1000309</v>
+        <v>1000341</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1562,25 +1579,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>1000310</v>
+        <v>1000342</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1588,25 +1605,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>1000311</v>
+        <v>1000343</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1614,25 +1631,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>1000312</v>
+        <v>1000344</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1640,25 +1657,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>1000313</v>
+        <v>1000345</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1666,25 +1683,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>1000314</v>
+        <v>1000346</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1692,25 +1709,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>1000315</v>
+        <v>1000347</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1718,25 +1735,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>1000316</v>
+        <v>1000348</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1744,25 +1761,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>1000317</v>
+        <v>1000349</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1770,25 +1787,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>1000318</v>
+        <v>1000350</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
   <si>
     <t>index|索引</t>
   </si>
@@ -186,44 +186,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>total|达成条件 
 (任务进度条）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中使用3次超级火力卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"game_MiniGame",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中使用3次双倍奖励卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -265,17 +237,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀红包鱼累计获得50福利券</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次唐僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金60万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -284,54 +245,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在苹果大战中种出1次金苹果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险当前层数+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼深海探险当前层数+5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀红包鱼累计获得150福利券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金30万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_fish_drop_act_0"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5000,5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -340,46 +269,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10000,10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -388,14 +277,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -409,18 +290,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sxlgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩回馈--v3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩回馈--v4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -514,8 +383,144 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>实物奖励二选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时返利--v3_cjj</t>
+  </si>
+  <si>
+    <t>限时返利--v4_cjj</t>
+  </si>
+  <si>
+    <t>30,31,32,33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,35,36,37,38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时返利--v3_normal</t>
+  </si>
+  <si>
+    <t>限时返利--v4_normal</t>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4_normal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v3--捕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4--捕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v3--冲金鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,50,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>588888,150,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,100,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,300,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888,8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4088888,3888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油4L","金龙鱼大米2袋"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的电饭锅","智能电磁炉"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>"美的多功能锅"</t>
+      <t>1088888,</t>
     </r>
     <r>
       <rPr>
@@ -526,84 +531,124 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,"美的电烤箱"</t>
+      <t>300,5</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"金龙鱼油","飞科剃须刀"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实物奖励二选一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实物奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>188888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>388888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8888888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lgfl</t>
+    <t>2088888,888,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,50,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,100,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_normal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>act_lgfl_v4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4088888,</t>
+    <t>在3D捕鱼中使用1次双倍奖励卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀红包鱼累计获得100福利券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得100话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips|提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -615,24 +660,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2088888,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"琥珀核桃500g"</t>
-    </r>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -640,7 +684,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"琥珀核桃500g",</t>
+    <t>"耗牛肉酱",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -653,6 +697,22 @@
   </si>
   <si>
     <t>在水浒消消乐中召唤出4次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"耗牛肉酱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"耗牛肉酱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,16 +911,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -888,6 +938,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,18 +1221,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
@@ -1212,16 +1266,16 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
       <c r="F2" s="6"/>
@@ -1231,14 +1285,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>51</v>
+      <c r="B3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="E3" s="25">
         <v>2</v>
@@ -1248,16 +1302,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="35">
+      <c r="E4" s="25">
         <v>3</v>
       </c>
     </row>
@@ -1265,17 +1319,51 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="35">
-        <v>4</v>
+      <c r="E6" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1287,16 +1375,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
@@ -1332,84 +1420,126 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="19" t="s">
-        <v>88</v>
+      <c r="B2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
         <v>1</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="23" t="s">
-        <v>122</v>
+      <c r="F3" s="29"/>
+      <c r="G3" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-      <c r="E4" s="35">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36" t="s">
-        <v>92</v>
+      <c r="B4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1</v>
-      </c>
-      <c r="D5" s="35">
-        <v>1</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
-        <v>93</v>
+      <c r="B5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1421,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,23 +1564,23 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="1"/>
+    <col min="8" max="9" width="28.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1588,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -1476,862 +1606,1171 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1000364</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="32">
+        <v>1000415</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="10"/>
+      <c r="I2" s="23"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>1000365</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="10"/>
+      <c r="B3" s="32">
+        <v>1000416</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="23"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="13"/>
-      <c r="Q3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="13"/>
       <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>1000366</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="30">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="B4" s="32">
+        <v>1000417</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="23"/>
       <c r="J4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="13"/>
-      <c r="Q4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="13"/>
       <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1000367</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="30">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="10"/>
+      <c r="B5" s="32">
+        <v>1000418</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="23"/>
       <c r="J5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="13"/>
-      <c r="Q5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="13"/>
       <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>1000368</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="32">
+        <v>1000419</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="H6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="23"/>
       <c r="J6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13"/>
-      <c r="Q6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13"/>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>1000369</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="B7" s="32">
+        <v>1000420</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>1000370</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="32">
+        <v>1000421</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>1000371</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="32">
+        <v>1000422</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
-        <v>1000372</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="32">
+        <v>1000423</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
-        <v>1000373</v>
-      </c>
-      <c r="C11" s="30">
-        <v>150</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="32">
+        <v>1000424</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
-        <v>1000374</v>
+      <c r="B12" s="32">
+        <v>1000425</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
-        <v>1000375</v>
+      <c r="B13" s="32">
+        <v>1000426</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
-        <v>1000376</v>
+      <c r="B14" s="32">
+        <v>1000427</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
-        <v>1000377</v>
+      <c r="B15" s="32">
+        <v>1000428</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
-        <v>1000378</v>
+      <c r="B16" s="32">
+        <v>1000429</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
-        <v>1000379</v>
+      <c r="B17" s="32">
+        <v>1000430</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
-        <v>1000380</v>
+      <c r="B18" s="32">
+        <v>1000431</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
-        <v>1000381</v>
+      <c r="B19" s="32">
+        <v>1000432</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
-        <v>1000382</v>
+      <c r="B20" s="32">
+        <v>1000433</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
-        <v>1000383</v>
+      <c r="B21" s="32">
+        <v>1000434</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1000397</v>
+      </c>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1000398</v>
+      </c>
+      <c r="C23" s="32">
+        <v>3</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32">
+        <v>1000399</v>
+      </c>
+      <c r="C24" s="32">
+        <v>3</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1000400</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32">
+        <v>1000401</v>
+      </c>
+      <c r="C26" s="32">
+        <v>3</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="L26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32">
+        <v>1000402</v>
+      </c>
+      <c r="C27" s="32">
+        <v>3</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="H27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="L27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32">
+        <v>1000403</v>
+      </c>
+      <c r="C28" s="32">
+        <v>3</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1000404</v>
+      </c>
+      <c r="C29" s="32">
+        <v>3</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="32">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1000405</v>
+      </c>
+      <c r="C30" s="32">
+        <v>3</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="32">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1000406</v>
+      </c>
+      <c r="C31" s="32">
+        <v>3</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="32">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32">
+        <v>1000407</v>
+      </c>
+      <c r="C32" s="32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1000408</v>
+      </c>
+      <c r="C33" s="32">
+        <v>3</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32">
+        <v>1000409</v>
+      </c>
+      <c r="C34" s="32">
+        <v>3</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32">
+        <v>1000410</v>
+      </c>
+      <c r="C35" s="32">
+        <v>3</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="L35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32">
+        <v>1000411</v>
+      </c>
+      <c r="C36" s="32">
+        <v>3</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="L36" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32">
+        <v>1000412</v>
+      </c>
+      <c r="C37" s="32">
+        <v>3</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="32">
+        <v>1</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="L37" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="41">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42">
-        <v>1000387</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="B38" s="32">
+        <v>1000413</v>
+      </c>
+      <c r="C38" s="32">
         <v>3</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="42">
-        <v>1</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="41">
-        <v>22</v>
-      </c>
-      <c r="B23" s="42">
-        <v>1000388</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="D38" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="32">
+        <v>1000414</v>
+      </c>
+      <c r="C39" s="32">
         <v>3</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="42">
-        <v>1</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="41">
-        <v>23</v>
-      </c>
-      <c r="B24" s="42">
-        <v>1000389</v>
-      </c>
-      <c r="C24" s="42">
-        <v>3</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="42">
-        <v>1</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="41">
-        <v>24</v>
-      </c>
-      <c r="B25" s="42">
-        <v>1000390</v>
-      </c>
-      <c r="C25" s="42">
-        <v>3</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="42">
-        <v>1</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="41">
-        <v>25</v>
-      </c>
-      <c r="B26" s="42">
-        <v>1000391</v>
-      </c>
-      <c r="C26" s="42">
-        <v>3</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="42">
-        <v>1</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="N26" s="40" t="s">
+      <c r="D39" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="41">
-        <v>26</v>
-      </c>
-      <c r="B27" s="42">
-        <v>1000392</v>
-      </c>
-      <c r="C27" s="42">
-        <v>3</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="42">
-        <v>1</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="N27" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="41">
-        <v>27</v>
-      </c>
-      <c r="B28" s="42">
-        <v>1000393</v>
-      </c>
-      <c r="C28" s="42">
-        <v>3</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="42">
-        <v>1</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="41">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42">
-        <v>1000394</v>
-      </c>
-      <c r="C29" s="42">
-        <v>3</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="42">
-        <v>1</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="41">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42">
-        <v>1000395</v>
-      </c>
-      <c r="C30" s="42">
-        <v>3</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="42">
-        <v>1</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
+      <c r="H39" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G40" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
   <si>
     <t>index|索引</t>
   </si>
@@ -203,9 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>yxfl_bg_1</t>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
@@ -471,10 +468,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>188888,50,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -491,31 +484,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8888888,8888</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4088888,3888</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金龙鱼油4L","金龙鱼大米2袋"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"美的电饭锅","智能电磁炉"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -540,10 +513,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>188888,50,1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -648,7 +617,114 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"","","请在苹果大战中使用"</t>
+    <t>"swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"酥脆猴菇饼干"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"酥脆猴菇饼干"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"酥脆猴菇饼干",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"酥脆猴菇饼干",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"智能多功能锅/","小米运动手环"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"三只松鼠礼盒","进口橄榄油"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -656,6 +732,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>在西游消消乐中消除6个孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -665,54 +749,6 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"耗牛肉酱",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出1次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出2次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出4次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,1988,"耗牛肉酱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,1988,"耗牛肉酱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +835,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +877,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -873,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,6 +984,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,7 +1269,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1267,13 +1312,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -1286,13 +1331,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="25">
         <v>2</v>
@@ -1303,13 +1348,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1320,13 +1365,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1337,13 +1382,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1354,13 +1399,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1421,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="28">
         <v>1</v>
@@ -1434,7 +1479,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1442,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1455,7 +1500,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1463,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
@@ -1476,7 +1521,7 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1484,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -1497,7 +1542,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1505,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -1518,7 +1563,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1526,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
@@ -1539,7 +1584,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1553,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,9 +1609,10 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="76.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
@@ -1606,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1643,26 +1689,26 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
-        <v>1000415</v>
+      <c r="B2" s="36">
+        <v>1000439</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="23"/>
       <c r="M2" s="10"/>
@@ -1676,26 +1722,26 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
-        <v>1000416</v>
+      <c r="B3" s="36">
+        <v>1000440</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="10"/>
@@ -1711,26 +1757,26 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
-        <v>1000417</v>
+      <c r="B4" s="36">
+        <v>1000441</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="10"/>
@@ -1744,26 +1790,26 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
-        <v>1000418</v>
+      <c r="B5" s="36">
+        <v>1000442</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="10"/>
@@ -1777,26 +1823,26 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="32">
-        <v>1000419</v>
+      <c r="B6" s="36">
+        <v>1000443</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="10"/>
@@ -1810,26 +1856,26 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="32">
-        <v>1000420</v>
+      <c r="B7" s="36">
+        <v>1000444</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="10"/>
@@ -1844,26 +1890,26 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="32">
-        <v>1000421</v>
+      <c r="B8" s="36">
+        <v>1000445</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1871,26 +1917,26 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="32">
-        <v>1000422</v>
+      <c r="B9" s="36">
+        <v>1000446</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1898,26 +1944,26 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
-        <v>1000423</v>
+      <c r="B10" s="36">
+        <v>1000447</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1925,26 +1971,26 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
-        <v>1000424</v>
+      <c r="B11" s="36">
+        <v>1000448</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="H11" s="23" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1952,26 +1998,26 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="32">
-        <v>1000425</v>
+      <c r="B12" s="36">
+        <v>1000449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1979,23 +2025,23 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="32">
-        <v>1000426</v>
+      <c r="B13" s="36">
+        <v>1000450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2006,23 +2052,23 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="32">
-        <v>1000427</v>
+      <c r="B14" s="36">
+        <v>1000451</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2033,23 +2079,23 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="32">
-        <v>1000428</v>
+      <c r="B15" s="36">
+        <v>1000452</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2060,23 +2106,23 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="32">
-        <v>1000429</v>
+      <c r="B16" s="36">
+        <v>1000453</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2087,23 +2133,23 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="32">
-        <v>1000430</v>
+      <c r="B17" s="36">
+        <v>1000454</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2114,23 +2160,23 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="32">
-        <v>1000431</v>
+      <c r="B18" s="36">
+        <v>1000455</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>34</v>
@@ -2141,23 +2187,23 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="32">
-        <v>1000432</v>
+      <c r="B19" s="36">
+        <v>1000456</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>34</v>
@@ -2168,23 +2214,23 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="32">
-        <v>1000433</v>
+      <c r="B20" s="36">
+        <v>1000457</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>34</v>
@@ -2195,23 +2241,23 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="32">
-        <v>1000434</v>
+      <c r="B21" s="36">
+        <v>1000458</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>34</v>
@@ -2222,215 +2268,229 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="32">
-        <v>1000397</v>
+      <c r="B22" s="36">
+        <v>1000459</v>
       </c>
       <c r="C22" s="32">
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="32">
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="32">
-        <v>1000398</v>
+      <c r="B23" s="36">
+        <v>1000460</v>
       </c>
       <c r="C23" s="32">
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="32">
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="32">
-        <v>1000399</v>
+      <c r="B24" s="36">
+        <v>1000461</v>
       </c>
       <c r="C24" s="32">
         <v>3</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="32">
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="32">
-        <v>1000400</v>
+      <c r="B25" s="36">
+        <v>1000462</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="32">
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="32">
-        <v>1000401</v>
+      <c r="B26" s="36">
+        <v>1000463</v>
       </c>
       <c r="C26" s="32">
         <v>3</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="L26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="32">
-        <v>1000402</v>
+      <c r="B27" s="36">
+        <v>1000464</v>
       </c>
       <c r="C27" s="32">
         <v>3</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="32">
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="L27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O27" s="30" t="s">
         <v>71</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
-        <v>1000403</v>
+      <c r="B28" s="36">
+        <v>1000465</v>
       </c>
       <c r="C28" s="32">
         <v>3</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G28" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="31"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2438,28 +2498,30 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="32">
-        <v>1000404</v>
+      <c r="B29" s="36">
+        <v>1000466</v>
       </c>
       <c r="C29" s="32">
         <v>3</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="32">
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="31"/>
+        <v>76</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>153</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
@@ -2467,306 +2529,314 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="32">
-        <v>1000405</v>
+      <c r="B30" s="36">
+        <v>1000467</v>
       </c>
       <c r="C30" s="32">
         <v>3</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>107</v>
-      </c>
       <c r="H30" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="32">
-        <v>1000406</v>
+      <c r="B31" s="36">
+        <v>1000468</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="32">
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="32">
-        <v>1000407</v>
+      <c r="B32" s="36">
+        <v>1000469</v>
       </c>
       <c r="C32" s="32">
         <v>3</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="32">
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
-        <v>1000408</v>
+      <c r="B33" s="36">
+        <v>1000470</v>
       </c>
       <c r="C33" s="32">
         <v>3</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="32">
-        <v>1000409</v>
+      <c r="B34" s="36">
+        <v>1000471</v>
       </c>
       <c r="C34" s="32">
         <v>3</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="32">
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="32">
-        <v>1000410</v>
+      <c r="B35" s="36">
+        <v>1000472</v>
       </c>
       <c r="C35" s="32">
         <v>3</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="L35" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="O35" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="32">
-        <v>1000411</v>
+      <c r="B36" s="36">
+        <v>1000473</v>
       </c>
       <c r="C36" s="32">
         <v>3</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="L36" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36" s="30" t="s">
         <v>71</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="O36" s="30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="32">
-        <v>1000412</v>
+      <c r="B37" s="36">
+        <v>1000474</v>
       </c>
       <c r="C37" s="32">
         <v>3</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="32">
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>153</v>
+      </c>
       <c r="L37" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="32">
-        <v>1000413</v>
+      <c r="B38" s="36">
+        <v>1000475</v>
       </c>
       <c r="C38" s="32">
         <v>3</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="32">
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="32">
-        <v>1000414</v>
+      <c r="B39" s="36">
+        <v>1000476</v>
       </c>
       <c r="C39" s="32">
         <v>3</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="32">
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="160">
   <si>
     <t>index|索引</t>
   </si>
@@ -428,14 +428,6 @@
     <t>限时返利--v4_normal</t>
   </si>
   <si>
-    <t>lgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>act_lgfl_v4_normal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -468,15 +460,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>188888,50,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>588888,150,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>388888,100,5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -525,10 +509,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中使用1次双倍奖励卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼深海探险当前层数+2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -617,6 +597,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>"swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -629,47 +629,100 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2088888,1988,"酥脆猴菇饼干"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,1988,"酥脆猴菇饼干"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"酥脆猴菇饼干",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"酥脆猴菇饼干",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"智能多功能锅/","小米运动手环"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"三只松鼠礼盒","进口橄榄油"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lgfl_bg_1</t>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"核桃早餐奶8盒",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"核桃早餐奶8盒",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小米蓝牙耳机/","家用电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"奥克斯煮蛋器","金龙鱼油"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"核桃早餐奶8盒"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"核桃早餐奶8盒"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltfl_banner_2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
+    <t>ltfl_bg_1</t>
+  </si>
+  <si>
+    <t>ltfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中使用1次狂暴卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在水浒消消乐中召唤出1个英雄</t>
@@ -684,71 +737,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次唐僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1258,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1281,6 +1270,7 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,7 +1305,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1334,7 +1324,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1348,13 +1338,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1365,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1382,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1399,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1423,7 +1413,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1589,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1602,7 @@
     <col min="6" max="6" width="61.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="76.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="86.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
@@ -1652,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1690,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="36">
-        <v>1000439</v>
+        <v>1000480</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1705,7 +1695,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>37</v>
@@ -1723,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="36">
-        <v>1000440</v>
+        <v>1000481</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1758,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="36">
-        <v>1000441</v>
+        <v>1000482</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -1773,7 +1763,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>36</v>
@@ -1791,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="36">
-        <v>1000442</v>
+        <v>1000483</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1824,13 +1814,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="36">
-        <v>1000443</v>
+        <v>1000484</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1857,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="36">
-        <v>1000444</v>
+        <v>1000485</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1872,7 +1862,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
@@ -1891,13 +1881,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="36">
-        <v>1000445</v>
+        <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1906,7 +1896,7 @@
         <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>130</v>
@@ -1918,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="36">
-        <v>1000446</v>
+        <v>1000487</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1933,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>130</v>
@@ -1945,10 +1935,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="36">
-        <v>1000447</v>
+        <v>1000488</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>45</v>
@@ -1960,7 +1950,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>130</v>
@@ -1972,13 +1962,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="36">
-        <v>1000448</v>
+        <v>1000489</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1987,7 +1977,7 @@
         <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>130</v>
@@ -1999,13 +1989,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="36">
-        <v>1000449</v>
+        <v>1000490</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -2026,13 +2016,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="36">
-        <v>1000450</v>
+        <v>1000491</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2041,7 +2031,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2053,13 +2043,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="36">
-        <v>1000451</v>
+        <v>1000492</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2068,7 +2058,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2080,13 +2070,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="36">
-        <v>1000452</v>
+        <v>1000493</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2095,7 +2085,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2107,13 +2097,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="36">
-        <v>1000453</v>
+        <v>1000494</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2122,7 +2112,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2134,13 +2124,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="36">
-        <v>1000454</v>
+        <v>1000495</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2149,7 +2139,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2161,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="36">
-        <v>1000455</v>
+        <v>1000496</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>55</v>
@@ -2173,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>51</v>
@@ -2188,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="36">
-        <v>1000456</v>
+        <v>1000497</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>56</v>
@@ -2215,7 +2205,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="36">
-        <v>1000457</v>
+        <v>1000498</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
@@ -2242,13 +2232,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="36">
-        <v>1000458</v>
+        <v>1000499</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2269,7 +2259,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="36">
-        <v>1000459</v>
+        <v>1000500</v>
       </c>
       <c r="C22" s="32">
         <v>3</v>
@@ -2284,13 +2274,13 @@
         <v>138</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2298,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="36">
-        <v>1000460</v>
+        <v>1000501</v>
       </c>
       <c r="C23" s="32">
         <v>3</v>
@@ -2310,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>74</v>
@@ -2327,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="36">
-        <v>1000461</v>
+        <v>1000502</v>
       </c>
       <c r="C24" s="32">
         <v>3</v>
@@ -2339,16 +2329,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2356,7 +2346,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="36">
-        <v>1000462</v>
+        <v>1000503</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -2368,16 +2358,16 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2385,7 +2375,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="36">
-        <v>1000463</v>
+        <v>1000504</v>
       </c>
       <c r="C26" s="32">
         <v>3</v>
@@ -2397,22 +2387,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2423,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="36">
-        <v>1000464</v>
+        <v>1000505</v>
       </c>
       <c r="C27" s="32">
         <v>3</v>
@@ -2435,22 +2425,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2461,7 +2451,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="36">
-        <v>1000465</v>
+        <v>1000506</v>
       </c>
       <c r="C28" s="32">
         <v>3</v>
@@ -2473,16 +2463,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2490,7 +2480,7 @@
         <v>128</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2499,7 +2489,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="36">
-        <v>1000466</v>
+        <v>1000507</v>
       </c>
       <c r="C29" s="32">
         <v>3</v>
@@ -2511,16 +2501,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2530,7 +2520,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="36">
-        <v>1000467</v>
+        <v>1000508</v>
       </c>
       <c r="C30" s="32">
         <v>3</v>
@@ -2542,16 +2532,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2559,7 +2549,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="36">
-        <v>1000468</v>
+        <v>1000509</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
@@ -2571,16 +2561,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2588,7 +2578,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="36">
-        <v>1000469</v>
+        <v>1000510</v>
       </c>
       <c r="C32" s="32">
         <v>3</v>
@@ -2600,16 +2590,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2617,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="36">
-        <v>1000470</v>
+        <v>1000511</v>
       </c>
       <c r="C33" s="32">
         <v>3</v>
@@ -2629,16 +2619,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2646,7 +2636,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36">
-        <v>1000471</v>
+        <v>1000512</v>
       </c>
       <c r="C34" s="32">
         <v>3</v>
@@ -2658,16 +2648,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2675,7 +2665,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="36">
-        <v>1000472</v>
+        <v>1000513</v>
       </c>
       <c r="C35" s="32">
         <v>3</v>
@@ -2687,22 +2677,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2713,7 +2703,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="36">
-        <v>1000473</v>
+        <v>1000514</v>
       </c>
       <c r="C36" s="32">
         <v>3</v>
@@ -2725,22 +2715,22 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2751,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="36">
-        <v>1000474</v>
+        <v>1000515</v>
       </c>
       <c r="C37" s="32">
         <v>3</v>
@@ -2763,16 +2753,16 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>128</v>
@@ -2786,7 +2776,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="36">
-        <v>1000475</v>
+        <v>1000516</v>
       </c>
       <c r="C38" s="32">
         <v>3</v>
@@ -2798,16 +2788,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2815,7 +2805,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="36">
-        <v>1000476</v>
+        <v>1000517</v>
       </c>
       <c r="C39" s="32">
         <v>3</v>
@@ -2827,16 +2817,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="170">
   <si>
     <t>index|索引</t>
   </si>
@@ -509,6 +509,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>在3D捕鱼中使用1次双倍奖励卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>在3D捕鱼深海探险当前层数+2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -613,6 +617,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -621,6 +629,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在水浒消消乐中召唤出1次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -629,40 +649,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-  </si>
-  <si>
-    <t>"核桃早餐奶8盒",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"核桃早餐奶8盒",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小米蓝牙耳机/","家用电烤箱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"奥克斯煮蛋器","金龙鱼油"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,1988,"核桃早餐奶8盒"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,1988,"核桃早餐奶8盒"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -670,74 +657,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ltfl_bg_1</t>
-  </si>
-  <si>
-    <t>ltfl_bg_1</t>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"琥珀核桃500g",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ltfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中使用1次狂暴卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出1个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出2个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出4个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
+    <t>2088888,1988,"琥珀核桃500g"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"jing_bi","swjl_5",</t>
+  </si>
+  <si>
+    <t>"","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>588888,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,"琥珀核桃500g"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1088888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +876,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +924,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -904,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,6 +1034,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1322,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1369,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1324,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1341,7 +1405,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1358,7 +1422,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1375,7 +1439,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1392,7 +1456,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1413,7 +1477,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1523,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="28">
         <v>1</v>
@@ -1480,7 +1544,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="28">
         <v>1</v>
@@ -1588,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1686,7 +1750,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1695,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>37</v>
@@ -1719,7 +1783,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1751,7 +1815,7 @@
         <v>1000482</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -1763,7 +1827,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>36</v>
@@ -1784,10 +1848,10 @@
         <v>1000483</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1817,10 +1881,10 @@
         <v>1000484</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1853,7 +1917,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1862,7 +1926,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
@@ -1884,10 +1948,10 @@
         <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1896,10 +1960,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1914,7 +1978,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1923,10 +1987,10 @@
         <v>49</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1938,7 +2002,7 @@
         <v>1000488</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>45</v>
@@ -1950,10 +2014,10 @@
         <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1968,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1977,10 +2041,10 @@
         <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1992,10 +2056,10 @@
         <v>1000490</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -2007,7 +2071,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -2019,10 +2083,10 @@
         <v>1000491</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2031,7 +2095,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2046,10 +2110,10 @@
         <v>1000492</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2058,7 +2122,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2076,7 +2140,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2085,7 +2149,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2103,7 +2167,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2112,7 +2176,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2130,7 +2194,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2139,7 +2203,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2238,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2258,8 +2322,8 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
-        <v>1000500</v>
+      <c r="B22" s="38">
+        <v>1000519</v>
       </c>
       <c r="C22" s="32">
         <v>3</v>
@@ -2280,15 +2344,15 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
-        <v>1000501</v>
+      <c r="B23" s="38">
+        <v>1000520</v>
       </c>
       <c r="C23" s="32">
         <v>3</v>
@@ -2300,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2309,15 +2373,15 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
-        <v>1000502</v>
+      <c r="B24" s="38">
+        <v>1000521</v>
       </c>
       <c r="C24" s="32">
         <v>3</v>
@@ -2329,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2338,15 +2402,15 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
-        <v>1000503</v>
+      <c r="B25" s="38">
+        <v>1000522</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -2358,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2367,15 +2431,15 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
-        <v>1000504</v>
+      <c r="B26" s="38">
+        <v>1000523</v>
       </c>
       <c r="C26" s="32">
         <v>3</v>
@@ -2387,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>94</v>
@@ -2396,13 +2460,13 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2412,8 +2476,8 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
-        <v>1000505</v>
+      <c r="B27" s="38">
+        <v>1000524</v>
       </c>
       <c r="C27" s="32">
         <v>3</v>
@@ -2425,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>95</v>
@@ -2434,13 +2498,13 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2450,8 +2514,8 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
-        <v>1000506</v>
+      <c r="B28" s="38">
+        <v>1000525</v>
       </c>
       <c r="C28" s="32">
         <v>3</v>
@@ -2463,24 +2527,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2488,8 +2552,8 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
-        <v>1000507</v>
+      <c r="B29" s="38">
+        <v>1000526</v>
       </c>
       <c r="C29" s="32">
         <v>3</v>
@@ -2501,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2510,7 +2574,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2519,8 +2583,8 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
-        <v>1000508</v>
+      <c r="B30" s="38">
+        <v>1000527</v>
       </c>
       <c r="C30" s="32">
         <v>3</v>
@@ -2532,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2541,15 +2605,15 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
-        <v>1000509</v>
+      <c r="B31" s="38">
+        <v>1000528</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
@@ -2561,24 +2625,24 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="31" t="s">
-        <v>152</v>
+      <c r="I31" s="37" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
-        <v>1000510</v>
+      <c r="B32" s="38">
+        <v>1000529</v>
       </c>
       <c r="C32" s="32">
         <v>3</v>
@@ -2590,24 +2654,24 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>152</v>
+      <c r="I32" s="37" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
-        <v>1000511</v>
+      <c r="B33" s="38">
+        <v>1000530</v>
       </c>
       <c r="C33" s="32">
         <v>3</v>
@@ -2619,24 +2683,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>152</v>
+      <c r="I33" s="37" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
-        <v>1000512</v>
+      <c r="B34" s="38">
+        <v>1000531</v>
       </c>
       <c r="C34" s="32">
         <v>3</v>
@@ -2648,24 +2712,24 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>152</v>
+      <c r="I34" s="37" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
-        <v>1000513</v>
+      <c r="B35" s="38">
+        <v>1000532</v>
       </c>
       <c r="C35" s="32">
         <v>3</v>
@@ -2677,22 +2741,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2702,8 +2766,8 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="36">
-        <v>1000514</v>
+      <c r="B36" s="38">
+        <v>1000533</v>
       </c>
       <c r="C36" s="32">
         <v>3</v>
@@ -2715,22 +2779,22 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2740,8 +2804,8 @@
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="36">
-        <v>1000515</v>
+      <c r="B37" s="38">
+        <v>1000534</v>
       </c>
       <c r="C37" s="32">
         <v>3</v>
@@ -2753,30 +2817,30 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="36">
-        <v>1000516</v>
+      <c r="B38" s="38">
+        <v>1000535</v>
       </c>
       <c r="C38" s="32">
         <v>3</v>
@@ -2788,24 +2852,24 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="36">
-        <v>1000517</v>
+      <c r="B39" s="38">
+        <v>1000536</v>
       </c>
       <c r="C39" s="32">
         <v>3</v>
@@ -2817,16 +2881,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="188">
   <si>
     <t>index|索引</t>
   </si>
@@ -77,19 +77,19 @@
     </r>
   </si>
   <si>
-    <t>act_hlfl</t>
+    <t>act_mfhf</t>
   </si>
   <si>
     <t>hlfl_bg_1</t>
   </si>
   <si>
-    <t>奖励金币</t>
-  </si>
-  <si>
-    <t>act_hlfl_cjj</t>
-  </si>
-  <si>
-    <t>奖励金币_cjj</t>
+    <t>奖励话费</t>
+  </si>
+  <si>
+    <t>act_mfhf_cjj</t>
+  </si>
+  <si>
+    <t>奖励话费_cjj</t>
   </si>
   <si>
     <t>act_lgfl_normal</t>
@@ -119,10 +119,16 @@
     <t>感恩回馈--v4--冲金鸡</t>
   </si>
   <si>
-    <t>act_hlfl_byam</t>
-  </si>
-  <si>
-    <t>奖励金币_byam</t>
+    <t>act_mfhf_byam</t>
+  </si>
+  <si>
+    <t>奖励话费_byam</t>
+  </si>
+  <si>
+    <t>act_ymfl</t>
+  </si>
+  <si>
+    <t>月末返利</t>
   </si>
   <si>
     <t>tge_index|标签</t>
@@ -146,10 +152,10 @@
     <t>task_index|任务们</t>
   </si>
   <si>
-    <t>41,42,43,44,45,46,47,48,49,50,51,52</t>
-  </si>
-  <si>
-    <t>53,54,55,56,57,58,59,60,61,62,63,64</t>
+    <t>74,75,76,77,78,79,80,81,82,83</t>
+  </si>
+  <si>
+    <t>84,85,86,87,88,89,90,91,92,93</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -195,7 +201,10 @@
     </r>
   </si>
   <si>
-    <t>65,66,67,68,69,70,71,72,73</t>
+    <t>76,77,78,79,80,81,82,83</t>
+  </si>
+  <si>
+    <t>94,95,96,97,98,99,100,101,102</t>
   </si>
   <si>
     <t>id|</t>
@@ -562,18 +571,191 @@
   <si>
     <t>在水浒消消乐中累计召唤出4个英雄</t>
   </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>在龙王贡品中，获得5次奖赏</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除9个孙悟空</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1个英雄</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_1"</t>
+  </si>
+  <si>
+    <t>"15000000","2400","美的智能风扇"</t>
+  </si>
+  <si>
+    <t>"swjl_1",</t>
+  </si>
+  <si>
+    <t>"美的智能风扇",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2"</t>
+  </si>
+  <si>
+    <t>"4000000","900","不锈钢绞肉机"</t>
+  </si>
+  <si>
+    <t>"swjl_2",</t>
+  </si>
+  <si>
+    <t>"不锈钢绞肉机",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_3"</t>
+  </si>
+  <si>
+    <t>"2000000","450","豪华坚果礼包"</t>
+  </si>
+  <si>
+    <t>"swjl_3",</t>
+  </si>
+  <si>
+    <t>"豪华坚果礼包",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_4"</t>
+  </si>
+  <si>
+    <t>"800000","150","玉米热狗肠20支"</t>
+  </si>
+  <si>
+    <t>"swjl_4",</t>
+  </si>
+  <si>
+    <t>"玉米热狗肠20支",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_5"</t>
+  </si>
+  <si>
+    <t>"400000","70","卫龙亲嘴烧30袋"</t>
+  </si>
+  <si>
+    <t>"swjl_5",</t>
+  </si>
+  <si>
+    <t>"卫龙亲嘴烧30袋",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_6"</t>
+  </si>
+  <si>
+    <t>"350000","50","手帕纸10包"</t>
+  </si>
+  <si>
+    <t>"swjl_6",</t>
+  </si>
+  <si>
+    <t>"手帕纸10包",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_7"</t>
+  </si>
+  <si>
+    <t>"220000","30","棉签100支"</t>
+  </si>
+  <si>
+    <t>"swjl_7",</t>
+  </si>
+  <si>
+    <t>"棉签100支",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+  </si>
+  <si>
+    <t>"150000","20",</t>
+  </si>
+  <si>
+    <t>"80000","10",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,16 +788,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -634,21 +856,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -656,45 +863,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,24 +894,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,22 +917,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,6 +964,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -800,7 +982,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,37 +1024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +1054,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +1090,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,19 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,31 +1126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,6 +1167,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1009,17 +1202,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,31 +1250,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,10 +1270,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,138 +1282,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,17 +1452,32 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1601,13 +1798,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1620,62 +1817,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="21" customFormat="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:5">
+      <c r="E2" s="26">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1683,16 +1880,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="28">
         <v>3</v>
       </c>
     </row>
@@ -1700,16 +1897,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="28">
         <v>4</v>
       </c>
     </row>
@@ -1717,16 +1914,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="28">
         <v>5</v>
       </c>
     </row>
@@ -1734,34 +1931,51 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1774,13 +1988,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1788,164 +2002,164 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="22" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" spans="1:7">
-      <c r="A1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="17" t="s">
+    <row r="1" s="21" customFormat="1" spans="1:7">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="23" t="s">
         <v>29</v>
       </c>
+      <c r="F1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>30</v>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="18">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
-        <v>31</v>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="18">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19" t="s">
-        <v>33</v>
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="28">
         <v>0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="28">
         <v>0</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19" t="s">
-        <v>35</v>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="28">
         <v>0</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19" t="s">
-        <v>37</v>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="28">
         <v>0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19" t="s">
-        <v>39</v>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C8">
@@ -1957,8 +2171,28 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
+      <c r="G8" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1971,10 +2205,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1985,7 +2221,7 @@
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="61.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="86.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="3" customWidth="1"/>
@@ -2003,61 +2239,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2068,22 +2304,22 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="7"/>
@@ -2101,22 +2337,22 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="7"/>
@@ -2136,22 +2372,22 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
@@ -2169,22 +2405,22 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
@@ -2202,22 +2438,22 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
@@ -2235,22 +2471,22 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
@@ -2269,22 +2505,22 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2296,22 +2532,22 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2323,22 +2559,22 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2353,19 +2589,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2377,22 +2613,22 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2404,22 +2640,22 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2431,22 +2667,22 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2458,22 +2694,22 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2485,22 +2721,22 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2512,22 +2748,22 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2539,22 +2775,22 @@
         <v>1000579</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2566,22 +2802,22 @@
         <v>1000580</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2593,22 +2829,22 @@
         <v>1000581</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2623,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2650,22 +2886,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:9">
@@ -2679,22 +2915,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="I23" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:9">
@@ -2708,22 +2944,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:9">
@@ -2737,22 +2973,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:15">
@@ -2766,22 +3002,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M26" s="10"/>
       <c r="O26" s="10"/>
@@ -2797,22 +3033,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M27" s="10"/>
       <c r="O27" s="10"/>
@@ -2828,22 +3064,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2861,22 +3097,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
@@ -2890,22 +3126,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:9">
@@ -2919,22 +3155,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:9">
@@ -2948,22 +3184,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:9">
@@ -2977,22 +3213,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
@@ -3006,22 +3242,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:15">
@@ -3035,22 +3271,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="M35" s="10"/>
       <c r="O35" s="10"/>
@@ -3066,22 +3302,22 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M36" s="10"/>
       <c r="O36" s="10"/>
@@ -3097,22 +3333,22 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M37" s="10"/>
     </row>
@@ -3127,22 +3363,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:9">
@@ -3156,22 +3392,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:9">
@@ -3185,22 +3421,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:9">
@@ -3214,22 +3450,22 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3243,19 +3479,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3269,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3295,19 +3531,19 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3321,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3347,19 +3583,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3373,19 +3609,19 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3399,19 +3635,19 @@
         <v>6</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3425,19 +3661,19 @@
         <v>6</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3451,19 +3687,19 @@
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3477,19 +3713,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3503,19 +3739,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3529,19 +3765,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3555,19 +3791,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3581,19 +3817,19 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3607,19 +3843,19 @@
         <v>3</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3633,19 +3869,19 @@
         <v>6</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3659,19 +3895,19 @@
         <v>3</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3685,19 +3921,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3711,19 +3947,19 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3737,19 +3973,19 @@
         <v>3</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3763,19 +3999,19 @@
         <v>300000</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3789,19 +4025,19 @@
         <v>600000</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3815,19 +4051,19 @@
         <v>3</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3841,19 +4077,19 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3867,19 +4103,19 @@
         <v>5</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3893,19 +4129,19 @@
         <v>5</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3919,19 +4155,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3945,19 +4181,19 @@
         <v>6</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3971,19 +4207,19 @@
         <v>6</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3997,19 +4233,19 @@
         <v>2</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4023,19 +4259,19 @@
         <v>4</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4049,19 +4285,19 @@
         <v>3</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4075,20 +4311,888 @@
         <v>1</v>
       </c>
       <c r="D74" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16">
+        <v>1000619</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16">
+        <v>1000620</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="16">
+        <v>1000621</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="16">
+        <v>1000622</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="16">
+        <v>1000623</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="16">
+        <v>1000624</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="16">
+        <v>1000625</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="9">
         <v>81</v>
       </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="B82" s="16">
+        <v>1000626</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="16">
+        <v>1000627</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="9">
         <v>83</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="B84" s="16">
+        <v>1000628</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="16">
+        <v>1000629</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16">
+        <v>1000630</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16">
+        <v>1000631</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="9">
         <v>87</v>
       </c>
-      <c r="H74" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B88" s="16">
+        <v>1000632</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="16">
+        <v>1000633</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="B90" s="16">
+        <v>1000634</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="16">
+        <v>1000635</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16">
+        <v>1000636</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="16">
+        <v>1000637</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="16">
+        <v>1000638</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="16">
+        <v>1000640</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="16">
+        <v>1000641</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16">
+        <v>1000642</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="16">
+        <v>1000643</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="16">
+        <v>1000644</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="16">
+        <v>1000645</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="16">
+        <v>1000646</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="9">
+        <v>101</v>
+      </c>
+      <c r="B102" s="16">
+        <v>1000647</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="16">
+        <v>1000648</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="9"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="18"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="9"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="18"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="9"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="18"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="9"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="18"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="9"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="18"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="9"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="18"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="9"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="18"/>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="9"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="18"/>
+      <c r="H111" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
   <si>
     <t>index|索引</t>
   </si>
@@ -77,57 +77,63 @@
     </r>
   </si>
   <si>
-    <t>act_yxrw</t>
+    <t>act_mfhf</t>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+  </si>
+  <si>
+    <t>奖励金币</t>
+  </si>
+  <si>
+    <t>act_mfhf_cjj</t>
+  </si>
+  <si>
+    <t>奖励金币_cjj</t>
+  </si>
+  <si>
+    <t>act_lgfl_normal</t>
+  </si>
+  <si>
+    <t>hhfl_bg_1</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_normal</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_mfhf_byam</t>
   </si>
   <si>
     <t>hlfl_bg_1</t>
   </si>
   <si>
-    <t>奖励金币</t>
-  </si>
-  <si>
-    <t>act_yxrw_cjj</t>
-  </si>
-  <si>
-    <t>奖励金币_cjj</t>
-  </si>
-  <si>
-    <t>act_lgfl_normal</t>
-  </si>
-  <si>
-    <t>hhfl_bg_1</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_normal</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_mfhf_byam</t>
-  </si>
-  <si>
     <t>奖励话费_byam</t>
   </si>
   <si>
     <t>act_ymfl</t>
   </si>
   <si>
+    <t>ymfl_bg_1</t>
+  </si>
+  <si>
     <t>月末返利</t>
   </si>
   <si>
@@ -152,10 +158,10 @@
     <t>task_index|任务们</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
-  </si>
-  <si>
-    <t>13,14,15,16,17,18,19,20,21,22,23,24</t>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -168,6 +174,9 @@
   </si>
   <si>
     <t>限时返利--v4_cjj</t>
+  </si>
+  <si>
+    <t>21,22,23,24,25,26,27,28,29</t>
   </si>
   <si>
     <t>id|</t>
@@ -247,67 +256,58 @@
     <t>cheak_num|检查道具的数量</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>在苹果大战中，累计纯赢1万</t>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-  </si>
-  <si>
-    <t>5000,</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>在3D捕鱼用3000及以上炮倍捕获1只欢乐券boss</t>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>在3D捕鱼用3000及以上炮倍捕获3只欢乐券boss</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+5</t>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏及以上场次任意击杀1条boss</t>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏及以上场次任意击杀3条boss</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
   </si>
   <si>
     <t>"game_MiniGame",</t>
   </si>
   <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>在苹果大战中，累计纯赢5万</t>
-  </si>
-  <si>
-    <t>10000,</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>在苹果大战中，累计纯赢20万</t>
-  </si>
-  <si>
-    <t>20000,</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险中当前层数+5</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-  </si>
-  <si>
-    <t>在3D捕鱼海底宝藏累计使用5次双倍奖励</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>在3D捕鱼海底宝藏及以上场次任意击杀1条boss</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个孙悟空</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个唐僧</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>在西游消消乐中消除3个唐僧</t>
   </si>
   <si>
     <t>在水浒消消乐中召唤出2个英雄</t>
@@ -316,76 +316,194 @@
     <t>在水浒消消乐中召唤出4个英雄</t>
   </si>
   <si>
-    <t>30000,</t>
-  </si>
-  <si>
-    <t>在财神消消乐中累计出现2次天女散花</t>
-  </si>
-  <si>
-    <t>在财神消消乐中累计出现5次天女散花</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个唐僧</t>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>在水果消消乐闯关中当前关卡数+1</t>
+  </si>
+  <si>
+    <t>在水果消消乐闯关中当前关卡数+5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除9个孙悟空</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1个英雄</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>在冲金鸡财神模式中连胜3局</t>
+    <t>300000</t>
   </si>
   <si>
     <t>在龙王争霸中累计赢金30万</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>在龙王争霸中累计赢金60万</t>
   </si>
   <si>
+    <t>在苹果大战中连胜3局</t>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+  </si>
+  <si>
+    <t>在商城中购买3次2498元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_1",</t>
+  </si>
+  <si>
+    <t>"15000000","2400","美的智能烤箱"</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+  </si>
+  <si>
     <t>"swjl_1",</t>
   </si>
   <si>
+    <t>"美的智能烤箱",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次998元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
+  </si>
+  <si>
+    <t>"4000000","900","肩颈按摩仪"</t>
+  </si>
+  <si>
+    <t>"swjl_2",</t>
+  </si>
+  <si>
+    <t>"肩颈按摩仪",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次498元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_3",</t>
+  </si>
+  <si>
+    <t>"2000000","450","豪华坚果礼包"</t>
+  </si>
+  <si>
+    <t>"swjl_3",</t>
+  </si>
+  <si>
+    <t>"豪华坚果礼包",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次198元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_4",</t>
+  </si>
+  <si>
+    <t>"800000","150","玉米热狗肠20支"</t>
+  </si>
+  <si>
+    <t>"swjl_4",</t>
+  </si>
+  <si>
+    <t>"玉米热狗肠20支",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次98元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_5",</t>
+  </si>
+  <si>
+    <t>"400000","70","卫龙亲嘴烧30袋"</t>
+  </si>
+  <si>
+    <t>"swjl_5",</t>
+  </si>
+  <si>
+    <t>"卫龙亲嘴烧30袋",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次50元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_6",</t>
+  </si>
+  <si>
+    <t>"350000","50","超舒适浴巾1条"</t>
+  </si>
+  <si>
+    <t>"swjl_6",</t>
+  </si>
+  <si>
+    <t>"超舒适浴巾1条",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次30元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_7",</t>
+  </si>
+  <si>
+    <t>"220000","30","棉签100支"</t>
+  </si>
+  <si>
+    <t>"swjl_7",</t>
+  </si>
+  <si>
+    <t>"棉签100支",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在商城中购买3次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15元</t>
+    </r>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+  </si>
+  <si>
+    <t>"150000","20",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次6元</t>
+  </si>
+  <si>
+    <t>"80000","10",</t>
+  </si>
+  <si>
     <t>"美的智能风扇",</t>
   </si>
   <si>
-    <t>"swjl_2",</t>
-  </si>
-  <si>
     <t>"不锈钢绞肉机",</t>
   </si>
   <si>
-    <t>"swjl_3",</t>
-  </si>
-  <si>
-    <t>"豪华坚果礼包",</t>
-  </si>
-  <si>
-    <t>"swjl_4",</t>
-  </si>
-  <si>
-    <t>"玉米热狗肠20支",</t>
-  </si>
-  <si>
-    <t>"swjl_5",</t>
-  </si>
-  <si>
-    <t>"卫龙亲嘴烧30袋",</t>
-  </si>
-  <si>
-    <t>"swjl_6",</t>
-  </si>
-  <si>
     <t>"手帕纸10包",</t>
-  </si>
-  <si>
-    <t>"swjl_7",</t>
-  </si>
-  <si>
-    <t>"棉签100支",</t>
   </si>
 </sst>
 </file>
@@ -393,12 +511,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,18 +536,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -443,6 +549,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
@@ -450,7 +562,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +606,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -487,15 +629,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,16 +651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,41 +667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,14 +682,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +725,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -643,43 +767,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,19 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,91 +881,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,6 +963,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,24 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -931,10 +1055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,138 +1067,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,54 +1213,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1460,7 +1585,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1518,7 +1643,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1539,10 +1664,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -1556,10 +1681,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -1573,10 +1698,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="26" t="s">
@@ -1590,10 +1715,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -1610,28 +1735,28 @@
       <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>8</v>
+      <c r="C8" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1650,7 +1775,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1667,25 +1792,25 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1706,7 +1831,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1727,7 +1852,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1735,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -1754,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -1773,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
@@ -1792,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -1824,21 +1949,24 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1851,12 +1979,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1885,61 +2013,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -1947,226 +2075,226 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000666</v>
+        <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>60</v>
+      <c r="F2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="M2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:19">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000666</v>
+        <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="16"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:19">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000666</v>
+        <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="16"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:19">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000667</v>
+        <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="16"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:19">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000668</v>
+        <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="16"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:19">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000669</v>
+        <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>67</v>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000670</v>
+        <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2175,25 +2303,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000671</v>
+        <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2202,25 +2330,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>1000672</v>
+        <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2229,25 +2357,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>1000672</v>
+        <v>1000628</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2256,25 +2384,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>1000673</v>
+        <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>67</v>
+      <c r="F12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2283,25 +2411,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>1000673</v>
+        <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2310,25 +2438,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>1000674</v>
+        <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>60</v>
+      <c r="F14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2337,25 +2465,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>1000674</v>
+        <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>64</v>
+      <c r="G15" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2364,25 +2492,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>1000675</v>
+        <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>64</v>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2391,25 +2519,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>1000675</v>
+        <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2418,25 +2546,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>1000676</v>
+        <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2445,25 +2573,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>1000677</v>
+        <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>67</v>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2472,25 +2600,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>1000677</v>
+        <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2499,598 +2627,698 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>1000681</v>
+        <v>1000638</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>67</v>
+      <c r="F21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:9">
+    <row r="22" s="2" customFormat="1" spans="1:15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>1000682</v>
+        <v>1000640</v>
       </c>
       <c r="C22" s="1">
-        <v>300000</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>64</v>
+      <c r="F22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="L22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>1000682</v>
+        <v>1000641</v>
       </c>
       <c r="C23" s="1">
-        <v>600000</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="L23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>1000683</v>
+        <v>1000642</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>67</v>
+      <c r="F24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="L24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:13">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>1000683</v>
+        <v>1000643</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:15">
-      <c r="A26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:15">
-      <c r="A27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:15">
-      <c r="A28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="O28" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="L25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:13">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1000644</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="L26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:13">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1000645</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="L27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:13">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1000646</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="L28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1000647</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
-      <c r="A30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:9">
-      <c r="A31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1000648</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:15">
+      <c r="A31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:9">
-      <c r="A32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="17"/>
+      <c r="M31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:15">
+      <c r="A32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="17"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:9">
-      <c r="A33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="M32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:13">
+      <c r="A33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="17"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
-      <c r="A34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:15">
-      <c r="A35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="F35" s="13"/>
+    <row r="35" s="2" customFormat="1" spans="1:9">
+      <c r="A35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="17"/>
-      <c r="M35" s="13"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:15">
-      <c r="A36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="F36" s="13"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:9">
+      <c r="A36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="17"/>
-      <c r="M36" s="13"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:13">
-      <c r="A37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="F37" s="13"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:9">
+      <c r="A37" s="13"/>
+      <c r="D37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="17"/>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:9">
-      <c r="A38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:9">
-      <c r="A39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:9">
-      <c r="A40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:9">
-      <c r="A41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="17"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="12"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="12"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="19"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="12"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="19"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="19"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="19"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="19"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="12"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="19"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="19"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="12"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="19"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="19"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="19"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="19"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="19"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:13">
+      <c r="A91" s="13"/>
       <c r="B91" s="19"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="12"/>
+      <c r="L91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="13"/>
       <c r="B92" s="19"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="12"/>
+      <c r="L92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="13"/>
       <c r="B93" s="19"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="12"/>
+      <c r="L93" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="13"/>
       <c r="B94" s="19"/>
+      <c r="L94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="12"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="12"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="12"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="12"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="13"/>
       <c r="B98" s="19"/>
-      <c r="L98" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="12"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="13"/>
       <c r="B99" s="19"/>
-      <c r="L99" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="12"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="13"/>
       <c r="B100" s="19"/>
-      <c r="L100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="12"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="13"/>
       <c r="B101" s="19"/>
-      <c r="L101" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="12"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="19"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="19"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="19"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="12"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="19"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="12"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="19"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="12"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="19"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="12"/>
-      <c r="B108" s="19"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="12"/>
-      <c r="B109" s="19"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="19"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="12"/>
-      <c r="B111" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="201">
   <si>
     <t>index|索引</t>
   </si>
@@ -86,7 +86,10 @@
     <t>奖励金币</t>
   </si>
   <si>
-    <t>act_mfhf_cjj</t>
+    <t>act_dlyl_cjj</t>
+  </si>
+  <si>
+    <t>dlyl_bg_1</t>
   </si>
   <si>
     <t>奖励金币_cjj</t>
@@ -137,6 +140,15 @@
     <t>月末返利</t>
   </si>
   <si>
+    <t>act_qyzl_cjj</t>
+  </si>
+  <si>
+    <t>qyzl_bg_1</t>
+  </si>
+  <si>
+    <t>七月赠礼_cjj</t>
+  </si>
+  <si>
     <t>tge_index|标签</t>
   </si>
   <si>
@@ -161,7 +173,7 @@
     <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <t>30,31,32,33,34,35,36,37</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -177,6 +189,9 @@
   </si>
   <si>
     <t>21,22,23,24,25,26,27,28,29</t>
+  </si>
+  <si>
+    <t>38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59</t>
   </si>
   <si>
     <t>id|</t>
@@ -497,6 +512,183 @@
     <t>"80000","10",</t>
   </si>
   <si>
+    <t>登录1次游戏</t>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+  </si>
+  <si>
+    <t>1888,</t>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+  </si>
+  <si>
+    <t>2888,</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中任意召唤出1个英雄</t>
+  </si>
+  <si>
+    <t>5888,</t>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次火烧赤壁</t>
+  </si>
+  <si>
+    <t>6888,</t>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+  </si>
+  <si>
+    <t>在财神消消乐中触发1次天女散花</t>
+  </si>
+  <si>
+    <t>8888,</t>
+  </si>
+  <si>
+    <t>完成以上所有任务</t>
+  </si>
+  <si>
+    <t>128000,</t>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+  </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>累计消耗30万金币</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>商城累计充值6元</t>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>累计消耗300万金币</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>商城累计充值48元</t>
+  </si>
+  <si>
+    <t>8000,</t>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>累计消耗2000万金币</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>商城累计充值198元</t>
+  </si>
+  <si>
+    <t>18888,</t>
+  </si>
+  <si>
+    <t>累计消耗3500万金币</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>累计消耗8000万金币</t>
+  </si>
+  <si>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>商城累计充值888元</t>
+  </si>
+  <si>
+    <t>12000,</t>
+  </si>
+  <si>
+    <t>累计消耗2亿金币</t>
+  </si>
+  <si>
+    <t>688,</t>
+  </si>
+  <si>
+    <t>累计消耗8亿金币</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>商城累计充值1888元</t>
+  </si>
+  <si>
+    <t>21888,</t>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>商城累计充值5888元</t>
+  </si>
+  <si>
+    <t>20000,</t>
+  </si>
+  <si>
+    <t>累计消耗40亿金币</t>
+  </si>
+  <si>
+    <t>商城累计充值10000元</t>
+  </si>
+  <si>
+    <t>48888,</t>
+  </si>
+  <si>
+    <t>累计消耗80亿金币</t>
+  </si>
+  <si>
+    <t>商城累计充值18888元</t>
+  </si>
+  <si>
+    <t>50000,</t>
+  </si>
+  <si>
+    <t>累计消耗200亿金币</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
     <t>"美的智能风扇",</t>
   </si>
   <si>
@@ -511,12 +703,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +726,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -561,8 +760,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +845,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -594,82 +853,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,15 +873,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +936,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -767,13 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +984,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +1026,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,79 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,31 +1104,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,6 +1157,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -976,22 +1196,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,41 +1244,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,10 +1260,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,138 +1272,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,34 +1439,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1582,10 +1796,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1601,62 +1815,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:7">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="28">
+      <c r="D3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="31">
         <v>2</v>
       </c>
     </row>
@@ -1664,16 +1878,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28">
+      <c r="D4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="31">
         <v>3</v>
       </c>
     </row>
@@ -1681,16 +1895,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28">
+      <c r="C5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="31">
         <v>4</v>
       </c>
     </row>
@@ -1698,16 +1912,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="28">
+      <c r="C6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="31">
         <v>5</v>
       </c>
     </row>
@@ -1715,16 +1929,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="28">
+      <c r="C7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="31">
         <v>6</v>
       </c>
     </row>
@@ -1732,14 +1946,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="35" t="s">
         <v>23</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1750,16 +1964,33 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="31" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1772,10 +2003,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1786,187 +2017,207 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="24" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:7">
-      <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>33</v>
       </c>
+      <c r="D1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
-        <v>34</v>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="24">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
-        <v>35</v>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="30">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="31">
         <v>0</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="30">
         <v>0</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="31">
         <v>0</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="31">
         <v>0</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="24">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="31">
         <v>0</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="31">
         <v>0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="31">
         <v>0</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>21</v>
+      <c r="B8" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>40</v>
+      <c r="G9" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1982,9 +2233,9 @@
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2013,61 +2264,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2078,27 +2329,27 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="15"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -2111,22 +2362,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2134,7 +2385,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="16"/>
+      <c r="P3" s="19"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
@@ -2146,28 +2397,28 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="16"/>
+      <c r="P4" s="19"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
@@ -2179,28 +2430,28 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="16"/>
+      <c r="P5" s="19"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
@@ -2212,28 +2463,28 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="16"/>
+      <c r="P6" s="19"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
@@ -2245,28 +2496,28 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="16"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -2279,22 +2530,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2306,22 +2557,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2333,22 +2584,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2363,19 +2614,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2387,22 +2638,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2414,22 +2665,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2441,22 +2692,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2468,22 +2719,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2495,22 +2746,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2522,22 +2773,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2549,22 +2800,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2576,22 +2827,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2603,22 +2854,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2633,19 +2884,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2660,26 +2911,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2694,26 +2945,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -2728,26 +2979,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -2762,26 +3013,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
@@ -2795,26 +3046,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
@@ -2828,26 +3079,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:13">
@@ -2861,26 +3112,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="I28" s="20"/>
       <c r="L28" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
@@ -2894,21 +3145,21 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
       <c r="A30" s="5">
@@ -2921,404 +3172,1043 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:15">
-      <c r="A31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="17"/>
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1000689</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="20"/>
       <c r="M31" s="12"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:15">
-      <c r="A32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1000690</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="20"/>
       <c r="M32" s="12"/>
       <c r="O32" s="12"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:13">
-      <c r="A33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="17"/>
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1000691</v>
+      </c>
+      <c r="C33" s="2">
+        <v>88</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="20"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
-      <c r="A34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="17"/>
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1000692</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:9">
-      <c r="A35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="17"/>
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1000693</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:9">
-      <c r="A36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="17"/>
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1000694</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:9">
-      <c r="A37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="1"/>
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1000695</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1000696</v>
+      </c>
+      <c r="C38" s="3">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C39" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C40" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5">
+        <v>52</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C41" s="3">
+        <v>600</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5">
+        <v>53</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5">
+        <v>54</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C47" s="3">
+        <v>19800</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5">
+        <v>44</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C48" s="3">
+        <v>35000000</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5">
+        <v>45</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C49" s="3">
+        <v>80000000</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5">
+        <v>55</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C50" s="3">
+        <v>88800</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5">
+        <v>46</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C51" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="3">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C52" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5">
+        <v>56</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C53" s="3">
+        <v>188800</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5">
+        <v>48</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5">
+        <v>57</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C55" s="3">
+        <v>588800</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5">
+        <v>49</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="3">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5">
+        <v>58</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5">
+        <v>50</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5">
+        <v>59</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1888800</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5">
+        <v>51</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C60" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="13"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="13"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="13"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="13"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="13"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="19"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="22"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="22"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="19"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="22"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="19"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="22"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="19"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="22"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="19"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="22"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="22"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="19"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="22"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="19"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="19"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="22"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="19"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="19"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="22"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="22"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="19"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="22"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="19"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="22"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="22"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="13"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="22"/>
       <c r="L91" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="13"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="22"/>
       <c r="L92" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="13"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="22"/>
       <c r="L93" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="13"/>
-      <c r="B94" s="19"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="22"/>
       <c r="L94" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="13"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="22"/>
       <c r="L95" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="13"/>
-      <c r="B96" s="19"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="22"/>
       <c r="L96" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="13"/>
-      <c r="B97" s="19"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="22"/>
       <c r="L97" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="22"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="22"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="22"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="22"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="19"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="22"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="13"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="22"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="22"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="13"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="22"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="13"/>
-      <c r="B106" s="19"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="22"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="13"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
   <si>
     <t>index|索引</t>
   </si>
@@ -149,6 +154,15 @@
     <t>七月赠礼_cjj</t>
   </si>
   <si>
+    <t>act_xhyl</t>
+  </si>
+  <si>
+    <t>xhyl_bg_1</t>
+  </si>
+  <si>
+    <t>消耗有礼</t>
+  </si>
+  <si>
     <t>tge_index|标签</t>
   </si>
   <si>
@@ -192,6 +206,9 @@
   </si>
   <si>
     <t>38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59</t>
+  </si>
+  <si>
+    <t>60,61,62</t>
   </si>
   <si>
     <t>id|</t>
@@ -689,6 +706,64 @@
     <t>2000,</t>
   </si>
   <si>
+    <r>
+      <t>在3D捕鱼中累计消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+  </si>
+  <si>
+    <t>"prop_xxl_card_chip_1",</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计消耗5000万金币</t>
+  </si>
+  <si>
+    <t>"prop_xxl_card_chip_2",</t>
+  </si>
+  <si>
     <t>"美的智能风扇",</t>
   </si>
   <si>
@@ -701,14 +776,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,153 +820,28 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,13 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,19 +892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,170 +914,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1156,254 +938,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1414,10 +957,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,19 +988,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1476,63 +1025,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1790,19 +1297,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1815,158 +1322,158 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="29">
-        <v>1</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:5">
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="33">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
@@ -1976,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1993,23 +1500,39 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -2017,156 +1540,156 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="26" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" spans="1:7">
-      <c r="A1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="25" t="s">
+    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="E1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30">
         <v>0</v>
       </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="27">
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28">
-        <v>1</v>
-      </c>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28">
-        <v>1</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="27">
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="32">
         <v>0</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="32">
         <v>0</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="33">
         <v>0</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="33">
+      <c r="F4" s="31"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="B5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="33">
         <v>0</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="33">
         <v>0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="33">
         <v>0</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="27">
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="32">
         <v>0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="33">
         <v>0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="33">
         <v>0</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="27">
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="B7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="33">
         <v>0</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="33">
         <v>0</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="33">
         <v>0</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C8">
@@ -2178,9 +1701,9 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2188,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2196,11 +1719,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2216,29 +1739,47 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>45</v>
+      <c r="G10" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
@@ -2262,66 +1803,66 @@
     <col min="20" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1" spans="1:19">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2329,32 +1870,32 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="18"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2362,22 +1903,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2385,11 +1926,11 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="19"/>
+      <c r="P3" s="21"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:19">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2397,32 +1938,32 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="19"/>
+      <c r="P4" s="21"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2430,32 +1971,32 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="19"/>
+      <c r="P5" s="21"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2463,32 +2004,32 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="19"/>
+      <c r="P6" s="21"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:19">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2496,33 +2037,33 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="19"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2530,26 +2071,26 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2557,26 +2098,26 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2584,26 +2125,26 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2614,23 +2155,23 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2638,26 +2179,26 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2665,26 +2206,26 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2692,26 +2233,26 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2719,26 +2260,26 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2746,26 +2287,26 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2773,26 +2314,26 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2800,26 +2341,26 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2827,26 +2368,26 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2854,26 +2395,26 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2884,23 +2425,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:15">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2911,30 +2452,30 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:15">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2945,30 +2486,30 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:15">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2979,30 +2520,30 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:13">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3013,29 +2554,29 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3046,29 +2587,29 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3079,29 +2620,29 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3112,29 +2653,29 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="I28" s="22"/>
       <c r="L28" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3145,23 +2686,23 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3172,23 +2713,23 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:15">
+        <v>105</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3199,25 +2740,25 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="I31" s="22"/>
       <c r="M31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:15">
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3228,25 +2769,25 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="I32" s="22"/>
       <c r="M32" s="12"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:13">
+    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3257,24 +2798,24 @@
         <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="G33" s="14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="I33" s="22"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:9">
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3285,23 +2826,23 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3312,23 +2853,23 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3339,23 +2880,23 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3366,23 +2907,23 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3393,22 +2934,22 @@
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3419,22 +2960,22 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3445,22 +2986,22 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -3471,22 +3012,22 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3497,22 +3038,22 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -3523,22 +3064,22 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -3549,22 +3090,22 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -3575,22 +3116,22 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -3601,22 +3142,22 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -3627,22 +3168,22 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -3653,22 +3194,22 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -3679,22 +3220,22 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -3705,22 +3246,22 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -3731,22 +3272,22 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -3757,22 +3298,22 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -3783,22 +3324,22 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -3809,22 +3350,22 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -3835,22 +3376,22 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -3861,22 +3402,22 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -3887,22 +3428,22 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -3913,22 +3454,22 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="H58" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -3939,22 +3480,22 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -3965,254 +3506,320 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13">
+        <v>1000704</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1000704</v>
+      </c>
+      <c r="C62" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1000704</v>
+      </c>
+      <c r="C63" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
-      <c r="B71" s="22"/>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="B71" s="24"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
-      <c r="B72" s="22"/>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="B72" s="24"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="15"/>
-      <c r="B73" s="22"/>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="B73" s="24"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
-      <c r="B74" s="22"/>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="B74" s="24"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="15"/>
-      <c r="B75" s="22"/>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
-      <c r="B76" s="22"/>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
-      <c r="B77" s="22"/>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B77" s="24"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
-      <c r="B78" s="22"/>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
-      <c r="B79" s="22"/>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
-      <c r="B80" s="22"/>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="15"/>
-      <c r="B81" s="22"/>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="15"/>
-      <c r="B82" s="22"/>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="B82" s="24"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="15"/>
-      <c r="B83" s="22"/>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="15"/>
-      <c r="B84" s="22"/>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="15"/>
-      <c r="B85" s="22"/>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="B85" s="24"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="15"/>
-      <c r="B86" s="22"/>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="15"/>
-      <c r="B87" s="22"/>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="15"/>
-      <c r="B88" s="22"/>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="B88" s="24"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="15"/>
-      <c r="B89" s="22"/>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="B89" s="24"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="15"/>
-      <c r="B90" s="22"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="B90" s="24"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="15"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="24"/>
       <c r="L91" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="15"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="24"/>
       <c r="L92" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="15"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="24"/>
       <c r="L93" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="15"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="24"/>
       <c r="L94" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="15"/>
-      <c r="B95" s="22"/>
+      <c r="B95" s="24"/>
       <c r="L95" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="15"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="24"/>
       <c r="L96" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="15"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="24"/>
       <c r="L97" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="15"/>
-      <c r="B98" s="22"/>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="B98" s="24"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="15"/>
-      <c r="B99" s="22"/>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="B99" s="24"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="15"/>
-      <c r="B100" s="22"/>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="B100" s="24"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="15"/>
-      <c r="B101" s="22"/>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="B101" s="24"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="15"/>
-      <c r="B102" s="22"/>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="B102" s="24"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="15"/>
-      <c r="B103" s="22"/>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="B103" s="24"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="15"/>
-      <c r="B104" s="22"/>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="B104" s="24"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="15"/>
-      <c r="B105" s="22"/>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="B105" s="24"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="15"/>
-      <c r="B106" s="22"/>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="15"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
   <si>
     <t>index|索引</t>
   </si>
@@ -37,6 +37,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -47,6 +48,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -65,6 +67,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -75,6 +78,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,9 +188,6 @@
     <t>task_index|任务们</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
     <t>30,31,32,33,34,35,36,37</t>
   </si>
   <si>
@@ -265,6 +266,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,6 +277,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,9 +411,6 @@
     <t>在商城中购买3次998元</t>
   </si>
   <si>
-    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
-  </si>
-  <si>
     <t>"4000000","900","肩颈按摩仪"</t>
   </si>
   <si>
@@ -500,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -510,6 +511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -714,6 +716,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -723,6 +726,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>00万金币</t>
@@ -743,6 +747,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -752,6 +757,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>000万金币</t>
@@ -771,13 +777,398 @@
   </si>
   <si>
     <t>"手帕纸10包",</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型--normal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型--cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次道具</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计击杀10条彩金鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个BAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出2个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出4个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出1个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中1万及以上档次触发1次火烧赤壁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中1万及以上档次触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中连胜3局</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,64,65,66,67,68,69,70,71,72,73</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,74,75,76,77,78,79,80,81,82,83</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,17 +1180,20 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -807,12 +1201,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -829,19 +1225,29 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,12 +1293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +1346,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,23 +1409,33 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1303,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1322,62 +1732,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31">
-        <v>1</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1385,16 +1795,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1402,16 +1812,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>4</v>
       </c>
     </row>
@@ -1419,16 +1829,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>5</v>
       </c>
     </row>
@@ -1436,16 +1846,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>6</v>
       </c>
     </row>
@@ -1453,13 +1863,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E8">
@@ -1473,7 +1883,7 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
@@ -1507,7 +1917,7 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
@@ -1517,8 +1927,42 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1526,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1540,156 +1984,156 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="25" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30">
+      <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C5" s="32">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D5" s="32">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E5" s="32">
         <v>0</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C6" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E6" s="32">
         <v>0</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C7" s="32">
         <v>0</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C8">
@@ -1701,7 +2145,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1719,8 +2163,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>47</v>
+      <c r="G9" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1739,8 +2183,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>48</v>
+      <c r="G10" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1759,12 +2203,52 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>49</v>
+      <c r="G11" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1772,11 +2256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1805,61 +2289,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,22 +2354,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -1903,22 +2387,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -1938,22 +2422,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -1971,22 +2455,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2004,22 +2488,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2037,22 +2521,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2071,22 +2555,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2098,22 +2582,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2125,22 +2609,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2155,19 +2639,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2179,22 +2663,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2206,22 +2690,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2233,22 +2717,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2260,22 +2744,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2287,22 +2771,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2314,22 +2798,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2341,22 +2825,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2368,22 +2852,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2395,22 +2879,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2425,19 +2909,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2452,26 +2936,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2486,26 +2970,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -2520,26 +3004,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -2554,26 +3038,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2587,26 +3071,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2620,26 +3104,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2653,26 +3137,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I28" s="22"/>
       <c r="L28" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2686,19 +3170,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="22"/>
     </row>
@@ -2713,19 +3197,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="22"/>
     </row>
@@ -2740,19 +3224,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="H31" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -2769,19 +3253,19 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I32" s="22"/>
       <c r="M32" s="12"/>
@@ -2798,19 +3282,19 @@
         <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="22"/>
       <c r="M33" s="12"/>
@@ -2826,19 +3310,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="22"/>
     </row>
@@ -2853,19 +3337,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="22"/>
     </row>
@@ -2880,19 +3364,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="22"/>
     </row>
@@ -2907,19 +3391,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="22"/>
     </row>
@@ -2934,19 +3418,19 @@
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -2960,19 +3444,19 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2986,19 +3470,19 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -3012,19 +3496,19 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -3038,19 +3522,19 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H42" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -3064,19 +3548,19 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -3090,19 +3574,19 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -3116,19 +3600,19 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -3142,19 +3626,19 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -3168,19 +3652,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -3194,19 +3678,19 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -3220,19 +3704,19 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -3246,19 +3730,19 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -3272,19 +3756,19 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -3298,19 +3782,19 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -3324,19 +3808,19 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -3350,19 +3834,19 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -3376,19 +3860,19 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -3402,19 +3886,19 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -3428,19 +3912,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -3454,19 +3938,19 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -3480,19 +3964,19 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -3506,319 +3990,761 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="40">
         <v>60</v>
       </c>
       <c r="B61" s="13">
-        <v>1000704</v>
+        <v>1000703</v>
       </c>
       <c r="C61" s="3">
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="H61" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="40">
         <v>61</v>
       </c>
       <c r="B62" s="13">
-        <v>1000704</v>
+        <v>1000703</v>
       </c>
       <c r="C62" s="3">
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="40">
         <v>62</v>
       </c>
       <c r="B63" s="13">
-        <v>1000704</v>
+        <v>1000703</v>
       </c>
       <c r="C63" s="3">
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="40">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1000705</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="40">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13">
+        <v>1000706</v>
+      </c>
+      <c r="C65" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="40">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1000706</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="40">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1000707</v>
+      </c>
+      <c r="C67" s="13">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="40">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1000708</v>
+      </c>
+      <c r="C68" s="13">
+        <v>10</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="40">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1000709</v>
+      </c>
+      <c r="C69" s="13">
+        <v>100</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="40">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1000710</v>
+      </c>
+      <c r="C70" s="13">
+        <v>100</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="40">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>1000711</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="40">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1000712</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="13">
+        <v>1</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="40">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1000713</v>
+      </c>
+      <c r="C73" s="13">
+        <v>2</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="40">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1000713</v>
+      </c>
+      <c r="C74" s="13">
+        <v>4</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="40">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1000714</v>
+      </c>
+      <c r="C75" s="13">
+        <v>100</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="40">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1000715</v>
+      </c>
+      <c r="C76" s="13">
+        <v>100</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+      <c r="F76" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="40">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1000716</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="40">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1000717</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="40">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1000718</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="40">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1000718</v>
+      </c>
+      <c r="C80" s="13">
+        <v>4</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="H80" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="40">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13">
+        <v>1000719</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="40">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13">
+        <v>1000720</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="40">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13">
+        <v>1000721</v>
+      </c>
+      <c r="C83" s="13">
+        <v>3</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="13">
+        <v>1</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="40">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1000722</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="40"/>
+    </row>
+    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="40"/>
+    </row>
+    <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="40"/>
+    </row>
+    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="40"/>
+    </row>
+    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="40"/>
+    </row>
+    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="40"/>
+    </row>
+    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="40"/>
+      <c r="L91" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="40"/>
+      <c r="L92" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M92" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="24"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="24"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="24"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
-      <c r="B74" s="24"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="15"/>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="15"/>
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="24"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="24"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
-      <c r="B81" s="24"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="15"/>
-      <c r="B82" s="24"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" s="15"/>
-      <c r="B83" s="24"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A84" s="15"/>
-      <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A85" s="15"/>
-      <c r="B85" s="24"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A86" s="15"/>
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A87" s="15"/>
-      <c r="B87" s="24"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A88" s="15"/>
-      <c r="B88" s="24"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A89" s="15"/>
-      <c r="B89" s="24"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A90" s="15"/>
-      <c r="B90" s="24"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A91" s="15"/>
-      <c r="B91" s="24"/>
-      <c r="L91" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M91" s="3" t="s">
+    </row>
+    <row r="93" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="40"/>
+      <c r="L93" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="40"/>
+      <c r="L94" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="40"/>
+      <c r="L95" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="40"/>
+      <c r="L96" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M96" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A92" s="15"/>
-      <c r="B92" s="24"/>
-      <c r="L92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A93" s="15"/>
-      <c r="B93" s="24"/>
-      <c r="L93" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A94" s="15"/>
-      <c r="B94" s="24"/>
-      <c r="L94" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A95" s="15"/>
-      <c r="B95" s="24"/>
-      <c r="L95" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A96" s="15"/>
-      <c r="B96" s="24"/>
-      <c r="L96" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="24"/>
-      <c r="L97" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A98" s="15"/>
-      <c r="B98" s="24"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A99" s="15"/>
-      <c r="B99" s="24"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A100" s="15"/>
-      <c r="B100" s="24"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A101" s="15"/>
-      <c r="B101" s="24"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A102" s="15"/>
-      <c r="B102" s="24"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A103" s="15"/>
-      <c r="B103" s="24"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A104" s="15"/>
-      <c r="B104" s="24"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A105" s="15"/>
-      <c r="B105" s="24"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A106" s="15"/>
-      <c r="B106" s="24"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A107" s="15"/>
-      <c r="B107" s="24"/>
-    </row>
+    <row r="97" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="40"/>
+      <c r="L97" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="40"/>
+    </row>
+    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="40"/>
+    </row>
+    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="40"/>
+    </row>
+    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="40"/>
+    </row>
+    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="40"/>
+    </row>
+    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="40"/>
+    </row>
+    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="40"/>
+    </row>
+    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="40"/>
+    </row>
+    <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="40"/>
+    </row>
+    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="40"/>
+    </row>
+    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="290">
   <si>
     <t>index|索引</t>
   </si>
@@ -101,9 +101,6 @@
     <t>dlyl_bg_1</t>
   </si>
   <si>
-    <t>奖励金币_cjj</t>
-  </si>
-  <si>
     <t>act_lgfl_normal</t>
   </si>
   <si>
@@ -152,12 +149,6 @@
     <t>act_qyzl_cjj</t>
   </si>
   <si>
-    <t>qyzl_bg_1</t>
-  </si>
-  <si>
-    <t>七月赠礼_cjj</t>
-  </si>
-  <si>
     <t>act_xhyl</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
   </si>
   <si>
     <t>task_index|任务们</t>
-  </si>
-  <si>
-    <t>30,31,32,33,34,35,36,37</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -540,15 +528,9 @@
     <t>100,</t>
   </si>
   <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-  </si>
-  <si>
     <t>1888,</t>
   </si>
   <si>
-    <t>在水果消消乐中累计消除88个西瓜</t>
-  </si>
-  <si>
     <t>2888,</t>
   </si>
   <si>
@@ -573,13 +555,7 @@
     <t>8888,</t>
   </si>
   <si>
-    <t>完成以上所有任务</t>
-  </si>
-  <si>
     <t>128000,</t>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
   </si>
   <si>
     <t>累计消耗10万金币</t>
@@ -768,15 +744,6 @@
   </si>
   <si>
     <t>"prop_xxl_card_chip_2",</t>
-  </si>
-  <si>
-    <t>"美的智能风扇",</t>
-  </si>
-  <si>
-    <t>"不锈钢绞肉机",</t>
-  </si>
-  <si>
-    <t>"手帕纸10包",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
@@ -1161,6 +1128,339 @@
   </si>
   <si>
     <t>63,74,75,76,77,78,79,80,81,82,83</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除88个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAR</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录有礼c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jj</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>byzl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_dlyl_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlyl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月赠礼cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个BAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中任意召唤出1个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出3个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中触发1次天女散花</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,30,31,32,33,34,35,36,84</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>93,85,86,87,88,89,90,91,92</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1314,6 +1614,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1346,7 +1652,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,6 +1742,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1713,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1784,8 +2097,8 @@
       <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>12</v>
+      <c r="D3" s="46" t="s">
+        <v>254</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -1796,13 +2109,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="32">
         <v>3</v>
@@ -1813,13 +2126,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="32">
         <v>4</v>
@@ -1830,13 +2143,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="32">
         <v>5</v>
@@ -1847,13 +2160,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="32">
         <v>6</v>
@@ -1864,13 +2177,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1881,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1898,13 +2211,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>258</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1915,13 +2228,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1932,13 +2245,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1949,16 +2262,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E13">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1970,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,25 +2320,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2029,7 +2359,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="39" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2049,8 +2379,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="39" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2058,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="31">
         <v>0</v>
@@ -2077,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" s="32">
         <v>0</v>
@@ -2096,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="31">
         <v>0</v>
@@ -2115,7 +2445,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="32">
         <v>0</v>
@@ -2134,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2152,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2164,15 +2494,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2183,8 +2513,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>47</v>
+      <c r="G10" s="45" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2192,7 +2522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2204,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2212,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2224,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2232,7 +2562,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2244,13 +2574,33 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>259</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2259,8 +2609,8 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,61 +2639,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2354,22 +2704,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -2387,22 +2737,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2422,22 +2772,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -2455,22 +2805,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2488,22 +2838,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2521,22 +2871,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2555,22 +2905,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2582,22 +2932,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2609,22 +2959,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2639,19 +2989,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2663,22 +3013,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2690,22 +3040,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2717,22 +3067,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2744,22 +3094,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2771,22 +3121,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2798,22 +3148,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2825,22 +3175,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2852,22 +3202,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2879,22 +3229,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2909,19 +3259,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2936,26 +3286,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2970,26 +3320,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -3004,26 +3354,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -3038,26 +3388,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3071,26 +3421,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3104,26 +3454,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3137,26 +3487,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I28" s="22"/>
       <c r="L28" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3170,19 +3520,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I29" s="22"/>
     </row>
@@ -3197,19 +3547,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I30" s="22"/>
     </row>
@@ -3224,19 +3574,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -3253,19 +3603,19 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I32" s="22"/>
       <c r="M32" s="12"/>
@@ -3281,20 +3631,20 @@
       <c r="C33" s="2">
         <v>88</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>146</v>
+      <c r="D33" s="42" t="s">
+        <v>249</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I33" s="22"/>
       <c r="M33" s="12"/>
@@ -3310,19 +3660,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I34" s="22"/>
     </row>
@@ -3337,19 +3687,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I35" s="22"/>
     </row>
@@ -3364,19 +3714,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I36" s="22"/>
     </row>
@@ -3391,19 +3741,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I37" s="22"/>
     </row>
@@ -3415,22 +3765,22 @@
         <v>1000696</v>
       </c>
       <c r="C38" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -3444,19 +3794,19 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -3470,19 +3820,19 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -3496,19 +3846,19 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -3522,19 +3872,19 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -3548,19 +3898,19 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -3574,19 +3924,19 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -3600,19 +3950,19 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H45" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -3626,19 +3976,19 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -3652,19 +4002,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -3678,19 +4028,19 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -3704,19 +4054,19 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -3730,19 +4080,19 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -3756,19 +4106,19 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -3782,19 +4132,19 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -3808,19 +4158,19 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -3834,19 +4184,19 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -3860,19 +4210,19 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -3886,19 +4236,19 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -3912,19 +4262,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -3938,19 +4288,19 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -3964,19 +4314,19 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -3990,19 +4340,19 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,19 +4366,19 @@
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4042,19 +4392,19 @@
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4068,19 +4418,19 @@
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4094,19 +4444,19 @@
         <v>1</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4120,19 +4470,19 @@
         <v>100000</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E65" s="13">
         <v>1</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4146,19 +4496,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E66" s="13">
         <v>2</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4172,19 +4522,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E67" s="13">
         <v>1</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G67" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="H67" s="41" t="s">
         <v>240</v>
-      </c>
-      <c r="H67" s="41" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4198,19 +4548,19 @@
         <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E68" s="13">
         <v>1</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4224,19 +4574,19 @@
         <v>100</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E69" s="13">
         <v>1</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4250,19 +4600,19 @@
         <v>100</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4276,19 +4626,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4302,19 +4652,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G72" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="H72" s="41" t="s">
         <v>244</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4328,19 +4678,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="13">
-        <v>1</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>237</v>
-      </c>
       <c r="G73" s="41" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4354,19 +4704,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E74" s="13">
         <v>2</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G74" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="H74" s="41" t="s">
         <v>244</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4380,19 +4730,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4406,19 +4756,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4432,19 +4782,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4458,19 +4808,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4484,19 +4834,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="F79" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="G79" s="41" t="s">
-        <v>248</v>
-      </c>
       <c r="H79" s="41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4510,22 +4860,22 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -4536,22 +4886,22 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -4562,22 +4912,22 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -4588,22 +4938,22 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E83" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -4614,138 +4964,326 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G84" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="40">
+        <v>84</v>
+      </c>
+      <c r="B85" s="13">
+        <v>1000723</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1</v>
+      </c>
+      <c r="D85" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="H84" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="40"/>
-    </row>
-    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="40"/>
-    </row>
-    <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="40"/>
-    </row>
-    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="40"/>
-    </row>
-    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="40"/>
-    </row>
-    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="40"/>
-    </row>
-    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40"/>
-      <c r="L91" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M91" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="40"/>
-      <c r="L92" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M92" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="40"/>
-      <c r="L93" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="M93" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="40"/>
-      <c r="L94" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M94" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H85" s="41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="40">
+        <v>85</v>
+      </c>
+      <c r="B86" s="47">
+        <v>1000724</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" s="13">
+        <v>1</v>
+      </c>
+      <c r="F86" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="H86" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="40">
+        <v>86</v>
+      </c>
+      <c r="B87" s="47">
+        <v>1000725</v>
+      </c>
+      <c r="C87" s="13">
+        <v>88</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+      <c r="F87" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="40">
+        <v>87</v>
+      </c>
+      <c r="B88" s="47">
+        <v>1000726</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1</v>
+      </c>
+      <c r="F88" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="40">
+        <v>88</v>
+      </c>
+      <c r="B89" s="47">
+        <v>1000727</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E89" s="13">
+        <v>1</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G89" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H89" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="40">
+        <v>89</v>
+      </c>
+      <c r="B90" s="47">
+        <v>1000728</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E90" s="13">
+        <v>1</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="H90" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="40">
+        <v>90</v>
+      </c>
+      <c r="B91" s="47">
+        <v>1000729</v>
+      </c>
+      <c r="C91" s="13">
+        <v>3</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" s="13">
+        <v>1</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H91" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="40">
+        <v>91</v>
+      </c>
+      <c r="B92" s="47">
+        <v>1000730</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G92" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="H92" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="40">
+        <v>92</v>
+      </c>
+      <c r="B93" s="47">
+        <v>1000731</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" s="13">
+        <v>1</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="H93" s="41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="40">
+        <v>93</v>
+      </c>
+      <c r="B94" s="47">
+        <v>1000732</v>
+      </c>
+      <c r="C94" s="13">
+        <v>8</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="H94" s="41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40"/>
-      <c r="L95" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M95" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="40"/>
-      <c r="L96" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M96" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="40"/>
-      <c r="L97" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M97" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="40"/>
     </row>
-    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="40"/>
     </row>
-    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="40"/>
     </row>
-    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="40"/>
     </row>
-    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="40"/>
     </row>
-    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="40"/>
     </row>
-    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="40"/>
     </row>
-    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="40"/>
     </row>
-    <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40"/>
     </row>
-    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="40"/>
     </row>
-    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="301">
   <si>
     <t>index|索引</t>
   </si>
@@ -762,10 +762,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>act_task_cjj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>免费话费</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -790,14 +786,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中累计使用10次道具</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计击杀10条彩金鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>在水果消消乐中3万及以上档次累计消除100个西瓜</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -811,10 +799,6 @@
   </si>
   <si>
     <t>在西游消消乐中1万及以上档次消除1次唐僧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中1万及以上档次召唤出2个英雄</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1110,23 +1094,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3,64,65,66,67,68,69,70,71,72,73</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>63,74,75,76,77,78,79,80,81,82,83</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1461,6 +1428,119 @@
   </si>
   <si>
     <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条黄金灯笼鱼</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计在线3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0分钟</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>95,64,65,66,67,94,68,69,72,73,63</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出2次英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出4次英雄</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1547,7 +1627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1620,6 +1700,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1652,7 +1738,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1747,6 +1833,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,7 +2122,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -2214,10 +2307,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2251,7 +2344,7 @@
         <v>199</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2262,13 +2355,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>200</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2279,13 +2372,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -2303,7 +2396,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2473,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="39" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2542,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2554,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2562,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2574,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2582,7 +2675,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2594,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2609,8 +2702,8 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3326,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>104</v>
@@ -3586,7 +3679,7 @@
         <v>139</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -3632,7 +3725,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3768,7 +3861,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3780,7 +3873,7 @@
         <v>149</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -4014,7 +4107,7 @@
         <v>167</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -4274,7 +4367,7 @@
         <v>186</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -4352,7 +4445,7 @@
         <v>191</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4430,189 +4523,189 @@
         <v>84</v>
       </c>
       <c r="H63" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="48">
+        <v>63</v>
+      </c>
+      <c r="B64" s="49">
+        <v>1000705</v>
+      </c>
+      <c r="C64" s="49">
+        <v>1</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="49">
+        <v>1</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="48">
+        <v>64</v>
+      </c>
+      <c r="B65" s="49">
+        <v>1000706</v>
+      </c>
+      <c r="C65" s="49">
+        <v>100000</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="49">
+        <v>1</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="48">
+        <v>65</v>
+      </c>
+      <c r="B66" s="49">
+        <v>1000706</v>
+      </c>
+      <c r="C66" s="49">
+        <v>1000000</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" s="49">
+        <v>2</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="H66" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="48">
+        <v>66</v>
+      </c>
+      <c r="B67" s="49">
+        <v>1000707</v>
+      </c>
+      <c r="C67" s="49">
+        <v>10</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="E67" s="49">
+        <v>1</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="H67" s="50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="48">
+        <v>67</v>
+      </c>
+      <c r="B68" s="49">
+        <v>1000708</v>
+      </c>
+      <c r="C68" s="49">
+        <v>3</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" s="49">
+        <v>1</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="H68" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="48">
+        <v>68</v>
+      </c>
+      <c r="B69" s="49">
+        <v>1000709</v>
+      </c>
+      <c r="C69" s="49">
+        <v>100</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="49">
+        <v>1</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G69" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H69" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="40">
-        <v>63</v>
-      </c>
-      <c r="B64" s="13">
-        <v>1000705</v>
-      </c>
-      <c r="C64" s="13">
-        <v>1</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" s="13">
-        <v>1</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="40">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13">
-        <v>1000706</v>
-      </c>
-      <c r="C65" s="13">
-        <v>100000</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="13">
-        <v>1</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G65" s="41" t="s">
+    <row r="70" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="48">
+        <v>69</v>
+      </c>
+      <c r="B70" s="49">
+        <v>1000710</v>
+      </c>
+      <c r="C70" s="49">
+        <v>100</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="49">
+        <v>1</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G70" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="H65" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="40">
-        <v>65</v>
-      </c>
-      <c r="B66" s="13">
-        <v>1000706</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="E66" s="13">
-        <v>2</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="40">
-        <v>66</v>
-      </c>
-      <c r="B67" s="13">
-        <v>1000707</v>
-      </c>
-      <c r="C67" s="13">
-        <v>10</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E67" s="13">
-        <v>1</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="H67" s="41" t="s">
+      <c r="H70" s="50" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="40">
-        <v>67</v>
-      </c>
-      <c r="B68" s="13">
-        <v>1000708</v>
-      </c>
-      <c r="C68" s="13">
-        <v>10</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="13">
-        <v>1</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="40">
-        <v>68</v>
-      </c>
-      <c r="B69" s="13">
-        <v>1000709</v>
-      </c>
-      <c r="C69" s="13">
-        <v>100</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="13">
-        <v>1</v>
-      </c>
-      <c r="F69" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G69" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="H69" s="41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="40">
-        <v>69</v>
-      </c>
-      <c r="B70" s="13">
-        <v>1000710</v>
-      </c>
-      <c r="C70" s="13">
-        <v>100</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="13">
-        <v>1</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4626,19 +4719,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4652,71 +4745,71 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="40">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="48">
         <v>72</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="49">
         <v>1000713</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="49">
         <v>2</v>
       </c>
-      <c r="D73" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" s="13">
-        <v>1</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G73" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="40">
+      <c r="D73" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="49">
+        <v>1</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H73" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="48">
         <v>73</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="49">
         <v>1000713</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="49">
         <v>4</v>
       </c>
-      <c r="D74" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="13">
+      <c r="D74" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" s="49">
         <v>2</v>
       </c>
-      <c r="F74" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G74" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>244</v>
+      <c r="F74" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="H74" s="50" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4730,19 +4823,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4756,19 +4849,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4782,19 +4875,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4808,19 +4901,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4834,19 +4927,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4860,19 +4953,19 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4886,19 +4979,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4912,19 +5005,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="E82" s="13">
-        <v>1</v>
-      </c>
-      <c r="F82" s="41" t="s">
-        <v>226</v>
-      </c>
       <c r="G82" s="41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4938,19 +5031,19 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4964,19 +5057,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4990,19 +5083,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E85" s="13">
         <v>1</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G85" s="41" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5016,19 +5109,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5042,19 +5135,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="F87" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5068,19 +5161,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="F88" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5094,19 +5187,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5120,19 +5213,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5146,19 +5239,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5172,19 +5265,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="F92" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5198,19 +5291,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="F93" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5224,26 +5317,72 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="F94" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>94</v>
+      </c>
+      <c r="B95" s="49">
+        <v>1000734</v>
+      </c>
+      <c r="C95" s="13">
+        <v>30</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H95" s="41" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="96" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>95</v>
+      </c>
+      <c r="B96" s="49">
+        <v>1000735</v>
+      </c>
+      <c r="C96" s="13">
+        <v>10</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1</v>
+      </c>
+      <c r="F96" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G96" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="H96" s="41" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="97" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="40"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="326">
   <si>
     <t>index|索引</t>
   </si>
@@ -802,6 +802,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>在水浒消消乐中1万及以上档次召唤出2个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>在水浒消消乐中1万及以上档次召唤出4个英雄</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1387,10 +1391,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"no_goto_ui","请先完成任务",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1454,6 +1454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1536,11 +1537,241 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在水浒消消乐中1万及以上档次召唤出2次英雄</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中1万及以上档次召唤出4次英雄</t>
+    <t>act_lcfl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累充返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值48元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值3000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,97,98,99,100,101,102,103,104</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2119,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2191,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -2307,10 +2538,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2372,16 +2603,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E14">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2393,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,7 +2923,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2688,6 +2936,26 @@
       </c>
       <c r="G14" s="44" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2699,11 +2967,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,25 +2980,25 @@
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="86.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="32.25" style="3" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="25.625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="3"/>
+    <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="86.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="32.25" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -2747,49 +3015,52 @@
         <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2805,24 +3076,24 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="M2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="8"/>
+      <c r="J2" s="5"/>
+      <c r="N2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="20"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2838,26 +3109,26 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="21"/>
-      <c r="R3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="21"/>
       <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2873,24 +3144,24 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="21"/>
-      <c r="R4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="21"/>
       <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2906,24 +3177,24 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="21"/>
-      <c r="R5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="21"/>
       <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2939,24 +3210,24 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="21"/>
-      <c r="R6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="21"/>
       <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2972,25 +3243,25 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3006,18 +3277,18 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3033,18 +3304,18 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3060,18 +3331,18 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3087,18 +3358,18 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3114,18 +3385,18 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3141,18 +3412,18 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3168,18 +3439,18 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3195,18 +3466,18 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3222,18 +3493,18 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3249,18 +3520,18 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3276,18 +3547,18 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3303,18 +3574,18 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3330,18 +3601,18 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3357,18 +3628,18 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3384,25 +3655,26 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="L22" s="2" t="s">
+      <c r="J22" s="15"/>
+      <c r="M22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3418,25 +3690,26 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="L23" s="2" t="s">
+      <c r="J23" s="15"/>
+      <c r="M23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3452,25 +3725,26 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="L24" s="12" t="s">
+      <c r="J24" s="15"/>
+      <c r="M24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3486,24 +3760,25 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="L25" s="2" t="s">
+      <c r="J25" s="15"/>
+      <c r="M25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3519,24 +3794,25 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="L26" s="2" t="s">
+      <c r="J26" s="15"/>
+      <c r="M26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3552,24 +3828,25 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="L27" s="2" t="s">
+      <c r="J27" s="15"/>
+      <c r="M27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3585,24 +3862,25 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="L28" s="2" t="s">
+      <c r="J28" s="22"/>
+      <c r="M28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3618,18 +3896,19 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3645,18 +3924,19 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3672,20 +3952,21 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="H31" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="I31" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="M31" s="12"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="22"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3701,20 +3982,21 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="M32" s="12"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="22"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3725,24 +4007,25 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H33" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="22"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3758,18 +4041,19 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="H34" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3785,18 +4069,19 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3812,18 +4097,19 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="H36" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3839,18 +4125,19 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="H37" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3866,17 +4153,18 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="I38" s="15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3892,17 +4180,17 @@
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="G39" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3918,17 +4206,17 @@
       <c r="E40" s="3">
         <v>2</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="G40" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -3944,17 +4232,17 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3970,17 +4258,17 @@
       <c r="E42" s="3">
         <v>3</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -3996,17 +4284,17 @@
       <c r="E43" s="3">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -4022,17 +4310,17 @@
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -4048,17 +4336,17 @@
       <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -4074,17 +4362,17 @@
       <c r="E46" s="3">
         <v>6</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -4100,17 +4388,17 @@
       <c r="E47" s="3">
         <v>3</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I47" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -4126,17 +4414,17 @@
       <c r="E48" s="3">
         <v>7</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -4152,17 +4440,17 @@
       <c r="E49" s="3">
         <v>8</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -4178,17 +4466,17 @@
       <c r="E50" s="3">
         <v>4</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -4204,17 +4492,17 @@
       <c r="E51" s="3">
         <v>9</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -4230,17 +4518,17 @@
       <c r="E52" s="3">
         <v>10</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -4256,17 +4544,17 @@
       <c r="E53" s="3">
         <v>5</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -4282,17 +4570,17 @@
       <c r="E54" s="3">
         <v>11</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -4308,17 +4596,17 @@
       <c r="E55" s="3">
         <v>6</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -4334,17 +4622,17 @@
       <c r="E56" s="3">
         <v>12</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -4360,17 +4648,17 @@
       <c r="E57" s="3">
         <v>7</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I57" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -4386,17 +4674,17 @@
       <c r="E58" s="3">
         <v>13</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -4412,17 +4700,17 @@
       <c r="E59" s="3">
         <v>8</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -4438,17 +4726,17 @@
       <c r="E60" s="3">
         <v>14</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -4464,17 +4752,17 @@
       <c r="E61" s="3">
         <v>1</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="H61" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -4490,17 +4778,17 @@
       <c r="E62" s="3">
         <v>2</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="G62" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="H62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -4516,17 +4804,17 @@
       <c r="E63" s="3">
         <v>3</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="G63" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="H63" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I63" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="48">
         <v>63</v>
       </c>
@@ -4542,17 +4830,17 @@
       <c r="E64" s="49">
         <v>1</v>
       </c>
-      <c r="F64" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G64" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="H64" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="H64" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I64" s="50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="48">
         <v>64</v>
       </c>
@@ -4568,17 +4856,17 @@
       <c r="E65" s="49">
         <v>1</v>
       </c>
-      <c r="F65" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G65" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+      <c r="I65" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="48">
         <v>65</v>
       </c>
@@ -4594,17 +4882,17 @@
       <c r="E66" s="49">
         <v>2</v>
       </c>
-      <c r="F66" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G66" s="50" t="s">
         <v>223</v>
       </c>
       <c r="H66" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="48">
         <v>66</v>
       </c>
@@ -4620,17 +4908,17 @@
       <c r="E67" s="49">
         <v>1</v>
       </c>
-      <c r="F67" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G67" s="50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="I67" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="48">
         <v>67</v>
       </c>
@@ -4646,17 +4934,17 @@
       <c r="E68" s="49">
         <v>1</v>
       </c>
-      <c r="F68" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G68" s="50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+      <c r="I68" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="48">
         <v>68</v>
       </c>
@@ -4672,17 +4960,17 @@
       <c r="E69" s="49">
         <v>1</v>
       </c>
-      <c r="F69" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G69" s="50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="I69" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="48">
         <v>69</v>
       </c>
@@ -4698,17 +4986,17 @@
       <c r="E70" s="49">
         <v>1</v>
       </c>
-      <c r="F70" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G70" s="50" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="I70" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -4724,17 +5012,17 @@
       <c r="E71" s="13">
         <v>1</v>
       </c>
-      <c r="F71" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G71" s="41" t="s">
         <v>223</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40">
         <v>71</v>
       </c>
@@ -4750,17 +5038,17 @@
       <c r="E72" s="13">
         <v>1</v>
       </c>
-      <c r="F72" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G72" s="41" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="I72" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="48">
         <v>72</v>
       </c>
@@ -4771,22 +5059,22 @@
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="E73" s="49">
         <v>1</v>
       </c>
-      <c r="F73" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G73" s="50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="I73" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="48">
         <v>73</v>
       </c>
@@ -4797,22 +5085,22 @@
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="E74" s="49">
         <v>2</v>
       </c>
-      <c r="F74" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G74" s="50" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="I74" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -4823,22 +5111,22 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>222</v>
       </c>
       <c r="G75" s="41" t="s">
         <v>223</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -4854,17 +5142,17 @@
       <c r="E76" s="13">
         <v>1</v>
       </c>
-      <c r="F76" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G76" s="41" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="I76" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -4875,22 +5163,22 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
-      <c r="F77" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G77" s="41" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+      <c r="I77" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="40">
         <v>77</v>
       </c>
@@ -4901,22 +5189,22 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G78" s="41" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="40">
         <v>78</v>
       </c>
@@ -4927,22 +5215,22 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
-      <c r="F79" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G79" s="41" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I79" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -4953,22 +5241,22 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
-      <c r="F80" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G80" s="41" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="I80" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -4979,22 +5267,22 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
-      <c r="F81" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G81" s="41" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -5005,22 +5293,22 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
-      <c r="F82" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G82" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -5031,22 +5319,22 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
-      <c r="F83" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G83" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -5057,22 +5345,22 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="G84" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="G84" s="41" t="s">
-        <v>235</v>
-      </c>
       <c r="H84" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="I84" s="41" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="40">
         <v>84</v>
       </c>
@@ -5083,22 +5371,22 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E85" s="13">
         <v>1</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>246</v>
       </c>
       <c r="G85" s="41" t="s">
         <v>247</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="I85" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="40">
         <v>85</v>
       </c>
@@ -5109,22 +5397,22 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
-      <c r="F86" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G86" s="41" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H86" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I86" s="41" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -5135,22 +5423,22 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
-      <c r="F87" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G87" s="41" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H87" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -5161,22 +5449,22 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
-      <c r="F88" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G88" s="41" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H88" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="I88" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -5187,22 +5475,22 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
-      <c r="F89" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G89" s="41" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H89" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="I89" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="40">
         <v>89</v>
       </c>
@@ -5213,22 +5501,22 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
-      <c r="F90" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G90" s="41" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H90" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="I90" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="40">
         <v>90</v>
       </c>
@@ -5239,22 +5527,22 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
-      <c r="F91" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G91" s="41" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="H91" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="40">
         <v>91</v>
       </c>
@@ -5265,22 +5553,22 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
-      <c r="F92" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G92" s="41" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="H92" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="I92" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="40">
         <v>92</v>
       </c>
@@ -5291,22 +5579,22 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
-      <c r="F93" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G93" s="41" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="I93" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -5322,17 +5610,17 @@
       <c r="E94" s="13">
         <v>1</v>
       </c>
-      <c r="F94" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G94" s="41" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="H94" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="I94" s="41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40">
         <v>94</v>
       </c>
@@ -5348,17 +5636,17 @@
       <c r="E95" s="13">
         <v>1</v>
       </c>
-      <c r="F95" s="41" t="s">
+      <c r="G95" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="H95" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="H95" s="41" t="s">
+      <c r="I95" s="41" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="40">
         <v>95</v>
       </c>
@@ -5374,52 +5662,286 @@
       <c r="E96" s="13">
         <v>1</v>
       </c>
-      <c r="F96" s="41" t="s">
+      <c r="G96" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="H96" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="I96" s="41" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="40"/>
-    </row>
-    <row r="98" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="40"/>
-    </row>
-    <row r="99" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="40"/>
-    </row>
-    <row r="100" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="40"/>
-    </row>
-    <row r="101" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="40"/>
-    </row>
-    <row r="102" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="40"/>
-    </row>
-    <row r="103" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="40"/>
-    </row>
-    <row r="104" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="40"/>
-    </row>
-    <row r="105" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="40"/>
-    </row>
-    <row r="106" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="40">
+        <v>96</v>
+      </c>
+      <c r="B97" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C97" s="13">
+        <v>10</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H97" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I97" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="40">
+        <v>97</v>
+      </c>
+      <c r="B98" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C98" s="13">
+        <v>48</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" s="13">
+        <v>2</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H98" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I98" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="40">
+        <v>98</v>
+      </c>
+      <c r="B99" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C99" s="13">
+        <v>198</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99" s="13">
+        <v>3</v>
+      </c>
+      <c r="F99" s="13">
+        <v>1</v>
+      </c>
+      <c r="G99" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H99" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I99" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="40">
+        <v>99</v>
+      </c>
+      <c r="B100" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C100" s="13">
+        <v>500</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" s="13">
+        <v>4</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1</v>
+      </c>
+      <c r="G100" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H100" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="I100" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="40">
+        <v>100</v>
+      </c>
+      <c r="B101" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C101" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" s="13">
+        <v>5</v>
+      </c>
+      <c r="F101" s="13">
+        <v>1</v>
+      </c>
+      <c r="G101" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H101" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="I101" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="40">
+        <v>101</v>
+      </c>
+      <c r="B102" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C102" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" s="13">
+        <v>6</v>
+      </c>
+      <c r="F102" s="13">
+        <v>1</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="40">
+        <v>102</v>
+      </c>
+      <c r="B103" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C103" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E103" s="13">
+        <v>7</v>
+      </c>
+      <c r="F103" s="13">
+        <v>1</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="I103" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="40">
+        <v>103</v>
+      </c>
+      <c r="B104" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C104" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E104" s="13">
+        <v>8</v>
+      </c>
+      <c r="F104" s="13">
+        <v>1</v>
+      </c>
+      <c r="G104" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H104" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="I104" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="40">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C105" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" s="13">
+        <v>9</v>
+      </c>
+      <c r="F105" s="13">
+        <v>1</v>
+      </c>
+      <c r="G105" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H105" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="I105" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40"/>
     </row>
-    <row r="107" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="40"/>
     </row>
-    <row r="108" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="403">
   <si>
     <t>index|索引</t>
   </si>
@@ -197,9 +197,6 @@
     <t>38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59</t>
   </si>
   <si>
-    <t>60,61,62</t>
-  </si>
-  <si>
     <t>id|</t>
   </si>
   <si>
@@ -1082,10 +1079,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1419,14 +1412,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>37,30,31,32,33,34,35,36,84</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>93,85,86,87,88,89,90,91,92</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1525,10 +1510,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>100,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1581,10 +1562,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>累计充值10000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"shop_gold_sum",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1593,12 +1570,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1609,13 +1582,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -1632,7 +1605,7 @@
   </si>
   <si>
     <r>
-      <t>5</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1643,13 +1616,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1660,13 +1633,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗500万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗3亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗30亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗50亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1677,13 +1706,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1694,13 +1731,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1717,7 +1758,7 @@
   </si>
   <si>
     <r>
-      <t>6</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1728,13 +1769,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1750,12 +1791,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1766,12 +1803,596 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6,97,98,99,100,101,102,103,104</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cz|是否充值任务</t>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值30000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值50000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,122,123,124,125,126,127,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水浒消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在三国消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,131,132,133,134,135,136,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1969,7 +2590,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2073,6 +2694,7 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2350,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2422,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -2538,10 +3160,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2569,13 +3191,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>201</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>202</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2586,13 +3208,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2603,13 +3225,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>253</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>255</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -2620,17 +3242,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2644,7 +3269,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2655,7 +3280,7 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="65.625" style="25" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2700,7 +3325,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2720,8 +3345,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="39" t="s">
-        <v>282</v>
+      <c r="G3" s="51" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2838,7 +3463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2874,8 +3499,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>44</v>
+      <c r="G11" s="44" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2883,10 +3508,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2895,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2903,10 +3528,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2915,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2923,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2935,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>283</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2943,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2955,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2967,11 +3592,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3000,64 +3625,64 @@
   <sheetData>
     <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3068,22 +3693,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="J2" s="5"/>
       <c r="N2" s="8"/>
@@ -3101,22 +3726,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="8"/>
@@ -3136,22 +3761,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="8"/>
@@ -3169,22 +3794,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
@@ -3202,22 +3827,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="8"/>
@@ -3235,22 +3860,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8"/>
@@ -3269,22 +3894,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -3296,22 +3921,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -3323,22 +3948,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -3353,19 +3978,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -3377,22 +4002,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -3404,22 +4029,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -3431,22 +4056,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -3458,22 +4083,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -3485,22 +4110,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -3512,22 +4137,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -3539,22 +4164,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -3566,22 +4191,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -3593,22 +4218,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -3623,19 +4248,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="5"/>
     </row>
@@ -3650,27 +4275,27 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="J22" s="15"/>
       <c r="M22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="P22" s="12"/>
     </row>
@@ -3685,27 +4310,27 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="15"/>
       <c r="M23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="P23" s="12"/>
     </row>
@@ -3720,27 +4345,27 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" s="15"/>
       <c r="M24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="P24" s="12"/>
     </row>
@@ -3755,27 +4380,27 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="15"/>
       <c r="M25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3789,27 +4414,27 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="I26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" s="15"/>
       <c r="M26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3823,27 +4448,27 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="I27" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="15"/>
       <c r="M27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3857,27 +4482,27 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="I28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="22"/>
       <c r="M28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3891,20 +4516,20 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="22"/>
     </row>
@@ -3919,20 +4544,20 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" s="22"/>
     </row>
@@ -3947,20 +4572,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J31" s="22"/>
       <c r="N31" s="12"/>
@@ -3977,20 +4602,20 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J32" s="22"/>
       <c r="N32" s="12"/>
@@ -4007,20 +4632,20 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="22"/>
       <c r="N33" s="12"/>
@@ -4036,20 +4661,20 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" s="22"/>
     </row>
@@ -4064,20 +4689,20 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="22"/>
     </row>
@@ -4092,20 +4717,20 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" s="22"/>
     </row>
@@ -4120,20 +4745,20 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="22"/>
     </row>
@@ -4148,20 +4773,20 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -4175,19 +4800,19 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="I39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -4201,19 +4826,19 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -4227,19 +4852,19 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -4253,19 +4878,19 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -4279,19 +4904,19 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4305,19 +4930,19 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -4331,19 +4956,19 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -4357,19 +4982,19 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -4383,19 +5008,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -4409,19 +5034,19 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -4435,19 +5060,19 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -4461,19 +5086,19 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -4487,19 +5112,19 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -4513,19 +5138,19 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -4539,19 +5164,19 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -4565,19 +5190,19 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -4591,19 +5216,19 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -4617,19 +5242,19 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -4643,19 +5268,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -4669,19 +5294,19 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -4695,19 +5320,19 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -4721,19 +5346,19 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4747,19 +5372,19 @@
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="18" t="s">
+      <c r="H61" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>194</v>
-      </c>
       <c r="I61" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4773,19 +5398,19 @@
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4799,19 +5424,19 @@
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4825,19 +5450,19 @@
         <v>1</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E64" s="49">
         <v>1</v>
       </c>
       <c r="G64" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4851,19 +5476,19 @@
         <v>100000</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E65" s="49">
         <v>1</v>
       </c>
       <c r="G65" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I65" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4877,19 +5502,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E66" s="49">
         <v>2</v>
       </c>
       <c r="G66" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H66" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="H66" s="50" t="s">
-        <v>224</v>
-      </c>
       <c r="I66" s="50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4903,19 +5528,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E67" s="49">
         <v>1</v>
       </c>
       <c r="G67" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I67" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4929,19 +5554,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E68" s="49">
         <v>1</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4955,19 +5580,19 @@
         <v>100</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E69" s="49">
         <v>1</v>
       </c>
       <c r="G69" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4981,19 +5606,19 @@
         <v>100</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E70" s="49">
         <v>1</v>
       </c>
       <c r="G70" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I70" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5007,19 +5632,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="G71" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H71" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="H71" s="41" t="s">
-        <v>224</v>
-      </c>
       <c r="I71" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5033,19 +5658,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5059,19 +5684,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E73" s="49">
         <v>1</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5085,19 +5710,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E74" s="49">
         <v>2</v>
       </c>
       <c r="G74" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5111,19 +5736,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="G75" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="H75" s="41" t="s">
-        <v>224</v>
-      </c>
       <c r="I75" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5137,19 +5762,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I76" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5163,19 +5788,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5189,19 +5814,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5215,19 +5840,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5241,19 +5866,19 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5267,19 +5892,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5293,19 +5918,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5319,19 +5944,19 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5345,19 +5970,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5371,19 +5996,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H85" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="G85" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="H85" s="41" t="s">
-        <v>248</v>
-      </c>
       <c r="I85" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5397,19 +6022,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5423,19 +6048,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5449,19 +6074,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5475,19 +6100,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5501,19 +6126,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5527,19 +6152,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5553,19 +6178,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5579,19 +6204,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5605,19 +6230,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5631,19 +6256,19 @@
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H95" s="41" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I95" s="41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5657,19 +6282,19 @@
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H96" s="41" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>296</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5683,7 +6308,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
@@ -5692,13 +6317,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5712,7 +6337,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -5721,13 +6346,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5741,7 +6366,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -5750,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5770,7 +6395,7 @@
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -5779,13 +6404,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5799,7 +6424,7 @@
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E101" s="13">
         <v>5</v>
@@ -5808,13 +6433,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5828,7 +6453,7 @@
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -5837,13 +6462,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5857,7 +6482,7 @@
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -5866,13 +6491,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5886,7 +6511,7 @@
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -5895,13 +6520,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5915,7 +6540,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -5924,24 +6549,882 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="H105" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="I105" s="41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="40">
+        <v>105</v>
+      </c>
+      <c r="B106" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C106" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E106" s="13">
+        <v>1</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H106" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I106" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="40">
+        <v>106</v>
+      </c>
+      <c r="B107" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E107" s="13">
+        <v>2</v>
+      </c>
+      <c r="G107" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="H107" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="I107" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="40">
+        <v>107</v>
+      </c>
+      <c r="B108" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C108" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E108" s="13">
+        <v>3</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H108" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I108" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="40">
+        <v>108</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C109" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E109" s="13">
+        <v>4</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H109" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I109" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="40">
+        <v>109</v>
+      </c>
+      <c r="B110" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C110" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E110" s="13">
+        <v>5</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H110" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="I110" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="40">
+        <v>110</v>
+      </c>
+      <c r="B111" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C111" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" s="3">
+        <v>6</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="I111" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="40">
+        <v>111</v>
+      </c>
+      <c r="B112" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C112" s="3">
+        <v>300000000</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E112" s="3">
+        <v>7</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H112" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="I112" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="40">
+        <v>112</v>
+      </c>
+      <c r="B113" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C113" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" s="3">
+        <v>8</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H113" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="I113" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="40">
+        <v>113</v>
+      </c>
+      <c r="B114" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E114" s="3">
+        <v>9</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H114" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="I114" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="40">
+        <v>114</v>
+      </c>
+      <c r="B115" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E115" s="3">
+        <v>10</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H115" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="I115" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="40">
+        <v>115</v>
+      </c>
+      <c r="B116" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="E116" s="3">
+        <v>11</v>
+      </c>
+      <c r="G116" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H116" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="I116" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="40">
+        <v>116</v>
+      </c>
+      <c r="B117" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C117" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="40"/>
-    </row>
-    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="40"/>
-    </row>
-    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E117" s="3">
+        <v>12</v>
+      </c>
+      <c r="G117" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H117" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="I117" s="41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="40">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1000737</v>
+      </c>
+      <c r="C118" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="E118" s="3">
+        <v>10</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="H118" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="I118" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="40">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1000737</v>
+      </c>
+      <c r="C119" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="E119" s="3">
+        <v>11</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="H119" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="I119" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="40">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1000737</v>
+      </c>
+      <c r="C120" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" s="3">
+        <v>12</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="H120" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="I120" s="42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="40">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1000739</v>
+      </c>
+      <c r="C121" s="3">
+        <v>8</v>
+      </c>
+      <c r="D121" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="40">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1000740</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="40">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C123" s="3">
+        <v>10</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H123" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="I123" s="42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="40">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C124" s="3">
+        <v>20</v>
+      </c>
+      <c r="D124" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H124" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="I124" s="42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="40">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C125" s="3">
+        <v>50</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E125" s="3">
+        <v>3</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H125" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I125" s="42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="40">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C126" s="3">
+        <v>100</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H126" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="I126" s="42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="40">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1000742</v>
+      </c>
+      <c r="C127" s="3">
+        <v>10</v>
+      </c>
+      <c r="D127" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H127" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="I127" s="42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="40">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1000742</v>
+      </c>
+      <c r="C128" s="3">
+        <v>20</v>
+      </c>
+      <c r="D128" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H128" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="I128" s="42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="40">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1000743</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H129" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="I129" s="42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="40">
+        <v>129</v>
+      </c>
+      <c r="B130" s="13">
+        <v>1000744</v>
+      </c>
+      <c r="C130" s="3">
+        <v>8</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="40">
+        <v>130</v>
+      </c>
+      <c r="B131" s="13">
+        <v>1000745</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="40">
+        <v>131</v>
+      </c>
+      <c r="B132" s="13">
+        <v>1000746</v>
+      </c>
+      <c r="C132" s="3">
+        <v>20</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H132" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="I132" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="40">
+        <v>132</v>
+      </c>
+      <c r="B133" s="13">
+        <v>1000747</v>
+      </c>
+      <c r="C133" s="3">
+        <v>20</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H133" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="I133" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="40">
+        <v>133</v>
+      </c>
+      <c r="B134" s="13">
+        <v>1000748</v>
+      </c>
+      <c r="C134" s="3">
+        <v>20</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H134" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I134" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" s="40">
+        <v>134</v>
+      </c>
+      <c r="B135" s="13">
+        <v>1000749</v>
+      </c>
+      <c r="C135" s="3">
+        <v>20</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H135" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="I135" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" s="40">
+        <v>135</v>
+      </c>
+      <c r="B136" s="13">
+        <v>1000750</v>
+      </c>
+      <c r="C136" s="3">
+        <v>20</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H136" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="I136" s="42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="40">
+        <v>136</v>
+      </c>
+      <c r="B137" s="13">
+        <v>1000751</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H137" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="I137" s="42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="40">
+        <v>137</v>
+      </c>
+      <c r="B138" s="13">
+        <v>1000752</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H138" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="I138" s="42" t="s">
+        <v>382</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="449">
   <si>
     <t>index|索引</t>
   </si>
@@ -1570,6 +1570,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -1588,6 +1609,23 @@
   </si>
   <si>
     <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>8</t>
     </r>
     <r>
@@ -1605,6 +1643,23 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>3</t>
     </r>
     <r>
@@ -1622,6 +1677,23 @@
   </si>
   <si>
     <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>6</t>
     </r>
     <r>
@@ -1638,6 +1710,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"shop_bay","jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1719,6 +1808,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -2264,10 +2357,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>120,121,122,123,124,125,126,127,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2356,43 +2445,395 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>129,130,131,132,133,134,135,136,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>每天在游戏中累计购买3次2498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次998元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次15元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次30元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次50元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800000,2400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,800000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,40000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,80000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,120000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>138,139,140,141,142</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>52,153,154,155</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47,148,149,150,151</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000,</t>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2479,7 +2920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2558,6 +2999,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2590,7 +3037,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2695,6 +3142,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2975,7 +3430,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3269,7 +3724,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3346,7 +3801,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3357,16 +3812,18 @@
         <v>38</v>
       </c>
       <c r="C4" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="30"/>
-      <c r="G4" s="33"/>
+      <c r="G4" s="55" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
@@ -3376,16 +3833,18 @@
         <v>39</v>
       </c>
       <c r="C5" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="55" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
@@ -3395,16 +3854,18 @@
         <v>40</v>
       </c>
       <c r="C6" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="55" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
@@ -3414,16 +3875,18 @@
         <v>41</v>
       </c>
       <c r="C7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="55" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3500,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3560,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3580,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3592,11 +4055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3640,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -6034,7 +6497,7 @@
         <v>263</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6236,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H94" s="41" t="s">
         <v>271</v>
@@ -6294,7 +6757,7 @@
         <v>292</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6317,13 +6780,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6346,13 +6809,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6375,13 +6838,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6404,13 +6867,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6433,13 +6896,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6462,13 +6925,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6491,13 +6954,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6520,13 +6983,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6540,7 +7003,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -6549,10 +7012,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>240</v>
@@ -6569,19 +7032,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6595,19 +7058,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H107" s="41" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I107" s="41" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6621,19 +7084,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6647,19 +7110,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6673,19 +7136,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -6699,19 +7162,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="I111" s="41" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -6725,19 +7188,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -6751,19 +7214,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -6777,19 +7240,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -6803,19 +7266,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -6829,19 +7292,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -6855,19 +7318,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -6881,7 +7344,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -6890,13 +7353,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -6910,7 +7373,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -6919,13 +7382,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -6939,7 +7402,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -6948,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -6968,19 +7431,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -6994,19 +7457,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7020,19 +7483,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H123" s="42" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7046,19 +7509,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7072,19 +7535,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7098,19 +7561,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7124,19 +7587,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7150,19 +7613,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7176,19 +7639,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7202,19 +7665,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7228,19 +7691,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7254,19 +7717,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7280,19 +7743,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7306,19 +7769,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7332,19 +7795,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7358,19 +7821,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7384,19 +7847,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7410,19 +7873,799 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>355</v>
+      <c r="G138" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>382</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="53">
+        <v>138</v>
+      </c>
+      <c r="B139" s="52">
+        <v>1000753</v>
+      </c>
+      <c r="C139" s="52">
+        <v>3</v>
+      </c>
+      <c r="D139" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="E139" s="52">
+        <v>1</v>
+      </c>
+      <c r="G139" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H139" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="I139" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="53">
+        <v>139</v>
+      </c>
+      <c r="B140" s="52">
+        <v>1000754</v>
+      </c>
+      <c r="C140" s="52">
+        <v>3</v>
+      </c>
+      <c r="D140" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="E140" s="52">
+        <v>1</v>
+      </c>
+      <c r="G140" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H140" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="I140" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="53">
+        <v>140</v>
+      </c>
+      <c r="B141" s="52">
+        <v>1000755</v>
+      </c>
+      <c r="C141" s="52">
+        <v>3</v>
+      </c>
+      <c r="D141" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="E141" s="52">
+        <v>1</v>
+      </c>
+      <c r="G141" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H141" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="I141" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="53">
+        <v>141</v>
+      </c>
+      <c r="B142" s="52">
+        <v>1000756</v>
+      </c>
+      <c r="C142" s="52">
+        <v>3</v>
+      </c>
+      <c r="D142" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E142" s="52">
+        <v>1</v>
+      </c>
+      <c r="G142" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H142" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="I142" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="53">
+        <v>142</v>
+      </c>
+      <c r="B143" s="52">
+        <v>1000757</v>
+      </c>
+      <c r="C143" s="52">
+        <v>3</v>
+      </c>
+      <c r="D143" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E143" s="52">
+        <v>1</v>
+      </c>
+      <c r="G143" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H143" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="I143" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="53">
+        <v>143</v>
+      </c>
+      <c r="B144" s="52">
+        <v>1000758</v>
+      </c>
+      <c r="C144" s="52">
+        <v>3</v>
+      </c>
+      <c r="D144" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E144" s="52">
+        <v>1</v>
+      </c>
+      <c r="G144" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H144" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="I144" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="53">
+        <v>144</v>
+      </c>
+      <c r="B145" s="52">
+        <v>1000759</v>
+      </c>
+      <c r="C145" s="52">
+        <v>3</v>
+      </c>
+      <c r="D145" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="E145" s="52">
+        <v>1</v>
+      </c>
+      <c r="G145" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H145" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="I145" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="53">
+        <v>145</v>
+      </c>
+      <c r="B146" s="52">
+        <v>1000760</v>
+      </c>
+      <c r="C146" s="52">
+        <v>3</v>
+      </c>
+      <c r="D146" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="E146" s="52">
+        <v>1</v>
+      </c>
+      <c r="G146" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H146" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="I146" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="53">
+        <v>146</v>
+      </c>
+      <c r="B147" s="52">
+        <v>1000761</v>
+      </c>
+      <c r="C147" s="52">
+        <v>3</v>
+      </c>
+      <c r="D147" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E147" s="52">
+        <v>1</v>
+      </c>
+      <c r="G147" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H147" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="I147" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="53">
+        <v>147</v>
+      </c>
+      <c r="B148" s="52">
+        <v>1000762</v>
+      </c>
+      <c r="C148" s="52">
+        <v>3</v>
+      </c>
+      <c r="D148" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="E148" s="52">
+        <v>1</v>
+      </c>
+      <c r="G148" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H148" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="I148" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="53">
+        <v>148</v>
+      </c>
+      <c r="B149" s="52">
+        <v>1000763</v>
+      </c>
+      <c r="C149" s="52">
+        <v>3</v>
+      </c>
+      <c r="D149" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="E149" s="52">
+        <v>1</v>
+      </c>
+      <c r="G149" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H149" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="I149" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="53">
+        <v>149</v>
+      </c>
+      <c r="B150" s="52">
+        <v>1000764</v>
+      </c>
+      <c r="C150" s="52">
+        <v>3</v>
+      </c>
+      <c r="D150" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="E150" s="52">
+        <v>1</v>
+      </c>
+      <c r="G150" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H150" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="I150" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="53">
+        <v>150</v>
+      </c>
+      <c r="B151" s="52">
+        <v>1000765</v>
+      </c>
+      <c r="C151" s="52">
+        <v>3</v>
+      </c>
+      <c r="D151" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E151" s="52">
+        <v>1</v>
+      </c>
+      <c r="G151" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H151" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="I151" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="53">
+        <v>151</v>
+      </c>
+      <c r="B152" s="52">
+        <v>1000766</v>
+      </c>
+      <c r="C152" s="52">
+        <v>3</v>
+      </c>
+      <c r="D152" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E152" s="52">
+        <v>1</v>
+      </c>
+      <c r="G152" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H152" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="I152" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="53">
+        <v>152</v>
+      </c>
+      <c r="B153" s="52">
+        <v>1000767</v>
+      </c>
+      <c r="C153" s="52">
+        <v>3</v>
+      </c>
+      <c r="D153" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E153" s="52">
+        <v>1</v>
+      </c>
+      <c r="G153" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H153" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="I153" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="53">
+        <v>153</v>
+      </c>
+      <c r="B154" s="52">
+        <v>1000768</v>
+      </c>
+      <c r="C154" s="52">
+        <v>3</v>
+      </c>
+      <c r="D154" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="E154" s="52">
+        <v>1</v>
+      </c>
+      <c r="G154" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H154" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="I154" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="53">
+        <v>154</v>
+      </c>
+      <c r="B155" s="52">
+        <v>1000769</v>
+      </c>
+      <c r="C155" s="52">
+        <v>3</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="E155" s="52">
+        <v>1</v>
+      </c>
+      <c r="G155" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H155" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="I155" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="53">
+        <v>155</v>
+      </c>
+      <c r="B156" s="52">
+        <v>1000770</v>
+      </c>
+      <c r="C156" s="52">
+        <v>3</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E156" s="52">
+        <v>1</v>
+      </c>
+      <c r="G156" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H156" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="I156" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="53">
+        <v>156</v>
+      </c>
+      <c r="B157" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C157" s="52">
+        <v>3</v>
+      </c>
+      <c r="D157" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="E157" s="52">
+        <v>1</v>
+      </c>
+      <c r="G157" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="H157" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I157" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="53">
+        <v>157</v>
+      </c>
+      <c r="B158" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C158" s="52">
+        <v>10</v>
+      </c>
+      <c r="D158" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="E158" s="52">
+        <v>2</v>
+      </c>
+      <c r="G158" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H158" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I158" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="53">
+        <v>158</v>
+      </c>
+      <c r="B159" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C159" s="52">
+        <v>20</v>
+      </c>
+      <c r="D159" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="E159" s="52">
+        <v>3</v>
+      </c>
+      <c r="G159" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H159" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="I159" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="53">
+        <v>159</v>
+      </c>
+      <c r="B160" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C160" s="52">
+        <v>30</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="E160" s="52">
+        <v>4</v>
+      </c>
+      <c r="G160" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H160" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="I160" s="54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="53">
+        <v>160</v>
+      </c>
+      <c r="B161" s="52">
+        <v>1000772</v>
+      </c>
+      <c r="C161" s="52">
+        <v>10</v>
+      </c>
+      <c r="D161" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="E161" s="52">
+        <v>1</v>
+      </c>
+      <c r="G161" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H161" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="I161" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="53">
+        <v>161</v>
+      </c>
+      <c r="B162" s="52">
+        <v>1000772</v>
+      </c>
+      <c r="C162" s="52">
+        <v>20</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="E162" s="52">
+        <v>2</v>
+      </c>
+      <c r="G162" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H162" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="I162" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="53">
+        <v>162</v>
+      </c>
+      <c r="B163" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C163" s="52">
+        <v>18</v>
+      </c>
+      <c r="D163" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="E163" s="52">
+        <v>1</v>
+      </c>
+      <c r="G163" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H163" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I163" s="54" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="53">
+        <v>163</v>
+      </c>
+      <c r="B164" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C164" s="52">
+        <v>48</v>
+      </c>
+      <c r="D164" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="E164" s="52">
+        <v>2</v>
+      </c>
+      <c r="G164" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H164" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I164" s="54" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="53">
+        <v>164</v>
+      </c>
+      <c r="B165" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C165" s="52">
+        <v>88</v>
+      </c>
+      <c r="D165" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="E165" s="52">
+        <v>3</v>
+      </c>
+      <c r="G165" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H165" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="I165" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="53">
+        <v>165</v>
+      </c>
+      <c r="B166" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C166" s="52">
+        <v>128</v>
+      </c>
+      <c r="D166" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="E166" s="52">
+        <v>4</v>
+      </c>
+      <c r="G166" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H166" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="I166" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="53">
+        <v>166</v>
+      </c>
+      <c r="B167" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C167" s="52">
+        <v>188</v>
+      </c>
+      <c r="D167" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="E167" s="52">
+        <v>5</v>
+      </c>
+      <c r="G167" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H167" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="I167" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="53">
+        <v>167</v>
+      </c>
+      <c r="B168" s="52">
+        <v>1000774</v>
+      </c>
+      <c r="C168" s="52">
+        <v>3</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="E168" s="52">
+        <v>1</v>
+      </c>
+      <c r="G168" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H168" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="I168" s="54" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="510">
   <si>
     <t>index|索引</t>
   </si>
@@ -1942,10 +1942,961 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水浒消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在三国消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次2498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次998元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次15元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次30元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次50元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800000,2400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,800000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,40000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,80000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,120000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>138,139,140,141,142</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>52,153,154,155</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47,148,149,150,151</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达3000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达5000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达2亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达5亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达8亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达10亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"shop_gold_sum",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>3</t>
     </r>
@@ -1958,12 +2909,288 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0000,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_yjshl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjshl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>68,169,170,171,172,173,174,175,176</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_hlttby</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_byam</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早餐福利（9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00-10:00在线)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐福利（12:00-13:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐福利（18:00-19:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>link|链接</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>5</t>
     </r>
     <r>
@@ -1975,57 +3202,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
+      <t>000,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2037,746 +3215,39 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>88,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水浒消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在财神消消乐中游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在三国消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在三国消消乐中触发1次草船借箭</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次2498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次998元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次198元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次15元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次30元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次50元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1800000,2400000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800000,1280000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800000,800000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,400000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,40000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,80000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,120000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>138,139,140,141,142</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>52,153,154,155</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47,148,149,150,151</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中累计使用3次锁定</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用10次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用20次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用30次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中使用3万及以上档次游戏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中累计消除1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8个西瓜</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除48个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除88个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除128个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除188个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中触发3次幸运时刻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,156,157,158,159,160,161,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130,162,163,164,165,166,167,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>143,144,145,146</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000,</t>
+    <t>下载并登陆新游”捕鱼奥秘“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游“欢乐天天捕鱼”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”欢乐天天捕鱼“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_all_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,181,182</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>177,180,181,182</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>178,180,181,182</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3370,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3653,7 +4124,89 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="38"/>
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3664,10 +4217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3744,7 +4297,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3765,7 +4318,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3786,7 +4339,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3807,7 +4360,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3828,7 +4381,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3966,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3986,7 +4539,107 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>392</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -3998,11 +4651,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T168"/>
+  <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4014,22 +4667,22 @@
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="86.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="32.25" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="11" style="3"/>
+    <col min="9" max="11" width="28.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="86.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="32.25" style="3" customWidth="1"/>
+    <col min="21" max="21" width="19.375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="25.625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -4058,40 +4711,46 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4117,14 +4776,16 @@
         <v>67</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="20"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4150,16 +4811,18 @@
         <v>67</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="21"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="8"/>
+      <c r="S3" s="21"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4185,14 +4848,16 @@
         <v>67</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="21"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="21"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4218,14 +4883,16 @@
         <v>67</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="21"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="21"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4251,14 +4918,16 @@
         <v>67</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="21"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="21"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4284,15 +4953,17 @@
         <v>67</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="21"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="21"/>
       <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4318,8 +4989,10 @@
         <v>79</v>
       </c>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4345,8 +5018,10 @@
         <v>79</v>
       </c>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4372,8 +5047,10 @@
         <v>79</v>
       </c>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4399,8 +5076,10 @@
         <v>79</v>
       </c>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4426,8 +5105,10 @@
         <v>79</v>
       </c>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4453,8 +5134,10 @@
         <v>79</v>
       </c>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4480,8 +5163,10 @@
         <v>79</v>
       </c>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4507,8 +5192,10 @@
         <v>79</v>
       </c>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4534,8 +5221,10 @@
         <v>79</v>
       </c>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4561,8 +5250,10 @@
         <v>79</v>
       </c>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4588,8 +5279,10 @@
         <v>79</v>
       </c>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4615,8 +5308,10 @@
         <v>79</v>
       </c>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4642,8 +5337,10 @@
         <v>79</v>
       </c>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4669,8 +5366,10 @@
         <v>79</v>
       </c>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4696,16 +5395,18 @@
       <c r="I22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="M22" s="2" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="15"/>
+      <c r="O22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4731,16 +5432,18 @@
       <c r="I23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="M23" s="2" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="15"/>
+      <c r="O23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4766,16 +5469,18 @@
       <c r="I24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="M24" s="12" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="15"/>
+      <c r="O24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="P24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4801,15 +5506,17 @@
       <c r="I25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="M25" s="2" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="15"/>
+      <c r="O25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4835,15 +5542,17 @@
       <c r="I26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="M26" s="2" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="15"/>
+      <c r="O26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4869,15 +5578,17 @@
       <c r="I27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="M27" s="2" t="s">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="15"/>
+      <c r="O27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4903,15 +5614,17 @@
       <c r="I28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="M28" s="2" t="s">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="22"/>
+      <c r="O28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4937,9 +5650,11 @@
       <c r="I29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4965,9 +5680,11 @@
       <c r="I30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4993,11 +5710,13 @@
       <c r="I31" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="N31" s="12"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="22"/>
       <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5023,11 +5742,13 @@
       <c r="I32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="N32" s="12"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="22"/>
       <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5053,10 +5774,12 @@
       <c r="I33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="22"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5082,9 +5805,11 @@
       <c r="I34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5110,9 +5835,11 @@
       <c r="I35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5138,9 +5865,11 @@
       <c r="I36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5166,9 +5895,11 @@
       <c r="I37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5194,8 +5925,10 @@
       <c r="I38" s="15" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -5220,8 +5953,10 @@
       <c r="I39" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -5246,8 +5981,10 @@
       <c r="I40" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -5272,8 +6009,10 @@
       <c r="I41" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -5298,8 +6037,10 @@
       <c r="I42" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -5324,8 +6065,10 @@
       <c r="I43" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -5350,8 +6093,10 @@
       <c r="I44" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -5376,8 +6121,10 @@
       <c r="I45" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -5402,8 +6149,10 @@
       <c r="I46" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -5428,8 +6177,10 @@
       <c r="I47" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -5454,8 +6205,10 @@
       <c r="I48" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -5480,8 +6233,10 @@
       <c r="I49" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -5506,8 +6261,10 @@
       <c r="I50" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -5532,8 +6289,10 @@
       <c r="I51" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -5558,8 +6317,10 @@
       <c r="I52" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -5584,8 +6345,10 @@
       <c r="I53" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -5610,8 +6373,10 @@
       <c r="I54" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -5636,8 +6401,10 @@
       <c r="I55" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -5662,8 +6429,10 @@
       <c r="I56" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -5688,8 +6457,10 @@
       <c r="I57" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -5714,8 +6485,10 @@
       <c r="I58" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -5740,8 +6513,10 @@
       <c r="I59" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -5766,8 +6541,10 @@
       <c r="I60" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -5792,8 +6569,10 @@
       <c r="I61" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -5818,8 +6597,10 @@
       <c r="I62" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -5844,8 +6625,10 @@
       <c r="I63" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="48">
         <v>63</v>
       </c>
@@ -5870,8 +6653,10 @@
       <c r="I64" s="50" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+    </row>
+    <row r="65" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="48">
         <v>64</v>
       </c>
@@ -5896,8 +6681,10 @@
       <c r="I65" s="50" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+    </row>
+    <row r="66" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="48">
         <v>65</v>
       </c>
@@ -5922,8 +6709,10 @@
       <c r="I66" s="50" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+    </row>
+    <row r="67" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="48">
         <v>66</v>
       </c>
@@ -5948,8 +6737,10 @@
       <c r="I67" s="50" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+    </row>
+    <row r="68" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="48">
         <v>67</v>
       </c>
@@ -5974,8 +6765,10 @@
       <c r="I68" s="50" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+    </row>
+    <row r="69" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="48">
         <v>68</v>
       </c>
@@ -6000,8 +6793,10 @@
       <c r="I69" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+    </row>
+    <row r="70" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="48">
         <v>69</v>
       </c>
@@ -6026,8 +6821,10 @@
       <c r="I70" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+    </row>
+    <row r="71" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -6052,8 +6849,10 @@
       <c r="I71" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+    </row>
+    <row r="72" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40">
         <v>71</v>
       </c>
@@ -6078,8 +6877,10 @@
       <c r="I72" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+    </row>
+    <row r="73" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="48">
         <v>72</v>
       </c>
@@ -6104,8 +6905,10 @@
       <c r="I73" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+    </row>
+    <row r="74" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="48">
         <v>73</v>
       </c>
@@ -6130,8 +6933,10 @@
       <c r="I74" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+    </row>
+    <row r="75" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -6156,8 +6961,10 @@
       <c r="I75" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+    </row>
+    <row r="76" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -6182,8 +6989,10 @@
       <c r="I76" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+    </row>
+    <row r="77" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -6208,8 +7017,10 @@
       <c r="I77" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+    </row>
+    <row r="78" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="40">
         <v>77</v>
       </c>
@@ -6234,8 +7045,10 @@
       <c r="I78" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="40">
         <v>78</v>
       </c>
@@ -6260,8 +7073,10 @@
       <c r="I79" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+    </row>
+    <row r="80" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -6286,8 +7101,10 @@
       <c r="I80" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+    </row>
+    <row r="81" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -6312,8 +7129,10 @@
       <c r="I81" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+    </row>
+    <row r="82" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -6338,8 +7157,10 @@
       <c r="I82" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+    </row>
+    <row r="83" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -6364,8 +7185,10 @@
       <c r="I83" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+    </row>
+    <row r="84" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -6390,8 +7213,10 @@
       <c r="I84" s="41" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+    </row>
+    <row r="85" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="40">
         <v>84</v>
       </c>
@@ -6416,8 +7241,10 @@
       <c r="I85" s="41" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+    </row>
+    <row r="86" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="40">
         <v>85</v>
       </c>
@@ -6440,10 +7267,12 @@
         <v>263</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+    </row>
+    <row r="87" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -6468,8 +7297,10 @@
       <c r="I87" s="41" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+    </row>
+    <row r="88" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -6494,8 +7325,10 @@
       <c r="I88" s="41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+    </row>
+    <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -6520,8 +7353,10 @@
       <c r="I89" s="41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+    </row>
+    <row r="90" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="40">
         <v>89</v>
       </c>
@@ -6546,8 +7381,10 @@
       <c r="I90" s="41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+    </row>
+    <row r="91" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="40">
         <v>90</v>
       </c>
@@ -6572,8 +7409,10 @@
       <c r="I91" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+    </row>
+    <row r="92" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="40">
         <v>91</v>
       </c>
@@ -6598,8 +7437,10 @@
       <c r="I92" s="41" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+    </row>
+    <row r="93" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="40">
         <v>92</v>
       </c>
@@ -6624,8 +7465,10 @@
       <c r="I93" s="41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
+    </row>
+    <row r="94" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -6650,8 +7493,10 @@
       <c r="I94" s="41" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+    </row>
+    <row r="95" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40">
         <v>94</v>
       </c>
@@ -6676,8 +7521,10 @@
       <c r="I95" s="41" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+    </row>
+    <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="40">
         <v>95</v>
       </c>
@@ -6700,10 +7547,12 @@
         <v>292</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+    </row>
+    <row r="97" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="40">
         <v>96</v>
       </c>
@@ -6723,16 +7572,18 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+    </row>
+    <row r="98" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="40">
         <v>97</v>
       </c>
@@ -6760,8 +7611,10 @@
       <c r="I98" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+    </row>
+    <row r="99" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="40">
         <v>98</v>
       </c>
@@ -6784,13 +7637,15 @@
         <v>329</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+    </row>
+    <row r="100" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="40">
         <v>99</v>
       </c>
@@ -6818,8 +7673,10 @@
       <c r="I100" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+    </row>
+    <row r="101" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="40">
         <v>100</v>
       </c>
@@ -6839,16 +7696,18 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+    </row>
+    <row r="102" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="40">
         <v>101</v>
       </c>
@@ -6876,8 +7735,10 @@
       <c r="I102" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+    </row>
+    <row r="103" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="40">
         <v>102</v>
       </c>
@@ -6897,16 +7758,18 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+    </row>
+    <row r="104" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="40">
         <v>103</v>
       </c>
@@ -6934,8 +7797,10 @@
       <c r="I104" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+    </row>
+    <row r="105" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="40">
         <v>104</v>
       </c>
@@ -6955,16 +7820,18 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+    </row>
+    <row r="106" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40">
         <v>105</v>
       </c>
@@ -6989,8 +7856,10 @@
       <c r="I106" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+    </row>
+    <row r="107" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="40">
         <v>106</v>
       </c>
@@ -7015,8 +7884,10 @@
       <c r="I107" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+    </row>
+    <row r="108" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="40">
         <v>107</v>
       </c>
@@ -7041,8 +7912,10 @@
       <c r="I108" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+    </row>
+    <row r="109" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="40">
         <v>108</v>
       </c>
@@ -7067,8 +7940,10 @@
       <c r="I109" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+    </row>
+    <row r="110" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="40">
         <v>109</v>
       </c>
@@ -7093,8 +7968,10 @@
       <c r="I110" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="40">
         <v>110</v>
       </c>
@@ -7119,8 +7996,10 @@
       <c r="I111" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="40">
         <v>111</v>
       </c>
@@ -7145,8 +8024,10 @@
       <c r="I112" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="40">
         <v>112</v>
       </c>
@@ -7171,8 +8052,10 @@
       <c r="I113" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="40">
         <v>113</v>
       </c>
@@ -7197,8 +8080,10 @@
       <c r="I114" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="40">
         <v>114</v>
       </c>
@@ -7223,8 +8108,10 @@
       <c r="I115" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="40">
         <v>115</v>
       </c>
@@ -7249,8 +8136,10 @@
       <c r="I116" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="40">
         <v>116</v>
       </c>
@@ -7273,10 +8162,12 @@
         <v>339</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="40">
         <v>117</v>
       </c>
@@ -7296,16 +8187,18 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>347</v>
+        <v>462</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="40">
         <v>118</v>
       </c>
@@ -7325,16 +8218,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="40">
         <v>119</v>
       </c>
@@ -7354,16 +8249,18 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="40">
         <v>120</v>
       </c>
@@ -7374,22 +8271,22 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="40">
         <v>121</v>
       </c>
@@ -7400,22 +8297,22 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="40">
         <v>122</v>
       </c>
@@ -7426,22 +8323,24 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H123" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="40">
         <v>123</v>
       </c>
@@ -7452,22 +8351,24 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="40">
         <v>124</v>
       </c>
@@ -7478,22 +8379,24 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="40">
         <v>125</v>
       </c>
@@ -7504,22 +8407,24 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="40">
         <v>126</v>
       </c>
@@ -7530,22 +8435,24 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="40">
         <v>127</v>
       </c>
@@ -7556,22 +8463,24 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="40">
         <v>128</v>
       </c>
@@ -7582,22 +8491,24 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="40">
         <v>129</v>
       </c>
@@ -7608,22 +8519,22 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" s="40">
         <v>130</v>
       </c>
@@ -7634,22 +8545,22 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I131" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I131" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="40">
         <v>131</v>
       </c>
@@ -7660,22 +8571,24 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="40">
         <v>132</v>
       </c>
@@ -7686,22 +8599,24 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" s="40">
         <v>133</v>
       </c>
@@ -7712,22 +8627,24 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J134" s="42"/>
+      <c r="K134" s="42"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" s="40">
         <v>134</v>
       </c>
@@ -7738,22 +8655,24 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="J135" s="42"/>
+      <c r="K135" s="42"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="40">
         <v>135</v>
       </c>
@@ -7764,22 +8683,24 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" s="40">
         <v>136</v>
       </c>
@@ -7790,22 +8711,24 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H137" s="42" t="s">
         <v>268</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+      <c r="J137" s="42"/>
+      <c r="K137" s="42"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="40">
         <v>137</v>
       </c>
@@ -7816,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -7825,13 +8748,15 @@
         <v>326</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I138" s="42" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J138" s="42"/>
+      <c r="K138" s="42"/>
+    </row>
+    <row r="139" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="53">
         <v>138</v>
       </c>
@@ -7842,22 +8767,24 @@
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E139" s="52">
         <v>1</v>
       </c>
       <c r="G139" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H139" s="54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I139" s="54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="J139" s="54"/>
+      <c r="K139" s="54"/>
+    </row>
+    <row r="140" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="53">
         <v>139</v>
       </c>
@@ -7868,22 +8795,24 @@
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E140" s="52">
         <v>1</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H140" s="54" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J140" s="54"/>
+      <c r="K140" s="54"/>
+    </row>
+    <row r="141" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="53">
         <v>140</v>
       </c>
@@ -7894,22 +8823,24 @@
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E141" s="52">
         <v>1</v>
       </c>
       <c r="G141" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="H141" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="H141" s="54" t="s">
-        <v>404</v>
-      </c>
       <c r="I141" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J141" s="54"/>
+      <c r="K141" s="54"/>
+    </row>
+    <row r="142" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="53">
         <v>141</v>
       </c>
@@ -7920,22 +8851,24 @@
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E142" s="52">
         <v>1</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H142" s="54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J142" s="54"/>
+      <c r="K142" s="54"/>
+    </row>
+    <row r="143" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="53">
         <v>142</v>
       </c>
@@ -7946,22 +8879,24 @@
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E143" s="52">
         <v>1</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="J143" s="54"/>
+      <c r="K143" s="54"/>
+    </row>
+    <row r="144" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="53">
         <v>143</v>
       </c>
@@ -7972,22 +8907,24 @@
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E144" s="52">
         <v>1</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J144" s="54"/>
+      <c r="K144" s="54"/>
+    </row>
+    <row r="145" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="53">
         <v>144</v>
       </c>
@@ -7998,22 +8935,24 @@
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="E145" s="52">
+        <v>1</v>
+      </c>
+      <c r="G145" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="E145" s="52">
-        <v>1</v>
-      </c>
-      <c r="G145" s="54" t="s">
-        <v>401</v>
-      </c>
       <c r="H145" s="54" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+    </row>
+    <row r="146" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="53">
         <v>145</v>
       </c>
@@ -8024,22 +8963,24 @@
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E146" s="52">
         <v>1</v>
       </c>
       <c r="G146" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H146" s="54" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+    </row>
+    <row r="147" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="53">
         <v>146</v>
       </c>
@@ -8050,22 +8991,24 @@
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E147" s="52">
         <v>1</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H147" s="54" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I147" s="54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+    </row>
+    <row r="148" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="53">
         <v>147</v>
       </c>
@@ -8076,22 +9019,24 @@
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E148" s="52">
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+    </row>
+    <row r="149" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="53">
         <v>148</v>
       </c>
@@ -8102,22 +9047,24 @@
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E149" s="52">
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+    </row>
+    <row r="150" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="53">
         <v>149</v>
       </c>
@@ -8128,22 +9075,24 @@
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E150" s="52">
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J150" s="54"/>
+      <c r="K150" s="54"/>
+    </row>
+    <row r="151" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="53">
         <v>150</v>
       </c>
@@ -8154,22 +9103,24 @@
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E151" s="52">
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H151" s="54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+    </row>
+    <row r="152" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="53">
         <v>151</v>
       </c>
@@ -8180,22 +9131,24 @@
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E152" s="52">
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J152" s="54"/>
+      <c r="K152" s="54"/>
+    </row>
+    <row r="153" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="53">
         <v>152</v>
       </c>
@@ -8206,22 +9159,24 @@
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E153" s="52">
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H153" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="I153" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="I153" s="54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J153" s="54"/>
+      <c r="K153" s="54"/>
+    </row>
+    <row r="154" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="53">
         <v>153</v>
       </c>
@@ -8232,22 +9187,24 @@
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E154" s="52">
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="J154" s="54"/>
+      <c r="K154" s="54"/>
+    </row>
+    <row r="155" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="53">
         <v>154</v>
       </c>
@@ -8258,22 +9215,24 @@
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E155" s="52">
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H155" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="I155" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="I155" s="54" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J155" s="54"/>
+      <c r="K155" s="54"/>
+    </row>
+    <row r="156" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="53">
         <v>155</v>
       </c>
@@ -8284,22 +9243,24 @@
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E156" s="52">
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="J156" s="54"/>
+      <c r="K156" s="54"/>
+    </row>
+    <row r="157" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="53">
         <v>156</v>
       </c>
@@ -8310,22 +9271,24 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="E157" s="52">
+        <v>1</v>
+      </c>
+      <c r="G157" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="E157" s="52">
-        <v>1</v>
-      </c>
-      <c r="G157" s="54" t="s">
-        <v>422</v>
-      </c>
       <c r="H157" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I157" s="54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+    </row>
+    <row r="158" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="53">
         <v>157</v>
       </c>
@@ -8336,22 +9299,24 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I158" s="54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J158" s="54"/>
+      <c r="K158" s="54"/>
+    </row>
+    <row r="159" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="53">
         <v>158</v>
       </c>
@@ -8362,13 +9327,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>265</v>
@@ -8376,8 +9341,10 @@
       <c r="I159" s="54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J159" s="54"/>
+      <c r="K159" s="54"/>
+    </row>
+    <row r="160" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="53">
         <v>159</v>
       </c>
@@ -8388,22 +9355,24 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+      <c r="J160" s="54"/>
+      <c r="K160" s="54"/>
+    </row>
+    <row r="161" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="53">
         <v>160</v>
       </c>
@@ -8414,22 +9383,24 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="J161" s="54"/>
+      <c r="K161" s="54"/>
+    </row>
+    <row r="162" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="53">
         <v>161</v>
       </c>
@@ -8440,22 +9411,24 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="J162" s="54"/>
+      <c r="K162" s="54"/>
+    </row>
+    <row r="163" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="53">
         <v>162</v>
       </c>
@@ -8466,22 +9439,24 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H163" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="J163" s="54"/>
+      <c r="K163" s="54"/>
+    </row>
+    <row r="164" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="53">
         <v>163</v>
       </c>
@@ -8492,22 +9467,24 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H164" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="J164" s="54"/>
+      <c r="K164" s="54"/>
+    </row>
+    <row r="165" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="53">
         <v>164</v>
       </c>
@@ -8518,22 +9495,24 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="J165" s="54"/>
+      <c r="K165" s="54"/>
+    </row>
+    <row r="166" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="53">
         <v>165</v>
       </c>
@@ -8544,22 +9523,24 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="J166" s="54"/>
+      <c r="K166" s="54"/>
+    </row>
+    <row r="167" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="53">
         <v>166</v>
       </c>
@@ -8570,22 +9551,24 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="J167" s="54"/>
+      <c r="K167" s="54"/>
+    </row>
+    <row r="168" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="53">
         <v>167</v>
       </c>
@@ -8596,19 +9579,441 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>427</v>
+        <v>421</v>
+      </c>
+      <c r="J168" s="54"/>
+      <c r="K168" s="54"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C169" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D169" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="H169" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="I169" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J169" s="42"/>
+      <c r="K169" s="42"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C170" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D170" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="E170" s="3">
+        <v>2</v>
+      </c>
+      <c r="G170" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="H170" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="I170" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J170" s="42"/>
+      <c r="K170" s="42"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C171" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="D171" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="E171" s="3">
+        <v>3</v>
+      </c>
+      <c r="G171" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="H171" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="I171" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C172" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="D172" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="E172" s="3">
+        <v>4</v>
+      </c>
+      <c r="G172" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="H172" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="I172" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J172" s="42"/>
+      <c r="K172" s="42"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C173" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="D173" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="E173" s="3">
+        <v>5</v>
+      </c>
+      <c r="G173" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="H173" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="I173" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J173" s="42"/>
+      <c r="K173" s="42"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C174" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="D174" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="E174" s="3">
+        <v>6</v>
+      </c>
+      <c r="G174" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="H174" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="I174" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J174" s="42"/>
+      <c r="K174" s="42"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C175" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="D175" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="E175" s="3">
+        <v>7</v>
+      </c>
+      <c r="G175" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="H175" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="I175" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J175" s="42"/>
+      <c r="K175" s="42"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C176" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="D176" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="E176" s="3">
+        <v>8</v>
+      </c>
+      <c r="G176" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="H176" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="I176" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3">
+        <v>1000775</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="D177" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="E177" s="3">
+        <v>9</v>
+      </c>
+      <c r="G177" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="H177" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="I177" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="J177" s="42"/>
+      <c r="K177" s="42"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" s="13">
+        <v>1000776</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H178" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="J178" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="K178" s="42"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" s="13">
+        <v>1000777</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H179" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="J179" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="K179" s="42"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+      <c r="B180" s="13">
+        <v>1000778</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H180" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="J180" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="K180" s="42"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" s="13">
+        <v>1000779</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H181" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="I181" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="K181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+      <c r="B182" s="13">
+        <v>1000780</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H182" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="I182" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="K182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+      <c r="B183" s="13">
+        <v>1000781</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H183" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="I183" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="K183" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="451">
   <si>
     <t>index|索引</t>
   </si>
@@ -1570,12 +1570,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1586,13 +1582,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -1609,7 +1605,7 @@
   </si>
   <si>
     <r>
-      <t>5</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1620,13 +1616,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1637,13 +1633,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗500万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗3亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗30亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗50亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1654,13 +1706,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1671,13 +1731,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1694,7 +1758,7 @@
   </si>
   <si>
     <r>
-      <t>6</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1705,13 +1769,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1727,64 +1791,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cz|是否充值任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗100万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗500万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗3亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗20亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗30亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗50亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1795,25 +1803,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>jing_bi",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1824,17 +1820,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1862,7 +1854,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000,</t>
+      <t>500,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1879,13 +1871,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -1896,13 +1888,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1913,13 +1905,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>40,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值30000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值50000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1930,13 +1958,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1947,13 +1975,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>0000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1964,13 +1992,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -1981,13 +2053,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>10条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -1998,49 +2070,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值10000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值20000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值30000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值50000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>20条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -2051,13 +2087,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>50条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -2068,13 +2104,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>100条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2085,57 +2133,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>88,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2146,13 +2150,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -2163,13 +2167,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -2180,13 +2184,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>50条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -2197,25 +2201,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -2226,13 +2218,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>88,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2248,8 +2240,40 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2260,13 +2284,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水浒消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2277,13 +2301,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2294,13 +2322,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在三国消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2311,13 +2339,61 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次2498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次998元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次15元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次30元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次50元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2328,45 +2404,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中游戏2</t>
+      <t>1800000,2400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2377,13 +2421,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水浒消消乐中游戏2</t>
+      <t>800000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2394,17 +2438,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在财神消消乐中游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中游戏2</t>
+      <t>800000,800000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2415,13 +2455,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在三国消消乐中游戏2</t>
+      <t>00000,400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2432,56 +2472,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在三国消消乐中触发1次草船借箭</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次2498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次998元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次198元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次15元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次30元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次50元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin",</t>
+      <t>800000,160000,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2497,13 +2489,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1800000,2400000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>00000,40000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2514,13 +2506,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>800000,1280000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>80000,80000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -2531,13 +2523,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>800000,800000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>80000,120000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2548,8 +2540,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,400000,</t>
-    </r>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>138,139,140,141,142</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2565,7 +2577,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,40000,</t>
+      <t>52,153,154,155</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2582,13 +2594,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>80000,80000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>47,148,149,150,151</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
     </r>
     <r>
       <rPr>
@@ -2599,13 +2611,53 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>80000,120000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
     </r>
     <r>
       <rPr>
@@ -2616,33 +2668,31 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>80000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>138,139,140,141,142</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
     </r>
     <r>
       <rPr>
@@ -2653,54 +2703,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>52,153,154,155</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47,148,149,150,151</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中累计使用3次锁定</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用10次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用20次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用30次锁定</t>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2708,132 +2752,31 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中使用3万及以上档次游戏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中累计消除1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8个西瓜</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除48个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除88个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除128个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除188个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中触发3次幸运时刻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,156,157,158,159,160,161,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130,162,163,164,165,166,167,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>143,144,145,146</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,160000,</t>
-    </r>
+    <t>4000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3801,7 +3744,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,7 +3765,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,7 +3786,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3807,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,7 +3828,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3963,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4043,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4057,9 +4000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4103,7 +4046,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -6497,7 +6440,7 @@
         <v>263</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6699,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H94" s="41" t="s">
         <v>271</v>
@@ -6757,7 +6700,7 @@
         <v>292</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6780,13 +6723,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>308</v>
+        <v>442</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6809,13 +6752,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="H98" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="H98" s="41" t="s">
-        <v>309</v>
-      </c>
       <c r="I98" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6838,13 +6781,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6867,13 +6810,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H100" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="I100" s="41" t="s">
         <v>311</v>
-      </c>
-      <c r="I100" s="41" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6896,13 +6839,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>312</v>
+        <v>446</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6925,13 +6868,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6954,13 +6897,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>306</v>
+        <v>447</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6983,13 +6926,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7003,7 +6946,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -7012,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>240</v>
@@ -7032,19 +6975,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7058,19 +7001,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H107" s="41" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I107" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7084,19 +7027,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7110,19 +7053,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H109" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="H109" s="41" t="s">
-        <v>339</v>
-      </c>
       <c r="I109" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7136,19 +7079,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H110" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="I110" s="41" t="s">
         <v>340</v>
-      </c>
-      <c r="I110" s="41" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -7162,19 +7105,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="H111" s="42" t="s">
+      <c r="I111" s="41" t="s">
         <v>341</v>
-      </c>
-      <c r="I111" s="41" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -7188,19 +7131,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -7214,19 +7157,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -7240,19 +7183,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -7266,19 +7209,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -7292,19 +7235,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -7318,19 +7261,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -7344,7 +7287,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -7353,13 +7296,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -7373,7 +7316,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -7382,13 +7325,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -7402,7 +7345,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -7411,13 +7354,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -7431,19 +7374,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -7457,19 +7400,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="I122" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7483,19 +7426,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H123" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="E123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="H123" s="42" t="s">
-        <v>377</v>
-      </c>
       <c r="I123" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7509,19 +7452,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H124" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="I124" s="42" t="s">
         <v>378</v>
-      </c>
-      <c r="I124" s="42" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7535,19 +7478,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7561,19 +7504,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7587,19 +7530,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H127" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="E127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="H127" s="42" t="s">
-        <v>381</v>
-      </c>
       <c r="I127" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7613,19 +7556,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7639,19 +7582,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H129" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="E129" s="3">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="H129" s="42" t="s">
-        <v>383</v>
-      </c>
       <c r="I129" s="42" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7665,19 +7608,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7691,19 +7634,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="I131" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7717,19 +7660,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7743,19 +7686,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H133" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="I133" s="42" t="s">
         <v>378</v>
-      </c>
-      <c r="I133" s="42" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7769,19 +7712,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7795,19 +7738,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7821,19 +7764,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7847,19 +7790,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H137" s="42" t="s">
         <v>268</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7873,16 +7816,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I138" s="42" t="s">
         <v>240</v>
@@ -7899,19 +7842,19 @@
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E139" s="52">
         <v>1</v>
       </c>
       <c r="G139" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H139" s="54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I139" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7925,19 +7868,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="E140" s="52">
+        <v>1</v>
+      </c>
+      <c r="G140" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="E140" s="52">
-        <v>1</v>
-      </c>
-      <c r="G140" s="54" t="s">
-        <v>408</v>
-      </c>
       <c r="H140" s="54" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7951,19 +7894,19 @@
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E141" s="52">
         <v>1</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H141" s="54" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7977,19 +7920,19 @@
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E142" s="52">
         <v>1</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H142" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="I142" s="54" t="s">
         <v>412</v>
-      </c>
-      <c r="I142" s="54" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8003,19 +7946,19 @@
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E143" s="52">
         <v>1</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8029,19 +7972,19 @@
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E144" s="52">
         <v>1</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8055,19 +7998,19 @@
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E145" s="52">
         <v>1</v>
       </c>
       <c r="G145" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="H145" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="H145" s="54" t="s">
-        <v>414</v>
-      </c>
       <c r="I145" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8081,19 +8024,19 @@
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E146" s="52">
         <v>1</v>
       </c>
       <c r="G146" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H146" s="54" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8107,19 +8050,19 @@
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E147" s="52">
         <v>1</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H147" s="54" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I147" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8133,19 +8076,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E148" s="52">
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8159,19 +8102,19 @@
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E149" s="52">
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8185,19 +8128,19 @@
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E150" s="52">
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8211,19 +8154,19 @@
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E151" s="52">
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H151" s="54" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8237,19 +8180,19 @@
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E152" s="52">
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8263,19 +8206,19 @@
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E153" s="52">
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8289,19 +8232,19 @@
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E154" s="52">
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8315,19 +8258,19 @@
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E155" s="52">
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8341,19 +8284,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E156" s="52">
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8367,16 +8310,16 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H157" s="54" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I157" s="54" t="s">
         <v>236</v>
@@ -8393,16 +8336,16 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I158" s="54" t="s">
         <v>236</v>
@@ -8419,13 +8362,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>265</v>
@@ -8445,19 +8388,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8471,19 +8414,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="H161" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="H161" s="54" t="s">
-        <v>436</v>
-      </c>
       <c r="I161" s="54" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8497,19 +8440,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8523,19 +8466,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H163" s="54" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8549,19 +8492,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H164" s="54" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8575,19 +8518,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8601,19 +8544,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8627,19 +8570,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="H167" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="H167" s="54" t="s">
-        <v>436</v>
-      </c>
       <c r="I167" s="54" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8653,19 +8596,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="636">
   <si>
     <t>index|索引</t>
   </si>
@@ -3073,14 +3073,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>早餐福利（9</t>
     </r>
@@ -3235,19 +3227,1308 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>180,181,182</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,180,181,182</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>178,180,181,182</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182</t>
+    <t>参与1次苹果大战</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>177,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>178,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳福利</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金80万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金350万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金900万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1800万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金3000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金9000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金4.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金7.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金15亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金300亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金600亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1500亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+  </si>
+  <si>
+    <t>累计充值40元</t>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+  </si>
+  <si>
+    <t>累计充值400元</t>
+  </si>
+  <si>
+    <t>累计充值900元</t>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+  </si>
+  <si>
+    <t>累计充值2800元</t>
+  </si>
+  <si>
+    <t>累计充值4000元</t>
+  </si>
+  <si>
+    <t>累计充值6500元</t>
+  </si>
+  <si>
+    <t>累计充值8000元</t>
+  </si>
+  <si>
+    <t>累计充值12000元</t>
+  </si>
+  <si>
+    <t>累计充值16000元</t>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（新用户）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new_1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3255,7 +4536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3328,6 +4609,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3451,7 +4740,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3564,6 +4853,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3841,10 +5160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4151,7 +5470,7 @@
         <v>484</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -4168,7 +5487,7 @@
         <v>484</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -4185,7 +5504,7 @@
         <v>484</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -4196,16 +5515,67 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>484</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="E20">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="E21" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="E22" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4217,10 +5587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4567,7 +5937,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4579,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4587,7 +5957,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4599,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4607,7 +5977,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4619,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4627,7 +5997,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4638,8 +6008,68 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>506</v>
+      <c r="G20" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -4651,18 +6081,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V183"/>
+  <dimension ref="A1:V230"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L192" sqref="L192"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C215" sqref="A215:C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="60" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
@@ -4689,7 +6119,7 @@
       <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="57" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -4711,10 +6141,10 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>52</v>
@@ -5057,7 +6487,7 @@
       <c r="B11" s="6">
         <v>1000628</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="58">
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -5347,7 +6777,7 @@
       <c r="B21" s="6">
         <v>1000638</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="58">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -5376,7 +6806,7 @@
       <c r="B22" s="6">
         <v>1000640</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="58">
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -5413,7 +6843,7 @@
       <c r="B23" s="6">
         <v>1000641</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="58">
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -5450,7 +6880,7 @@
       <c r="B24" s="6">
         <v>1000642</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="58">
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -5487,7 +6917,7 @@
       <c r="B25" s="6">
         <v>1000643</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="58">
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -5523,7 +6953,7 @@
       <c r="B26" s="6">
         <v>1000644</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="58">
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -5559,7 +6989,7 @@
       <c r="B27" s="6">
         <v>1000645</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="58">
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -5595,7 +7025,7 @@
       <c r="B28" s="6">
         <v>1000646</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="58">
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -5631,7 +7061,7 @@
       <c r="B29" s="6">
         <v>1000647</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="58">
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -5661,7 +7091,7 @@
       <c r="B30" s="6">
         <v>1000648</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="58">
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -5691,7 +7121,7 @@
       <c r="B31" s="13">
         <v>1000689</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="59">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -5723,7 +7153,7 @@
       <c r="B32" s="13">
         <v>1000690</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="59">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -5755,7 +7185,7 @@
       <c r="B33" s="13">
         <v>1000691</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="59">
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
@@ -5786,7 +7216,7 @@
       <c r="B34" s="13">
         <v>1000692</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="59">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -5816,7 +7246,7 @@
       <c r="B35" s="13">
         <v>1000693</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="59">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -5846,7 +7276,7 @@
       <c r="B36" s="13">
         <v>1000694</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="59">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -5876,7 +7306,7 @@
       <c r="B37" s="13">
         <v>1000695</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="59">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -5906,7 +7336,7 @@
       <c r="B38" s="13">
         <v>1000696</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="60">
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -5935,7 +7365,7 @@
       <c r="B39" s="13">
         <v>1000697</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="60">
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -5963,7 +7393,7 @@
       <c r="B40" s="13">
         <v>1000697</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="60">
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -5991,7 +7421,7 @@
       <c r="B41" s="13">
         <v>1000698</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="60">
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -6019,7 +7449,7 @@
       <c r="B42" s="13">
         <v>1000697</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="60">
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -6047,7 +7477,7 @@
       <c r="B43" s="13">
         <v>1000697</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="60">
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -6075,7 +7505,7 @@
       <c r="B44" s="13">
         <v>1000698</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="60">
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -6103,7 +7533,7 @@
       <c r="B45" s="13">
         <v>1000697</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="60">
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -6131,7 +7561,7 @@
       <c r="B46" s="13">
         <v>1000697</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="60">
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -6159,7 +7589,7 @@
       <c r="B47" s="13">
         <v>1000698</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="60">
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -6187,7 +7617,7 @@
       <c r="B48" s="13">
         <v>1000697</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="60">
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -6215,7 +7645,7 @@
       <c r="B49" s="13">
         <v>1000697</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="60">
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -6243,7 +7673,7 @@
       <c r="B50" s="13">
         <v>1000698</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="60">
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -6271,7 +7701,7 @@
       <c r="B51" s="13">
         <v>1000697</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="60">
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -6299,7 +7729,7 @@
       <c r="B52" s="13">
         <v>1000697</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="60">
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -6327,7 +7757,7 @@
       <c r="B53" s="13">
         <v>1000698</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="60">
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6355,7 +7785,7 @@
       <c r="B54" s="13">
         <v>1000697</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="60">
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -6383,7 +7813,7 @@
       <c r="B55" s="13">
         <v>1000698</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="60">
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -6411,7 +7841,7 @@
       <c r="B56" s="13">
         <v>1000697</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="60">
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -6439,7 +7869,7 @@
       <c r="B57" s="13">
         <v>1000698</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="60">
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -6467,7 +7897,7 @@
       <c r="B58" s="13">
         <v>1000697</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="60">
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -6495,7 +7925,7 @@
       <c r="B59" s="13">
         <v>1000698</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="60">
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -6523,7 +7953,7 @@
       <c r="B60" s="13">
         <v>1000697</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="60">
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -6551,7 +7981,7 @@
       <c r="B61" s="13">
         <v>1000703</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="60">
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -6579,7 +8009,7 @@
       <c r="B62" s="13">
         <v>1000703</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="60">
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -6607,7 +8037,7 @@
       <c r="B63" s="13">
         <v>1000703</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="60">
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -6635,7 +8065,7 @@
       <c r="B64" s="49">
         <v>1000705</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="61">
         <v>1</v>
       </c>
       <c r="D64" s="50" t="s">
@@ -6663,7 +8093,7 @@
       <c r="B65" s="49">
         <v>1000706</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="61">
         <v>100000</v>
       </c>
       <c r="D65" s="50" t="s">
@@ -6691,7 +8121,7 @@
       <c r="B66" s="49">
         <v>1000706</v>
       </c>
-      <c r="C66" s="49">
+      <c r="C66" s="61">
         <v>1000000</v>
       </c>
       <c r="D66" s="50" t="s">
@@ -6719,7 +8149,7 @@
       <c r="B67" s="49">
         <v>1000707</v>
       </c>
-      <c r="C67" s="49">
+      <c r="C67" s="61">
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
@@ -6747,7 +8177,7 @@
       <c r="B68" s="49">
         <v>1000708</v>
       </c>
-      <c r="C68" s="49">
+      <c r="C68" s="61">
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
@@ -6775,7 +8205,7 @@
       <c r="B69" s="49">
         <v>1000709</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="61">
         <v>100</v>
       </c>
       <c r="D69" s="49" t="s">
@@ -6803,7 +8233,7 @@
       <c r="B70" s="49">
         <v>1000710</v>
       </c>
-      <c r="C70" s="49">
+      <c r="C70" s="61">
         <v>100</v>
       </c>
       <c r="D70" s="49" t="s">
@@ -6831,7 +8261,7 @@
       <c r="B71" s="13">
         <v>1000711</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="62">
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -6859,7 +8289,7 @@
       <c r="B72" s="13">
         <v>1000712</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="62">
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -6887,7 +8317,7 @@
       <c r="B73" s="49">
         <v>1000713</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C73" s="61">
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
@@ -6915,7 +8345,7 @@
       <c r="B74" s="49">
         <v>1000713</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="61">
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
@@ -6943,7 +8373,7 @@
       <c r="B75" s="13">
         <v>1000714</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="62">
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -6971,7 +8401,7 @@
       <c r="B76" s="13">
         <v>1000715</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="62">
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -6999,7 +8429,7 @@
       <c r="B77" s="13">
         <v>1000716</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="62">
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -7027,7 +8457,7 @@
       <c r="B78" s="13">
         <v>1000717</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="62">
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -7055,7 +8485,7 @@
       <c r="B79" s="13">
         <v>1000718</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="62">
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
@@ -7083,7 +8513,7 @@
       <c r="B80" s="13">
         <v>1000718</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="62">
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
@@ -7111,7 +8541,7 @@
       <c r="B81" s="13">
         <v>1000719</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="62">
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
@@ -7139,7 +8569,7 @@
       <c r="B82" s="13">
         <v>1000720</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="62">
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
@@ -7167,7 +8597,7 @@
       <c r="B83" s="13">
         <v>1000721</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="62">
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
@@ -7195,7 +8625,7 @@
       <c r="B84" s="13">
         <v>1000722</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="62">
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
@@ -7223,7 +8653,7 @@
       <c r="B85" s="13">
         <v>1000723</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="62">
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
@@ -7251,7 +8681,7 @@
       <c r="B86" s="47">
         <v>1000724</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="62">
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
@@ -7279,7 +8709,7 @@
       <c r="B87" s="47">
         <v>1000725</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="62">
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
@@ -7307,7 +8737,7 @@
       <c r="B88" s="47">
         <v>1000726</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="62">
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
@@ -7335,7 +8765,7 @@
       <c r="B89" s="47">
         <v>1000727</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="62">
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
@@ -7363,7 +8793,7 @@
       <c r="B90" s="47">
         <v>1000728</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="62">
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
@@ -7391,7 +8821,7 @@
       <c r="B91" s="47">
         <v>1000729</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="62">
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
@@ -7419,7 +8849,7 @@
       <c r="B92" s="47">
         <v>1000730</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="62">
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
@@ -7447,7 +8877,7 @@
       <c r="B93" s="47">
         <v>1000731</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="62">
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
@@ -7475,7 +8905,7 @@
       <c r="B94" s="47">
         <v>1000732</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="62">
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
@@ -7503,7 +8933,7 @@
       <c r="B95" s="49">
         <v>1000734</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="62">
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
@@ -7531,7 +8961,7 @@
       <c r="B96" s="49">
         <v>1000735</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="62">
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -7559,7 +8989,7 @@
       <c r="B97" s="13">
         <v>1000737</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="62">
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
@@ -7590,7 +9020,7 @@
       <c r="B98" s="13">
         <v>1000737</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="62">
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
@@ -7621,7 +9051,7 @@
       <c r="B99" s="13">
         <v>1000737</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="62">
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
@@ -7652,7 +9082,7 @@
       <c r="B100" s="13">
         <v>1000737</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="62">
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
@@ -7683,7 +9113,7 @@
       <c r="B101" s="13">
         <v>1000737</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="62">
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -7714,7 +9144,7 @@
       <c r="B102" s="13">
         <v>1000737</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="62">
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
@@ -7745,7 +9175,7 @@
       <c r="B103" s="13">
         <v>1000737</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="62">
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
@@ -7776,7 +9206,7 @@
       <c r="B104" s="13">
         <v>1000737</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="62">
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
@@ -7807,7 +9237,7 @@
       <c r="B105" s="13">
         <v>1000737</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="62">
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
@@ -7838,7 +9268,7 @@
       <c r="B106" s="13">
         <v>1000738</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="62">
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
@@ -7866,7 +9296,7 @@
       <c r="B107" s="13">
         <v>1000738</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="62">
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
@@ -7894,7 +9324,7 @@
       <c r="B108" s="13">
         <v>1000738</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="62">
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
@@ -7922,7 +9352,7 @@
       <c r="B109" s="13">
         <v>1000738</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="62">
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
@@ -7950,7 +9380,7 @@
       <c r="B110" s="13">
         <v>1000738</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="62">
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -7978,7 +9408,7 @@
       <c r="B111" s="13">
         <v>1000738</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="60">
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -8006,7 +9436,7 @@
       <c r="B112" s="13">
         <v>1000738</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="60">
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -8034,7 +9464,7 @@
       <c r="B113" s="13">
         <v>1000738</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="60">
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -8062,7 +9492,7 @@
       <c r="B114" s="13">
         <v>1000738</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="60">
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -8090,7 +9520,7 @@
       <c r="B115" s="13">
         <v>1000738</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="60">
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -8118,7 +9548,7 @@
       <c r="B116" s="13">
         <v>1000738</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="60">
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -8146,7 +9576,7 @@
       <c r="B117" s="13">
         <v>1000738</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="60">
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -8174,7 +9604,7 @@
       <c r="B118" s="3">
         <v>1000737</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="60">
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
@@ -8205,7 +9635,7 @@
       <c r="B119" s="3">
         <v>1000737</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="60">
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
@@ -8236,7 +9666,7 @@
       <c r="B120" s="3">
         <v>1000737</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="60">
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
@@ -8267,7 +9697,7 @@
       <c r="B121" s="3">
         <v>1000739</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="60">
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
@@ -8293,7 +9723,7 @@
       <c r="B122" s="3">
         <v>1000740</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="60">
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -8319,7 +9749,7 @@
       <c r="B123" s="3">
         <v>1000741</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="60">
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
@@ -8347,7 +9777,7 @@
       <c r="B124" s="3">
         <v>1000741</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="60">
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
@@ -8375,7 +9805,7 @@
       <c r="B125" s="3">
         <v>1000741</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="60">
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
@@ -8403,7 +9833,7 @@
       <c r="B126" s="3">
         <v>1000741</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="60">
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
@@ -8431,7 +9861,7 @@
       <c r="B127" s="3">
         <v>1000742</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="60">
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
@@ -8459,7 +9889,7 @@
       <c r="B128" s="3">
         <v>1000742</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="60">
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
@@ -8487,7 +9917,7 @@
       <c r="B129" s="3">
         <v>1000743</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="60">
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
@@ -8515,7 +9945,7 @@
       <c r="B130" s="13">
         <v>1000744</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="60">
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
@@ -8541,7 +9971,7 @@
       <c r="B131" s="13">
         <v>1000745</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="60">
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -8567,7 +9997,7 @@
       <c r="B132" s="13">
         <v>1000746</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="60">
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
@@ -8595,7 +10025,7 @@
       <c r="B133" s="13">
         <v>1000747</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="60">
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
@@ -8623,7 +10053,7 @@
       <c r="B134" s="13">
         <v>1000748</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="60">
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
@@ -8651,7 +10081,7 @@
       <c r="B135" s="13">
         <v>1000749</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="60">
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
@@ -8679,7 +10109,7 @@
       <c r="B136" s="13">
         <v>1000750</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="60">
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -8707,7 +10137,7 @@
       <c r="B137" s="13">
         <v>1000751</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="60">
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
@@ -8735,7 +10165,7 @@
       <c r="B138" s="13">
         <v>1000752</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="60">
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
@@ -8763,7 +10193,7 @@
       <c r="B139" s="52">
         <v>1000753</v>
       </c>
-      <c r="C139" s="52">
+      <c r="C139" s="63">
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
@@ -8791,7 +10221,7 @@
       <c r="B140" s="52">
         <v>1000754</v>
       </c>
-      <c r="C140" s="52">
+      <c r="C140" s="63">
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
@@ -8819,7 +10249,7 @@
       <c r="B141" s="52">
         <v>1000755</v>
       </c>
-      <c r="C141" s="52">
+      <c r="C141" s="63">
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
@@ -8847,7 +10277,7 @@
       <c r="B142" s="52">
         <v>1000756</v>
       </c>
-      <c r="C142" s="52">
+      <c r="C142" s="63">
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
@@ -8875,7 +10305,7 @@
       <c r="B143" s="52">
         <v>1000757</v>
       </c>
-      <c r="C143" s="52">
+      <c r="C143" s="63">
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
@@ -8903,7 +10333,7 @@
       <c r="B144" s="52">
         <v>1000758</v>
       </c>
-      <c r="C144" s="52">
+      <c r="C144" s="63">
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
@@ -8931,7 +10361,7 @@
       <c r="B145" s="52">
         <v>1000759</v>
       </c>
-      <c r="C145" s="52">
+      <c r="C145" s="63">
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
@@ -8959,7 +10389,7 @@
       <c r="B146" s="52">
         <v>1000760</v>
       </c>
-      <c r="C146" s="52">
+      <c r="C146" s="63">
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
@@ -8987,7 +10417,7 @@
       <c r="B147" s="52">
         <v>1000761</v>
       </c>
-      <c r="C147" s="52">
+      <c r="C147" s="63">
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
@@ -9015,7 +10445,7 @@
       <c r="B148" s="52">
         <v>1000762</v>
       </c>
-      <c r="C148" s="52">
+      <c r="C148" s="63">
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
@@ -9043,7 +10473,7 @@
       <c r="B149" s="52">
         <v>1000763</v>
       </c>
-      <c r="C149" s="52">
+      <c r="C149" s="63">
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
@@ -9071,7 +10501,7 @@
       <c r="B150" s="52">
         <v>1000764</v>
       </c>
-      <c r="C150" s="52">
+      <c r="C150" s="63">
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
@@ -9099,7 +10529,7 @@
       <c r="B151" s="52">
         <v>1000765</v>
       </c>
-      <c r="C151" s="52">
+      <c r="C151" s="63">
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
@@ -9127,7 +10557,7 @@
       <c r="B152" s="52">
         <v>1000766</v>
       </c>
-      <c r="C152" s="52">
+      <c r="C152" s="63">
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
@@ -9155,7 +10585,7 @@
       <c r="B153" s="52">
         <v>1000767</v>
       </c>
-      <c r="C153" s="52">
+      <c r="C153" s="63">
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
@@ -9183,7 +10613,7 @@
       <c r="B154" s="52">
         <v>1000768</v>
       </c>
-      <c r="C154" s="52">
+      <c r="C154" s="63">
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
@@ -9211,7 +10641,7 @@
       <c r="B155" s="52">
         <v>1000769</v>
       </c>
-      <c r="C155" s="52">
+      <c r="C155" s="63">
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
@@ -9239,7 +10669,7 @@
       <c r="B156" s="52">
         <v>1000770</v>
       </c>
-      <c r="C156" s="52">
+      <c r="C156" s="63">
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
@@ -9255,7 +10685,7 @@
         <v>406</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>408</v>
+        <v>623</v>
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -9267,7 +10697,7 @@
       <c r="B157" s="52">
         <v>1000771</v>
       </c>
-      <c r="C157" s="52">
+      <c r="C157" s="63">
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
@@ -9295,7 +10725,7 @@
       <c r="B158" s="52">
         <v>1000771</v>
       </c>
-      <c r="C158" s="52">
+      <c r="C158" s="63">
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
@@ -9323,7 +10753,7 @@
       <c r="B159" s="52">
         <v>1000771</v>
       </c>
-      <c r="C159" s="52">
+      <c r="C159" s="63">
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
@@ -9351,7 +10781,7 @@
       <c r="B160" s="52">
         <v>1000771</v>
       </c>
-      <c r="C160" s="52">
+      <c r="C160" s="63">
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
@@ -9379,7 +10809,7 @@
       <c r="B161" s="52">
         <v>1000772</v>
       </c>
-      <c r="C161" s="52">
+      <c r="C161" s="63">
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
@@ -9407,7 +10837,7 @@
       <c r="B162" s="52">
         <v>1000772</v>
       </c>
-      <c r="C162" s="52">
+      <c r="C162" s="63">
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
@@ -9435,7 +10865,7 @@
       <c r="B163" s="52">
         <v>1000773</v>
       </c>
-      <c r="C163" s="52">
+      <c r="C163" s="63">
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
@@ -9463,7 +10893,7 @@
       <c r="B164" s="52">
         <v>1000773</v>
       </c>
-      <c r="C164" s="52">
+      <c r="C164" s="63">
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
@@ -9491,7 +10921,7 @@
       <c r="B165" s="52">
         <v>1000773</v>
       </c>
-      <c r="C165" s="52">
+      <c r="C165" s="63">
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
@@ -9519,7 +10949,7 @@
       <c r="B166" s="52">
         <v>1000773</v>
       </c>
-      <c r="C166" s="52">
+      <c r="C166" s="63">
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
@@ -9547,7 +10977,7 @@
       <c r="B167" s="52">
         <v>1000773</v>
       </c>
-      <c r="C167" s="52">
+      <c r="C167" s="63">
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
@@ -9575,7 +11005,7 @@
       <c r="B168" s="52">
         <v>1000774</v>
       </c>
-      <c r="C168" s="52">
+      <c r="C168" s="63">
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
@@ -9603,7 +11033,7 @@
       <c r="B169" s="3">
         <v>1000775</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="60">
         <v>5000000</v>
       </c>
       <c r="D169" s="42" t="s">
@@ -9631,7 +11061,7 @@
       <c r="B170" s="3">
         <v>1000775</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="60">
         <v>10000000</v>
       </c>
       <c r="D170" s="42" t="s">
@@ -9659,7 +11089,7 @@
       <c r="B171" s="3">
         <v>1000775</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="60">
         <v>30000000</v>
       </c>
       <c r="D171" s="42" t="s">
@@ -9687,7 +11117,7 @@
       <c r="B172" s="3">
         <v>1000775</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="60">
         <v>50000000</v>
       </c>
       <c r="D172" s="42" t="s">
@@ -9715,7 +11145,7 @@
       <c r="B173" s="3">
         <v>1000775</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="60">
         <v>100000000</v>
       </c>
       <c r="D173" s="42" t="s">
@@ -9743,7 +11173,7 @@
       <c r="B174" s="3">
         <v>1000775</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="60">
         <v>200000000</v>
       </c>
       <c r="D174" s="42" t="s">
@@ -9771,7 +11201,7 @@
       <c r="B175" s="3">
         <v>1000775</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="60">
         <v>500000000</v>
       </c>
       <c r="D175" s="42" t="s">
@@ -9781,7 +11211,7 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H175" s="42" t="s">
         <v>471</v>
@@ -9799,7 +11229,7 @@
       <c r="B176" s="3">
         <v>1000775</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="60">
         <v>800000000</v>
       </c>
       <c r="D176" s="42" t="s">
@@ -9827,7 +11257,7 @@
       <c r="B177" s="3">
         <v>1000775</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="60">
         <v>1000000000</v>
       </c>
       <c r="D177" s="42" t="s">
@@ -9843,7 +11273,7 @@
         <v>473</v>
       </c>
       <c r="I177" s="42" t="s">
-        <v>474</v>
+        <v>239</v>
       </c>
       <c r="J177" s="42"/>
       <c r="K177" s="42"/>
@@ -9855,23 +11285,23 @@
       <c r="B178" s="13">
         <v>1000776</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="60">
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H178" s="42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J178" s="42" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K178" s="42"/>
     </row>
@@ -9882,23 +11312,23 @@
       <c r="B179" s="13">
         <v>1000777</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="60">
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E179" s="3">
         <v>1</v>
       </c>
       <c r="G179" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H179" s="42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J179" s="42" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K179" s="42"/>
     </row>
@@ -9909,23 +11339,23 @@
       <c r="B180" s="13">
         <v>1000778</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="60">
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
       </c>
       <c r="G180" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H180" s="42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J180" s="42" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K180" s="42"/>
     </row>
@@ -9936,23 +11366,23 @@
       <c r="B181" s="13">
         <v>1000779</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="60">
         <v>1</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="H181" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="H181" s="42" t="s">
-        <v>496</v>
-      </c>
       <c r="I181" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K181" s="3">
         <v>1</v>
@@ -9965,23 +11395,23 @@
       <c r="B182" s="13">
         <v>1000780</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="60">
         <v>1</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
       </c>
       <c r="G182" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H182" s="42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I182" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K182" s="3">
         <v>1</v>
@@ -9994,26 +11424,1293 @@
       <c r="B183" s="13">
         <v>1000781</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="60">
         <v>1</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H183" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="I183" s="42" t="s">
         <v>498</v>
       </c>
-      <c r="I183" s="42" t="s">
-        <v>500</v>
-      </c>
       <c r="K183" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+      <c r="B184" s="49">
+        <v>1000782</v>
+      </c>
+      <c r="C184" s="60">
+        <v>1</v>
+      </c>
+      <c r="D184" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="H184" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="I184" s="42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>184</v>
+      </c>
+      <c r="B185" s="49">
+        <v>1000783</v>
+      </c>
+      <c r="C185" s="60">
+        <v>1</v>
+      </c>
+      <c r="D185" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+      <c r="G185" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="H185" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="I185" s="42" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>185</v>
+      </c>
+      <c r="B186" s="49">
+        <v>1000783</v>
+      </c>
+      <c r="C186" s="60">
+        <v>5</v>
+      </c>
+      <c r="D186" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="E186" s="3">
+        <v>2</v>
+      </c>
+      <c r="G186" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="H186" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="I186" s="42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>186</v>
+      </c>
+      <c r="B187" s="49">
+        <v>1000783</v>
+      </c>
+      <c r="C187" s="60">
+        <v>10</v>
+      </c>
+      <c r="D187" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="E187" s="3">
+        <v>3</v>
+      </c>
+      <c r="G187" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="H187" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="I187" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3">
+        <v>30033</v>
+      </c>
+      <c r="C188" s="60">
+        <v>10000</v>
+      </c>
+      <c r="D188" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H188" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="I188" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3">
+        <v>30033</v>
+      </c>
+      <c r="C189" s="60">
+        <v>50000</v>
+      </c>
+      <c r="D189" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="E189" s="3">
+        <v>2</v>
+      </c>
+      <c r="G189" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H189" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="I189" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C190" s="60">
+        <v>100000</v>
+      </c>
+      <c r="D190" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="G190" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H190" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="I190" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C191" s="60">
+        <v>300000</v>
+      </c>
+      <c r="D191" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="E191" s="3">
+        <v>2</v>
+      </c>
+      <c r="G191" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H191" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="I191" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C192" s="60">
+        <v>500000</v>
+      </c>
+      <c r="D192" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="E192" s="3">
+        <v>3</v>
+      </c>
+      <c r="G192" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H192" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="I192" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C193" s="60">
+        <v>800000</v>
+      </c>
+      <c r="D193" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="E193" s="3">
+        <v>4</v>
+      </c>
+      <c r="G193" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H193" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="I193" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C194" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="D194" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="E194" s="3">
+        <v>5</v>
+      </c>
+      <c r="G194" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H194" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="I194" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C195" s="60">
+        <v>2000000</v>
+      </c>
+      <c r="D195" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="E195" s="3">
+        <v>6</v>
+      </c>
+      <c r="G195" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H195" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="I195" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C196" s="60">
+        <v>3500000</v>
+      </c>
+      <c r="D196" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="E196" s="3">
+        <v>7</v>
+      </c>
+      <c r="G196" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H196" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="I196" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C197" s="60">
+        <v>9000000</v>
+      </c>
+      <c r="D197" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="E197" s="3">
+        <v>8</v>
+      </c>
+      <c r="G197" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H197" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="I197" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C198" s="60">
+        <v>18000000</v>
+      </c>
+      <c r="D198" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="E198" s="3">
+        <v>9</v>
+      </c>
+      <c r="G198" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H198" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="I198" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C199" s="60">
+        <v>30000000</v>
+      </c>
+      <c r="D199" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="E199" s="3">
+        <v>10</v>
+      </c>
+      <c r="G199" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H199" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="I199" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C200" s="60">
+        <v>50000000</v>
+      </c>
+      <c r="D200" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="E200" s="3">
+        <v>11</v>
+      </c>
+      <c r="G200" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H200" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="I200" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C201" s="60">
+        <v>90000000</v>
+      </c>
+      <c r="D201" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="E201" s="3">
+        <v>12</v>
+      </c>
+      <c r="G201" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H201" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="I201" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C202" s="60">
+        <v>150000000</v>
+      </c>
+      <c r="D202" s="56" t="s">
+        <v>531</v>
+      </c>
+      <c r="E202" s="3">
+        <v>13</v>
+      </c>
+      <c r="G202" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H202" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="I202" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C203" s="60">
+        <v>250000000</v>
+      </c>
+      <c r="D203" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="E203" s="3">
+        <v>14</v>
+      </c>
+      <c r="G203" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H203" s="42" t="s">
+        <v>593</v>
+      </c>
+      <c r="I203" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C204" s="60">
+        <v>450000000</v>
+      </c>
+      <c r="D204" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="E204" s="3">
+        <v>15</v>
+      </c>
+      <c r="G204" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H204" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="I204" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C205" s="60">
+        <v>750000000</v>
+      </c>
+      <c r="D205" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="E205" s="3">
+        <v>16</v>
+      </c>
+      <c r="G205" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H205" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="I205" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C206" s="60">
+        <v>1000000000</v>
+      </c>
+      <c r="D206" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="E206" s="3">
+        <v>17</v>
+      </c>
+      <c r="G206" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H206" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="I206" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C207" s="60">
+        <v>1500000000</v>
+      </c>
+      <c r="D207" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="E207" s="3">
+        <v>18</v>
+      </c>
+      <c r="G207" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H207" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="I207" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C208" s="60">
+        <v>3000000000</v>
+      </c>
+      <c r="D208" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="E208" s="3">
+        <v>19</v>
+      </c>
+      <c r="G208" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H208" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="I208" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C209" s="60">
+        <v>5000000000</v>
+      </c>
+      <c r="D209" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="E209" s="3">
+        <v>20</v>
+      </c>
+      <c r="G209" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H209" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="I209" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C210" s="60">
+        <v>10000000000</v>
+      </c>
+      <c r="D210" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="E210" s="3">
+        <v>21</v>
+      </c>
+      <c r="G210" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H210" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="I210" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C211" s="60">
+        <v>30000000000</v>
+      </c>
+      <c r="D211" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="E211" s="3">
+        <v>22</v>
+      </c>
+      <c r="G211" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H211" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="I211" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>211</v>
+      </c>
+      <c r="B212" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C212" s="60">
+        <v>60000000000</v>
+      </c>
+      <c r="D212" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="E212" s="3">
+        <v>23</v>
+      </c>
+      <c r="G212" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H212" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="I212" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C213" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="D213" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="E213" s="3">
+        <v>24</v>
+      </c>
+      <c r="G213" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H213" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="I213" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C214" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="D214" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E214" s="3">
+        <v>25</v>
+      </c>
+      <c r="G214" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H214" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="I214" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C215" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="D215" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E215" s="3">
+        <v>26</v>
+      </c>
+      <c r="G215" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H215" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="I215" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C216" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="D216" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>1</v>
+      </c>
+      <c r="G216" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H216" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="I216" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C217" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D217" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="E217" s="3">
+        <v>2</v>
+      </c>
+      <c r="F217" s="3">
+        <v>1</v>
+      </c>
+      <c r="G217" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H217" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="I217" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C218" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="D218" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="E218" s="3">
+        <v>3</v>
+      </c>
+      <c r="F218" s="3">
+        <v>1</v>
+      </c>
+      <c r="G218" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H218" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="I218" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C219" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="D219" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="E219" s="3">
+        <v>4</v>
+      </c>
+      <c r="F219" s="3">
+        <v>1</v>
+      </c>
+      <c r="G219" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H219" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="I219" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C220" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="D220" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="E220" s="3">
+        <v>5</v>
+      </c>
+      <c r="F220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G220" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H220" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="I220" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C221" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="D221" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="E221" s="3">
+        <v>6</v>
+      </c>
+      <c r="F221" s="3">
+        <v>1</v>
+      </c>
+      <c r="G221" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H221" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="I221" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C222" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="D222" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="E222" s="3">
+        <v>7</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H222" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="I222" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C223" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="D223" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="E223" s="3">
+        <v>8</v>
+      </c>
+      <c r="F223" s="3">
+        <v>1</v>
+      </c>
+      <c r="G223" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H223" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="I223" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="D224" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="E224" s="3">
+        <v>9</v>
+      </c>
+      <c r="F224" s="3">
+        <v>1</v>
+      </c>
+      <c r="G224" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H224" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="I224" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C225" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="D225" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="E225" s="3">
+        <v>10</v>
+      </c>
+      <c r="F225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G225" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H225" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="I225" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C226" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="D226" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="E226" s="3">
+        <v>11</v>
+      </c>
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H226" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="I226" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C227" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="D227" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="E227" s="3">
+        <v>12</v>
+      </c>
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G227" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H227" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="I227" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C228" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="D228" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="E228" s="3">
+        <v>13</v>
+      </c>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H228" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="I228" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C229" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="D229" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="E229" s="3">
+        <v>14</v>
+      </c>
+      <c r="F229" s="3">
+        <v>1</v>
+      </c>
+      <c r="G229" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H229" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="I229" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3">
+        <v>30035</v>
+      </c>
+      <c r="C230" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="D230" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="E230" s="3">
+        <v>15</v>
+      </c>
+      <c r="F230" s="3">
+        <v>1</v>
+      </c>
+      <c r="G230" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H230" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="I230" s="42" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="694">
   <si>
     <t>index|索引</t>
   </si>
@@ -2683,155 +2683,2183 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达3000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达5000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达2亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达5亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达8亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达10亿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_yjshl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjshl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>68,169,170,171,172,173,174,175,176</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_hlttby</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_byam</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早餐福利（9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00-10:00在线)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐福利（12:00-13:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐福利（18:00-19:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>link|链接</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”捕鱼奥秘“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游“欢乐天天捕鱼”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”欢乐天天捕鱼“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_all_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与1次苹果大战</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>177,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>178,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳福利</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金80万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金350万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金900万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1800万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金3000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金9000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金4.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金7.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金15亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金300亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金600亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1500亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+  </si>
+  <si>
+    <t>累计充值40元</t>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+  </si>
+  <si>
+    <t>累计充值400元</t>
+  </si>
+  <si>
+    <t>累计充值900元</t>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+  </si>
+  <si>
+    <t>累计充值2800元</t>
+  </si>
+  <si>
+    <t>累计充值4000元</t>
+  </si>
+  <si>
+    <t>累计充值6500元</t>
+  </si>
+  <si>
+    <t>累计充值8000元</t>
+  </si>
+  <si>
+    <t>累计充值12000元</t>
+  </si>
+  <si>
+    <t>累计充值16000元</t>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（新用户）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中捕获10条鱼</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获50条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,231,232,233,234,235,236,237,238,239,240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,242,243,244,245,246,247,248,249,250,251</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>5000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,1280000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,1280000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达500万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达1000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达3000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达5000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达1亿</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达2亿</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达5亿</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达8亿</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达10亿</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2839,2042 +4867,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_yjshl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>yjshl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢金送豪礼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢金送豪礼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>68,169,170,171,172,173,174,175,176</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_hlttby</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_byam</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_cjj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gqfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>早餐福利（9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:00-10:00在线)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐福利（12:00-13:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐福利（18:00-19:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>link|链接</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游”捕鱼奥秘“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游“欢乐天天捕鱼”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游”欢乐天天捕鱼“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_all_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>online</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与1次苹果大战</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>178,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳福利</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金10万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金30万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金80万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金100万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金200万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金350万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金900万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1800万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金3000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金5000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金9000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金2.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金4.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金7.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金10亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金15亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金30亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金100亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金300亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金600亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1000亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1500亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金2000亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金5万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50000000000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000000000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值8元</t>
-  </si>
-  <si>
-    <t>累计充值40元</t>
-  </si>
-  <si>
-    <t>累计充值100元</t>
-  </si>
-  <si>
-    <t>累计充值200元</t>
-  </si>
-  <si>
-    <t>累计充值400元</t>
-  </si>
-  <si>
-    <t>累计充值900元</t>
-  </si>
-  <si>
-    <t>累计充值1500元</t>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-  </si>
-  <si>
-    <t>累计充值2800元</t>
-  </si>
-  <si>
-    <t>累计充值4000元</t>
-  </si>
-  <si>
-    <t>累计充值6500元</t>
-  </si>
-  <si>
-    <t>累计充值8000元</t>
-  </si>
-  <si>
-    <t>累计充值12000元</t>
-  </si>
-  <si>
-    <t>累计充值16000元</t>
-  </si>
-  <si>
-    <t>累计充值20000元</t>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>600,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利（新用户）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_new</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_not_new</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_not_new_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中捕获10条鱼</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获30条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获50条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获100条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -4883,100 +4875,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>230,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>241,242,243,244,245,246,247,248,249,250,251</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_task_nor</t>
+    <t>fkfl_bg_2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5610,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5827,7 +5726,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>198</v>
@@ -5895,13 +5794,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="38" t="s">
         <v>472</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>473</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -5912,13 +5811,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -5929,13 +5828,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -5946,13 +5845,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>480</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -5963,13 +5862,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -5980,13 +5879,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E21" s="65">
         <v>20</v>
@@ -5997,13 +5896,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E22" s="65">
         <v>21</v>
@@ -6014,13 +5913,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>628</v>
+        <v>693</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -6038,7 +5937,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6297,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6317,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -6357,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -6365,19 +6264,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>474</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6385,7 +6284,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6397,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6405,7 +6304,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6417,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -6425,7 +6324,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6437,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -6445,7 +6344,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6457,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6465,7 +6364,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6477,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -6485,7 +6384,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -6497,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -6505,7 +6404,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -6517,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -6531,9 +6430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G254" sqref="G254"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6589,10 +6488,10 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>52</v>
@@ -9391,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H95" s="41" t="s">
         <v>287</v>
@@ -9450,10 +9349,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>307</v>
@@ -9515,7 +9414,7 @@
         <v>325</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>307</v>
@@ -9574,10 +9473,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="H101" s="41" t="s">
         <v>437</v>
-      </c>
-      <c r="H101" s="41" t="s">
-        <v>438</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>307</v>
@@ -9636,10 +9535,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="H103" s="41" t="s">
         <v>439</v>
-      </c>
-      <c r="H103" s="41" t="s">
-        <v>440</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>307</v>
@@ -9698,10 +9597,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="H105" s="41" t="s">
         <v>441</v>
-      </c>
-      <c r="H105" s="41" t="s">
-        <v>442</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>239</v>
@@ -10065,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H118" s="42" t="s">
         <v>344</v>
@@ -10682,7 +10581,7 @@
         <v>395</v>
       </c>
       <c r="H140" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I140" s="54" t="s">
         <v>404</v>
@@ -10766,7 +10665,7 @@
         <v>395</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I143" s="54" t="s">
         <v>405</v>
@@ -10934,7 +10833,7 @@
         <v>406</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I149" s="54" t="s">
         <v>405</v>
@@ -11018,7 +10917,7 @@
         <v>406</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I152" s="54" t="s">
         <v>404</v>
@@ -11133,7 +11032,7 @@
         <v>402</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -11161,7 +11060,7 @@
         <v>365</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="J157" s="54"/>
       <c r="K157" s="54"/>
@@ -11245,7 +11144,7 @@
         <v>368</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>433</v>
+        <v>691</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -11463,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H168" s="54" t="s">
         <v>423</v>
@@ -11485,19 +11384,19 @@
         <v>5000000</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H169" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J169" s="42"/>
       <c r="K169" s="42"/>
@@ -11513,19 +11412,19 @@
         <v>10000000</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
@@ -11541,19 +11440,19 @@
         <v>30000000</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H171" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J171" s="42"/>
       <c r="K171" s="42"/>
@@ -11569,19 +11468,19 @@
         <v>50000000</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E172" s="3">
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H172" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J172" s="42"/>
       <c r="K172" s="42"/>
@@ -11597,19 +11496,19 @@
         <v>100000000</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E173" s="3">
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J173" s="42"/>
       <c r="K173" s="42"/>
@@ -11625,19 +11524,19 @@
         <v>200000000</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E174" s="3">
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H174" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J174" s="42"/>
       <c r="K174" s="42"/>
@@ -11653,19 +11552,19 @@
         <v>500000000</v>
       </c>
       <c r="D175" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E175" s="3">
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I175" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
@@ -11681,19 +11580,19 @@
         <v>800000000</v>
       </c>
       <c r="D176" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E176" s="3">
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I176" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J176" s="42"/>
       <c r="K176" s="42"/>
@@ -11709,16 +11608,16 @@
         <v>1000000000</v>
       </c>
       <c r="D177" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E177" s="3">
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>238</v>
@@ -11737,19 +11636,19 @@
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H178" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="H178" s="42" t="s">
-        <v>489</v>
-      </c>
       <c r="J178" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K178" s="42"/>
     </row>
@@ -11764,19 +11663,19 @@
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E179" s="3">
         <v>1</v>
       </c>
       <c r="G179" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H179" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="H179" s="42" t="s">
-        <v>489</v>
-      </c>
       <c r="J179" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K179" s="42"/>
     </row>
@@ -11791,19 +11690,19 @@
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
       </c>
       <c r="G180" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H180" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="H180" s="42" t="s">
-        <v>489</v>
-      </c>
       <c r="J180" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K180" s="42"/>
     </row>
@@ -11818,19 +11717,19 @@
         <v>1</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H181" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I181" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K181" s="3">
         <v>1</v>
@@ -11847,19 +11746,19 @@
         <v>1</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
       </c>
       <c r="G182" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H182" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I182" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K182" s="3">
         <v>1</v>
@@ -11876,19 +11775,19 @@
         <v>1</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H183" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I183" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K183" s="3">
         <v>1</v>
@@ -11905,19 +11804,19 @@
         <v>1</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H184" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I184" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -11931,19 +11830,19 @@
         <v>1</v>
       </c>
       <c r="D185" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H185" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I185" s="42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -11957,19 +11856,19 @@
         <v>5</v>
       </c>
       <c r="D186" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E186" s="3">
         <v>2</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I186" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -11983,16 +11882,16 @@
         <v>10</v>
       </c>
       <c r="D187" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E187" s="3">
         <v>3</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H187" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I187" s="42" t="s">
         <v>238</v>
@@ -12009,7 +11908,7 @@
         <v>10000</v>
       </c>
       <c r="D188" s="56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -12018,10 +11917,10 @@
         <v>301</v>
       </c>
       <c r="H188" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -12035,7 +11934,7 @@
         <v>50000</v>
       </c>
       <c r="D189" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E189" s="3">
         <v>2</v>
@@ -12044,10 +11943,10 @@
         <v>301</v>
       </c>
       <c r="H189" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -12061,7 +11960,7 @@
         <v>100000</v>
       </c>
       <c r="D190" s="56" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -12070,10 +11969,10 @@
         <v>301</v>
       </c>
       <c r="H190" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I190" s="42" t="s">
-        <v>617</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -12087,7 +11986,7 @@
         <v>300000</v>
       </c>
       <c r="D191" s="56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E191" s="3">
         <v>2</v>
@@ -12096,10 +11995,10 @@
         <v>301</v>
       </c>
       <c r="H191" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I191" s="42" t="s">
-        <v>618</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -12113,7 +12012,7 @@
         <v>500000</v>
       </c>
       <c r="D192" s="56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E192" s="3">
         <v>3</v>
@@ -12122,10 +12021,10 @@
         <v>301</v>
       </c>
       <c r="H192" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>617</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -12139,7 +12038,7 @@
         <v>800000</v>
       </c>
       <c r="D193" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E193" s="3">
         <v>4</v>
@@ -12148,10 +12047,10 @@
         <v>301</v>
       </c>
       <c r="H193" s="42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>618</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -12165,7 +12064,7 @@
         <v>1000000</v>
       </c>
       <c r="D194" s="56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E194" s="3">
         <v>5</v>
@@ -12174,10 +12073,10 @@
         <v>301</v>
       </c>
       <c r="H194" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I194" s="42" t="s">
-        <v>617</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -12191,7 +12090,7 @@
         <v>2000000</v>
       </c>
       <c r="D195" s="56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E195" s="3">
         <v>6</v>
@@ -12200,10 +12099,10 @@
         <v>301</v>
       </c>
       <c r="H195" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I195" s="42" t="s">
-        <v>618</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -12217,7 +12116,7 @@
         <v>3500000</v>
       </c>
       <c r="D196" s="56" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E196" s="3">
         <v>7</v>
@@ -12226,10 +12125,10 @@
         <v>301</v>
       </c>
       <c r="H196" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I196" s="42" t="s">
-        <v>617</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -12243,7 +12142,7 @@
         <v>9000000</v>
       </c>
       <c r="D197" s="56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E197" s="3">
         <v>8</v>
@@ -12252,10 +12151,10 @@
         <v>301</v>
       </c>
       <c r="H197" s="42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I197" s="42" t="s">
-        <v>618</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -12269,7 +12168,7 @@
         <v>18000000</v>
       </c>
       <c r="D198" s="56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E198" s="3">
         <v>9</v>
@@ -12278,10 +12177,10 @@
         <v>301</v>
       </c>
       <c r="H198" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I198" s="42" t="s">
-        <v>617</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -12295,7 +12194,7 @@
         <v>30000000</v>
       </c>
       <c r="D199" s="56" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E199" s="3">
         <v>10</v>
@@ -12304,10 +12203,10 @@
         <v>301</v>
       </c>
       <c r="H199" s="42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I199" s="42" t="s">
-        <v>618</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -12321,7 +12220,7 @@
         <v>50000000</v>
       </c>
       <c r="D200" s="56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E200" s="3">
         <v>11</v>
@@ -12330,10 +12229,10 @@
         <v>301</v>
       </c>
       <c r="H200" s="42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I200" s="42" t="s">
-        <v>617</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -12347,7 +12246,7 @@
         <v>90000000</v>
       </c>
       <c r="D201" s="56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E201" s="3">
         <v>12</v>
@@ -12356,10 +12255,10 @@
         <v>301</v>
       </c>
       <c r="H201" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I201" s="42" t="s">
-        <v>618</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -12373,7 +12272,7 @@
         <v>150000000</v>
       </c>
       <c r="D202" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E202" s="3">
         <v>13</v>
@@ -12382,10 +12281,10 @@
         <v>301</v>
       </c>
       <c r="H202" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I202" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -12399,7 +12298,7 @@
         <v>250000000</v>
       </c>
       <c r="D203" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E203" s="3">
         <v>14</v>
@@ -12408,10 +12307,10 @@
         <v>301</v>
       </c>
       <c r="H203" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I203" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -12425,7 +12324,7 @@
         <v>450000000</v>
       </c>
       <c r="D204" s="56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E204" s="3">
         <v>15</v>
@@ -12434,10 +12333,10 @@
         <v>301</v>
       </c>
       <c r="H204" s="42" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I204" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -12451,7 +12350,7 @@
         <v>750000000</v>
       </c>
       <c r="D205" s="56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E205" s="3">
         <v>16</v>
@@ -12460,10 +12359,10 @@
         <v>301</v>
       </c>
       <c r="H205" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I205" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -12477,7 +12376,7 @@
         <v>1000000000</v>
       </c>
       <c r="D206" s="56" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E206" s="3">
         <v>17</v>
@@ -12486,10 +12385,10 @@
         <v>301</v>
       </c>
       <c r="H206" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I206" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -12503,7 +12402,7 @@
         <v>1500000000</v>
       </c>
       <c r="D207" s="56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E207" s="3">
         <v>18</v>
@@ -12512,10 +12411,10 @@
         <v>301</v>
       </c>
       <c r="H207" s="42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I207" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -12529,7 +12428,7 @@
         <v>3000000000</v>
       </c>
       <c r="D208" s="56" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E208" s="3">
         <v>19</v>
@@ -12538,10 +12437,10 @@
         <v>301</v>
       </c>
       <c r="H208" s="42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I208" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -12555,7 +12454,7 @@
         <v>5000000000</v>
       </c>
       <c r="D209" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E209" s="3">
         <v>20</v>
@@ -12564,10 +12463,10 @@
         <v>301</v>
       </c>
       <c r="H209" s="42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I209" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -12581,7 +12480,7 @@
         <v>10000000000</v>
       </c>
       <c r="D210" s="56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E210" s="3">
         <v>21</v>
@@ -12590,10 +12489,10 @@
         <v>301</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I210" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -12607,7 +12506,7 @@
         <v>30000000000</v>
       </c>
       <c r="D211" s="56" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E211" s="3">
         <v>22</v>
@@ -12616,10 +12515,10 @@
         <v>301</v>
       </c>
       <c r="H211" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I211" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -12633,7 +12532,7 @@
         <v>60000000000</v>
       </c>
       <c r="D212" s="56" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E212" s="3">
         <v>23</v>
@@ -12642,10 +12541,10 @@
         <v>301</v>
       </c>
       <c r="H212" s="42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I212" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -12656,10 +12555,10 @@
         <v>30034</v>
       </c>
       <c r="C213" s="64" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D213" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E213" s="3">
         <v>24</v>
@@ -12668,10 +12567,10 @@
         <v>301</v>
       </c>
       <c r="H213" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I213" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -12682,10 +12581,10 @@
         <v>30034</v>
       </c>
       <c r="C214" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D214" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E214" s="3">
         <v>25</v>
@@ -12694,10 +12593,10 @@
         <v>301</v>
       </c>
       <c r="H214" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I214" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -12708,10 +12607,10 @@
         <v>30034</v>
       </c>
       <c r="C215" s="64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D215" s="56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E215" s="3">
         <v>26</v>
@@ -12720,10 +12619,10 @@
         <v>301</v>
       </c>
       <c r="H215" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I215" s="42" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -12734,10 +12633,10 @@
         <v>30035</v>
       </c>
       <c r="C216" s="64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D216" s="56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E216" s="3">
         <v>1</v>
@@ -12749,10 +12648,10 @@
         <v>301</v>
       </c>
       <c r="H216" s="42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I216" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -12763,10 +12662,10 @@
         <v>30035</v>
       </c>
       <c r="C217" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D217" s="56" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E217" s="3">
         <v>2</v>
@@ -12778,10 +12677,10 @@
         <v>301</v>
       </c>
       <c r="H217" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -12792,10 +12691,10 @@
         <v>30035</v>
       </c>
       <c r="C218" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D218" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E218" s="3">
         <v>3</v>
@@ -12807,10 +12706,10 @@
         <v>301</v>
       </c>
       <c r="H218" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I218" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -12821,10 +12720,10 @@
         <v>30035</v>
       </c>
       <c r="C219" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D219" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E219" s="3">
         <v>4</v>
@@ -12836,10 +12735,10 @@
         <v>301</v>
       </c>
       <c r="H219" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I219" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -12850,10 +12749,10 @@
         <v>30035</v>
       </c>
       <c r="C220" s="64" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D220" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E220" s="3">
         <v>5</v>
@@ -12865,10 +12764,10 @@
         <v>301</v>
       </c>
       <c r="H220" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I220" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -12879,10 +12778,10 @@
         <v>30035</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D221" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E221" s="3">
         <v>6</v>
@@ -12894,10 +12793,10 @@
         <v>301</v>
       </c>
       <c r="H221" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I221" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -12908,10 +12807,10 @@
         <v>30035</v>
       </c>
       <c r="C222" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D222" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E222" s="3">
         <v>7</v>
@@ -12923,10 +12822,10 @@
         <v>301</v>
       </c>
       <c r="H222" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I222" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -12937,10 +12836,10 @@
         <v>30035</v>
       </c>
       <c r="C223" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D223" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E223" s="3">
         <v>8</v>
@@ -12952,10 +12851,10 @@
         <v>301</v>
       </c>
       <c r="H223" s="42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I223" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -12966,10 +12865,10 @@
         <v>30035</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D224" s="56" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E224" s="3">
         <v>9</v>
@@ -12981,10 +12880,10 @@
         <v>301</v>
       </c>
       <c r="H224" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I224" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -12995,10 +12894,10 @@
         <v>30035</v>
       </c>
       <c r="C225" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E225" s="3">
         <v>10</v>
@@ -13010,10 +12909,10 @@
         <v>301</v>
       </c>
       <c r="H225" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I225" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -13024,10 +12923,10 @@
         <v>30035</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E226" s="3">
         <v>11</v>
@@ -13039,10 +12938,10 @@
         <v>301</v>
       </c>
       <c r="H226" s="42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I226" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -13053,10 +12952,10 @@
         <v>30035</v>
       </c>
       <c r="C227" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E227" s="3">
         <v>12</v>
@@ -13068,10 +12967,10 @@
         <v>301</v>
       </c>
       <c r="H227" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I227" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -13082,10 +12981,10 @@
         <v>30035</v>
       </c>
       <c r="C228" s="64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E228" s="3">
         <v>13</v>
@@ -13097,10 +12996,10 @@
         <v>301</v>
       </c>
       <c r="H228" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I228" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -13111,10 +13010,10 @@
         <v>30035</v>
       </c>
       <c r="C229" s="64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D229" s="56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E229" s="3">
         <v>14</v>
@@ -13126,10 +13025,10 @@
         <v>301</v>
       </c>
       <c r="H229" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I229" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -13140,10 +13039,10 @@
         <v>30035</v>
       </c>
       <c r="C230" s="64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D230" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E230" s="3">
         <v>15</v>
@@ -13152,13 +13051,13 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>301</v>
+        <v>690</v>
       </c>
       <c r="H230" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I230" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -13169,7 +13068,7 @@
         <v>1000788</v>
       </c>
       <c r="C231" s="64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D231" s="42" t="s">
         <v>278</v>
@@ -13178,10 +13077,10 @@
         <v>1</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H231" s="42" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>351</v>
@@ -13195,19 +13094,19 @@
         <v>1000789</v>
       </c>
       <c r="C232" s="64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H232" s="42" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>273</v>
@@ -13221,22 +13120,22 @@
         <v>1000790</v>
       </c>
       <c r="C233" s="64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E233" s="3">
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H233" s="42" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="I233" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -13247,22 +13146,22 @@
         <v>1000790</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D234" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E234" s="3">
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="I234" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -13273,22 +13172,22 @@
         <v>1000790</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E235" s="3">
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H235" s="42" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="I235" s="42" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -13299,22 +13198,22 @@
         <v>1000790</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E236" s="3">
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H236" s="42" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="I236" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -13325,22 +13224,22 @@
         <v>1000791</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="E237" s="3">
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H237" s="42" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="I237" s="42" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -13351,22 +13250,22 @@
         <v>1000791</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E238" s="3">
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H238" s="42" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="I238" s="42" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -13377,22 +13276,22 @@
         <v>1000791</v>
       </c>
       <c r="C239" s="64" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E239" s="3">
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H239" s="42" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="I239" s="42" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -13403,22 +13302,22 @@
         <v>1000791</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E240" s="3">
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -13429,22 +13328,22 @@
         <v>1000792</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E241" s="3">
         <v>1</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>645</v>
+        <v>301</v>
       </c>
       <c r="H241" s="42" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -13455,7 +13354,7 @@
         <v>1000793</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D242" s="42" t="s">
         <v>278</v>
@@ -13464,10 +13363,10 @@
         <v>1</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H242" s="42" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>351</v>
@@ -13481,19 +13380,19 @@
         <v>1000794</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D243" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E243" s="3">
         <v>1</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H243" s="42" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>273</v>
@@ -13507,22 +13406,22 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H244" s="42" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="I244" s="42" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -13533,22 +13432,22 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H245" s="42" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="I245" s="42" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -13559,22 +13458,22 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="I246" s="42" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -13585,22 +13484,22 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H247" s="42" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="I247" s="42" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -13611,22 +13510,22 @@
         <v>1000796</v>
       </c>
       <c r="C248" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="D248" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G248" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="H248" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="D248" s="42" t="s">
-        <v>652</v>
-      </c>
-      <c r="E248" s="3">
-        <v>1</v>
-      </c>
-      <c r="G248" s="42" t="s">
-        <v>646</v>
-      </c>
-      <c r="H248" s="42" t="s">
-        <v>649</v>
-      </c>
       <c r="I248" s="42" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -13637,22 +13536,22 @@
         <v>1000796</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D249" s="42" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E249" s="3">
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="H249" s="42" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="I249" s="42" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -13663,22 +13562,22 @@
         <v>1000796</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E250" s="3">
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H250" s="42" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="I250" s="42" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -13689,22 +13588,22 @@
         <v>1000796</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E251" s="3">
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>646</v>
+        <v>322</v>
       </c>
       <c r="H251" s="42" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="I251" s="42" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -13715,22 +13614,22 @@
         <v>1000797</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D252" s="42" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E252" s="3">
         <v>1</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>645</v>
+        <v>301</v>
       </c>
       <c r="H252" s="42" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -5157,15 +5157,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>252,253,254,255,256,257,258,259,260</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>261,262,263,264,265,266,267,268,269</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,231,232,233,234,235,236,237,238,239,240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,242,243,244,245,246,247,248,249,250,251</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6226,8 +6226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6486,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -6720,9 +6720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C231" sqref="C231:C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14130,7 +14130,7 @@
         <v>234</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -14159,7 +14159,7 @@
         <v>728</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -14370,7 +14370,7 @@
         <v>237</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -14399,7 +14399,7 @@
         <v>730</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="756">
   <si>
     <t>index|索引</t>
   </si>
@@ -2679,19 +2679,1965 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_yjshl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjshl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>68,169,170,171,172,173,174,175,176</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_hlttby</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_byam</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早餐福利（9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00-10:00在线)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐福利（12:00-13:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐福利（18:00-19:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>link|链接</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”捕鱼奥秘“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游“欢乐天天捕鱼”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”欢乐天天捕鱼“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_all_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与1次苹果大战</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>177,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>178,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳福利</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金80万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金350万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金900万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1800万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金3000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金9000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金4.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金7.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金15亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金300亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金600亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1500亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+  </si>
+  <si>
+    <t>累计充值40元</t>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+  </si>
+  <si>
+    <t>累计充值400元</t>
+  </si>
+  <si>
+    <t>累计充值900元</t>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+  </si>
+  <si>
+    <t>累计充值2800元</t>
+  </si>
+  <si>
+    <t>累计充值4000元</t>
+  </si>
+  <si>
+    <t>累计充值6500元</t>
+  </si>
+  <si>
+    <t>累计充值8000元</t>
+  </si>
+  <si>
+    <t>累计充值12000元</t>
+  </si>
+  <si>
+    <t>累计充值16000元</t>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（新用户）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中捕获10条鱼</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获50条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"shop_gold_sum",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达300万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获20条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获200条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2707,11 +4653,331 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除20个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除200个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>00000,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,231,232,233,234,235,236,237,238,239,240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,242,243,244,245,246,247,248,249,250,251</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值300元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值800元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>3</t>
     </r>
@@ -2724,7 +4990,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000000,</t>
+      <t>00</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2741,7 +5007,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000000,</t>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2758,7 +5041,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
+      <t>200</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2775,90 +5075,52 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_yjshl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>yjshl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢金送豪礼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢金送豪礼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>68,169,170,171,172,173,174,175,176</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_hlttby</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_byam</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_cjj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gqfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>早餐福利（9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:00-10:00在线)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐福利（12:00-13:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐福利（18:00-19:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>link|链接</t>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,20000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,100000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,200000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,300000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,800000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000,1000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,1500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2000000,1,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2874,2129 +5136,94 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游”捕鱼奥秘“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游“欢乐天天捕鱼”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游”欢乐天天捕鱼“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_all_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>online</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与1次苹果大战</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>178,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳福利</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金10万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金30万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金80万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金100万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金200万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金350万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金900万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1800万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金3000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金5000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金9000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金2.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金4.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金7.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金10亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金15亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金30亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金100亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金300亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金600亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1000亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1500亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金2000亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金5万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50000000000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000000000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值8元</t>
-  </si>
-  <si>
-    <t>累计充值40元</t>
-  </si>
-  <si>
-    <t>累计充值100元</t>
-  </si>
-  <si>
-    <t>累计充值200元</t>
-  </si>
-  <si>
-    <t>累计充值400元</t>
-  </si>
-  <si>
-    <t>累计充值900元</t>
-  </si>
-  <si>
-    <t>累计充值1500元</t>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-  </si>
-  <si>
-    <t>累计充值2800元</t>
-  </si>
-  <si>
-    <t>累计充值4000元</t>
-  </si>
-  <si>
-    <t>累计充值6500元</t>
-  </si>
-  <si>
-    <t>累计充值8000元</t>
-  </si>
-  <si>
-    <t>累计充值12000元</t>
-  </si>
-  <si>
-    <t>累计充值16000元</t>
-  </si>
-  <si>
-    <t>累计充值20000元</t>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>600,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利（新用户）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_new</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_not_new</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_not_new_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中捕获10条鱼</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获30条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获50条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获100条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_task_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达300万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达500万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达1000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日福利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获20条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获30条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获100条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获200条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除20个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除200个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"","可以在小游戏苹果大战中使用",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,270</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
   </si>
   <si>
     <t>"jing_bi","prop_guess_apple_bet_1",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,2,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,20000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,20,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,200,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,3000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,10000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5004,298 +5231,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>230,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>241,242,243,244,245,246,247,248,249,250,251</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值100元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值300元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值800元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1500元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,20000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,100000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,200000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,300000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000,800000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000,1000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000,1500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,2000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"","可以在小游戏苹果大战中使用",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"","可以在小游戏苹果大战中使用",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,5000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103,104,270</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>desc|描述</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5312,11 +5251,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"","","10元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"","","20元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","50元优惠券",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5532,7 +5471,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5676,9 +5615,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6177,13 +6113,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -6200,7 +6136,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -6245,13 +6181,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -6262,13 +6198,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -6279,13 +6215,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -6296,13 +6232,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -6313,13 +6249,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -6330,13 +6266,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="E21" s="65">
         <v>20</v>
@@ -6347,13 +6283,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="E22" s="65">
         <v>21</v>
@@ -6364,13 +6300,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -6388,7 +6324,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6647,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6667,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -6707,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -6715,7 +6651,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6727,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6735,7 +6671,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6747,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6755,7 +6691,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6767,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -6775,7 +6711,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6787,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -6795,7 +6731,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6807,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6815,7 +6751,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6827,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -6835,7 +6771,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -6847,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -6855,7 +6791,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -6867,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6881,9 +6817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J271" sqref="J271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6939,13 +6875,13 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>52</v>
@@ -9837,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="H95" s="41" t="s">
         <v>286</v>
@@ -9878,314 +9814,314 @@
       <c r="K96" s="41"/>
       <c r="L96" s="41"/>
     </row>
-    <row r="97" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="48">
+    <row r="97" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="40">
         <v>96</v>
       </c>
-      <c r="B97" s="49">
+      <c r="B97" s="13">
         <v>1000737</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="66" t="s">
+        <v>706</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>716</v>
+      </c>
+      <c r="H97" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="I97" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J97" s="50" t="s">
+        <v>750</v>
+      </c>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="40">
+        <v>97</v>
+      </c>
+      <c r="B98" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C98" s="66" t="s">
+        <v>707</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="E98" s="13">
+        <v>2</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="H98" s="41" t="s">
         <v>718</v>
       </c>
-      <c r="D97" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" s="49">
-        <v>1</v>
-      </c>
-      <c r="F97" s="49">
-        <v>1</v>
-      </c>
-      <c r="G97" s="50" t="s">
-        <v>728</v>
-      </c>
-      <c r="H97" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="I97" s="50" t="s">
+      <c r="I98" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J97" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="50" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="48">
-        <v>97</v>
-      </c>
-      <c r="B98" s="49">
+      <c r="J98" s="50" t="s">
+        <v>751</v>
+      </c>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+    </row>
+    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="40">
+        <v>98</v>
+      </c>
+      <c r="B99" s="13">
         <v>1000737</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C99" s="66" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>700</v>
+      </c>
+      <c r="E99" s="13">
+        <v>3</v>
+      </c>
+      <c r="F99" s="13">
+        <v>1</v>
+      </c>
+      <c r="G99" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="H99" s="41" t="s">
         <v>719</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="I99" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J99" s="50" t="s">
+        <v>751</v>
+      </c>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+    </row>
+    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="40">
+        <v>99</v>
+      </c>
+      <c r="B100" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C100" s="66" t="s">
+        <v>709</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="E100" s="13">
+        <v>4</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1</v>
+      </c>
+      <c r="G100" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="H100" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="I100" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J100" s="50" t="s">
+        <v>752</v>
+      </c>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+    </row>
+    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="40">
+        <v>100</v>
+      </c>
+      <c r="B101" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C101" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="13">
+        <v>5</v>
+      </c>
+      <c r="F101" s="13">
+        <v>1</v>
+      </c>
+      <c r="G101" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="H101" s="41" t="s">
+        <v>721</v>
+      </c>
+      <c r="I101" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J101" s="50" t="s">
+        <v>752</v>
+      </c>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+    </row>
+    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="40">
+        <v>101</v>
+      </c>
+      <c r="B102" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C102" s="66" t="s">
         <v>711</v>
       </c>
-      <c r="E98" s="49">
-        <v>2</v>
-      </c>
-      <c r="F98" s="49">
-        <v>1</v>
-      </c>
-      <c r="G98" s="50" t="s">
-        <v>743</v>
-      </c>
-      <c r="H98" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="I98" s="50" t="s">
+      <c r="D102" s="41" t="s">
+        <v>702</v>
+      </c>
+      <c r="E102" s="13">
+        <v>6</v>
+      </c>
+      <c r="F102" s="13">
+        <v>1</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="I102" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J98" s="50" t="s">
-        <v>750</v>
-      </c>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-    </row>
-    <row r="99" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="48">
-        <v>98</v>
-      </c>
-      <c r="B99" s="49">
+      <c r="J102" s="50" t="s">
+        <v>753</v>
+      </c>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+    </row>
+    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="40">
+        <v>102</v>
+      </c>
+      <c r="B103" s="13">
         <v>1000737</v>
       </c>
-      <c r="C99" s="67" t="s">
-        <v>720</v>
-      </c>
-      <c r="D99" s="50" t="s">
+      <c r="C103" s="66" t="s">
         <v>712</v>
       </c>
-      <c r="E99" s="49">
-        <v>3</v>
-      </c>
-      <c r="F99" s="49">
-        <v>1</v>
-      </c>
-      <c r="G99" s="50" t="s">
-        <v>743</v>
-      </c>
-      <c r="H99" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="I99" s="50" t="s">
+      <c r="D103" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="E103" s="13">
+        <v>7</v>
+      </c>
+      <c r="F103" s="13">
+        <v>1</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>732</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>723</v>
+      </c>
+      <c r="I103" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J99" s="50" t="s">
-        <v>750</v>
-      </c>
-      <c r="K99" s="50"/>
-      <c r="L99" s="50"/>
-    </row>
-    <row r="100" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="48">
-        <v>99</v>
-      </c>
-      <c r="B100" s="49">
+      <c r="J103" s="50" t="s">
+        <v>754</v>
+      </c>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+    </row>
+    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="40">
+        <v>103</v>
+      </c>
+      <c r="B104" s="13">
         <v>1000737</v>
       </c>
-      <c r="C100" s="67" t="s">
-        <v>721</v>
-      </c>
-      <c r="D100" s="50" t="s">
+      <c r="C104" s="66" t="s">
         <v>713</v>
       </c>
-      <c r="E100" s="49">
-        <v>4</v>
-      </c>
-      <c r="F100" s="49">
-        <v>1</v>
-      </c>
-      <c r="G100" s="50" t="s">
-        <v>744</v>
-      </c>
-      <c r="H100" s="50" t="s">
+      <c r="D104" s="41" t="s">
+        <v>704</v>
+      </c>
+      <c r="E104" s="13">
+        <v>8</v>
+      </c>
+      <c r="F104" s="13">
+        <v>1</v>
+      </c>
+      <c r="G104" s="41" t="s">
         <v>732</v>
       </c>
-      <c r="I100" s="50" t="s">
+      <c r="H104" s="41" t="s">
+        <v>724</v>
+      </c>
+      <c r="I104" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J100" s="50" t="s">
-        <v>751</v>
-      </c>
-      <c r="K100" s="50"/>
-      <c r="L100" s="50"/>
-    </row>
-    <row r="101" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="48">
-        <v>100</v>
-      </c>
-      <c r="B101" s="49">
+      <c r="J104" s="50" t="s">
+        <v>754</v>
+      </c>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+    </row>
+    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="40">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13">
         <v>1000737</v>
       </c>
-      <c r="C101" s="67" t="s">
-        <v>722</v>
-      </c>
-      <c r="D101" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="E101" s="49">
-        <v>5</v>
-      </c>
-      <c r="F101" s="49">
-        <v>1</v>
-      </c>
-      <c r="G101" s="50" t="s">
-        <v>744</v>
-      </c>
-      <c r="H101" s="50" t="s">
+      <c r="C105" s="66" t="s">
+        <v>714</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="E105" s="13">
+        <v>9</v>
+      </c>
+      <c r="F105" s="13">
+        <v>1</v>
+      </c>
+      <c r="G105" s="41" t="s">
         <v>733</v>
       </c>
-      <c r="I101" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="J101" s="50" t="s">
-        <v>751</v>
-      </c>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
-    </row>
-    <row r="102" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="48">
-        <v>101</v>
-      </c>
-      <c r="B102" s="49">
-        <v>1000737</v>
-      </c>
-      <c r="C102" s="67" t="s">
-        <v>723</v>
-      </c>
-      <c r="D102" s="50" t="s">
-        <v>714</v>
-      </c>
-      <c r="E102" s="49">
-        <v>6</v>
-      </c>
-      <c r="F102" s="49">
-        <v>1</v>
-      </c>
-      <c r="G102" s="50" t="s">
-        <v>744</v>
-      </c>
-      <c r="H102" s="50" t="s">
-        <v>734</v>
-      </c>
-      <c r="I102" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="J102" s="50" t="s">
-        <v>751</v>
-      </c>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-    </row>
-    <row r="103" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="48">
-        <v>102</v>
-      </c>
-      <c r="B103" s="49">
-        <v>1000737</v>
-      </c>
-      <c r="C103" s="67" t="s">
-        <v>724</v>
-      </c>
-      <c r="D103" s="50" t="s">
-        <v>715</v>
-      </c>
-      <c r="E103" s="49">
-        <v>7</v>
-      </c>
-      <c r="F103" s="49">
-        <v>1</v>
-      </c>
-      <c r="G103" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="H103" s="50" t="s">
-        <v>735</v>
-      </c>
-      <c r="I103" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="J103" s="50" t="s">
-        <v>752</v>
-      </c>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-    </row>
-    <row r="104" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="48">
-        <v>103</v>
-      </c>
-      <c r="B104" s="49">
-        <v>1000737</v>
-      </c>
-      <c r="C104" s="67" t="s">
+      <c r="H105" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="D104" s="50" t="s">
-        <v>716</v>
-      </c>
-      <c r="E104" s="49">
-        <v>8</v>
-      </c>
-      <c r="F104" s="49">
-        <v>1</v>
-      </c>
-      <c r="G104" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="H104" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="I104" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="J104" s="50" t="s">
-        <v>752</v>
-      </c>
-      <c r="K104" s="50"/>
-      <c r="L104" s="50"/>
-    </row>
-    <row r="105" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="48">
-        <v>104</v>
-      </c>
-      <c r="B105" s="49">
-        <v>1000737</v>
-      </c>
-      <c r="C105" s="67" t="s">
-        <v>726</v>
-      </c>
-      <c r="D105" s="50" t="s">
-        <v>717</v>
-      </c>
-      <c r="E105" s="49">
-        <v>9</v>
-      </c>
-      <c r="F105" s="49">
-        <v>1</v>
-      </c>
-      <c r="G105" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="H105" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="I105" s="50" t="s">
+      <c r="I105" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>753</v>
-      </c>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
+        <v>755</v>
+      </c>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
     </row>
     <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40">
@@ -10555,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H118" s="42" t="s">
         <v>332</v>
@@ -11420,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="H148" s="54" t="s">
         <v>384</v>
@@ -11658,7 +11594,7 @@
         <v>390</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -11687,7 +11623,7 @@
         <v>353</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="J157" s="54"/>
       <c r="K157" s="54"/>
@@ -11774,13 +11710,13 @@
         <v>356</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
       <c r="L160" s="54"/>
     </row>
-    <row r="161" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="53">
         <v>160</v>
       </c>
@@ -11809,7 +11745,7 @@
       <c r="K161" s="54"/>
       <c r="L161" s="54"/>
     </row>
-    <row r="162" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="53">
         <v>161</v>
       </c>
@@ -11838,7 +11774,7 @@
       <c r="K162" s="54"/>
       <c r="L162" s="54"/>
     </row>
-    <row r="163" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="53">
         <v>162</v>
       </c>
@@ -11867,7 +11803,7 @@
       <c r="K163" s="54"/>
       <c r="L163" s="54"/>
     </row>
-    <row r="164" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="53">
         <v>163</v>
       </c>
@@ -11896,7 +11832,7 @@
       <c r="K164" s="54"/>
       <c r="L164" s="54"/>
     </row>
-    <row r="165" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="53">
         <v>164</v>
       </c>
@@ -11925,7 +11861,7 @@
       <c r="K165" s="54"/>
       <c r="L165" s="54"/>
     </row>
-    <row r="166" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="53">
         <v>165</v>
       </c>
@@ -11954,7 +11890,7 @@
       <c r="K166" s="54"/>
       <c r="L166" s="54"/>
     </row>
-    <row r="167" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="53">
         <v>166</v>
       </c>
@@ -11983,7 +11919,7 @@
       <c r="K167" s="54"/>
       <c r="L167" s="54"/>
     </row>
-    <row r="168" spans="1:12" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="53">
         <v>167</v>
       </c>
@@ -12012,7 +11948,7 @@
       <c r="K168" s="54"/>
       <c r="L168" s="54"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -12020,28 +11956,31 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>432</v>
+        <v>734</v>
       </c>
       <c r="H169" s="42" t="s">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J169" s="42"/>
       <c r="K169" s="42"/>
       <c r="L169" s="42"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="42" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -12049,28 +11988,28 @@
         <v>1000775</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>432</v>
+        <v>736</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>667</v>
+        <v>739</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
       <c r="L170" s="42"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -12078,28 +12017,28 @@
         <v>1000775</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="H171" s="42" t="s">
-        <v>288</v>
+        <v>740</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J171" s="42"/>
       <c r="K171" s="42"/>
       <c r="L171" s="42"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -12116,19 +12055,19 @@
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>432</v>
+        <v>737</v>
       </c>
       <c r="H172" s="42" t="s">
-        <v>436</v>
+        <v>741</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J172" s="42"/>
       <c r="K172" s="42"/>
       <c r="L172" s="42"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -12145,19 +12084,19 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>295</v>
+        <v>737</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>648</v>
+        <v>742</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J173" s="42"/>
       <c r="K173" s="42"/>
       <c r="L173" s="42"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -12174,19 +12113,19 @@
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>432</v>
+        <v>737</v>
       </c>
       <c r="H174" s="42" t="s">
-        <v>437</v>
+        <v>743</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J174" s="42"/>
       <c r="K174" s="42"/>
       <c r="L174" s="42"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -12203,19 +12142,19 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>457</v>
+        <v>737</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>438</v>
+        <v>744</v>
       </c>
       <c r="I175" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
       <c r="L175" s="42"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -12232,13 +12171,13 @@
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>434</v>
+        <v>737</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>439</v>
+        <v>745</v>
       </c>
       <c r="I176" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J176" s="42"/>
       <c r="K176" s="42"/>
@@ -12261,10 +12200,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>435</v>
+        <v>737</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>440</v>
+        <v>746</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -12284,19 +12223,19 @@
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H178" s="42" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="K178" s="42" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L178" s="42"/>
     </row>
@@ -12311,19 +12250,19 @@
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E179" s="3">
         <v>1</v>
       </c>
       <c r="G179" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H179" s="42" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="K179" s="42" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L179" s="42"/>
     </row>
@@ -12338,19 +12277,19 @@
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
       </c>
       <c r="G180" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H180" s="42" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="K180" s="42" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L180" s="42"/>
     </row>
@@ -12365,19 +12304,19 @@
         <v>1</v>
       </c>
       <c r="D181" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="H181" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="E181" s="3">
-        <v>1</v>
-      </c>
-      <c r="G181" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="H181" s="42" t="s">
-        <v>460</v>
-      </c>
       <c r="I181" s="42" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="J181" s="42"/>
       <c r="L181" s="3">
@@ -12395,19 +12334,19 @@
         <v>1</v>
       </c>
       <c r="D182" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="H182" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="E182" s="3">
-        <v>1</v>
-      </c>
-      <c r="G182" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="H182" s="42" t="s">
-        <v>461</v>
-      </c>
       <c r="I182" s="42" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="J182" s="42"/>
       <c r="L182" s="3">
@@ -12425,19 +12364,19 @@
         <v>1</v>
       </c>
       <c r="D183" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="H183" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="E183" s="3">
-        <v>1</v>
-      </c>
-      <c r="G183" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="H183" s="42" t="s">
-        <v>462</v>
-      </c>
       <c r="I183" s="42" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="J183" s="42"/>
       <c r="L183" s="3">
@@ -12455,19 +12394,19 @@
         <v>1</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H184" s="42" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I184" s="42" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="J184" s="42"/>
     </row>
@@ -12482,19 +12421,19 @@
         <v>1</v>
       </c>
       <c r="D185" s="42" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H185" s="42" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I185" s="42" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="J185" s="42"/>
     </row>
@@ -12509,19 +12448,19 @@
         <v>5</v>
       </c>
       <c r="D186" s="42" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E186" s="3">
         <v>2</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I186" s="42" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="J186" s="42"/>
     </row>
@@ -12536,16 +12475,16 @@
         <v>10</v>
       </c>
       <c r="D187" s="42" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E187" s="3">
         <v>3</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H187" s="42" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="I187" s="42" t="s">
         <v>237</v>
@@ -12563,7 +12502,7 @@
         <v>10000</v>
       </c>
       <c r="D188" s="56" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -12572,10 +12511,10 @@
         <v>295</v>
       </c>
       <c r="H188" s="42" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="J188" s="42"/>
     </row>
@@ -12590,7 +12529,7 @@
         <v>50000</v>
       </c>
       <c r="D189" s="56" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="E189" s="3">
         <v>2</v>
@@ -12599,10 +12538,10 @@
         <v>295</v>
       </c>
       <c r="H189" s="42" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="J189" s="42"/>
     </row>
@@ -12617,7 +12556,7 @@
         <v>100000</v>
       </c>
       <c r="D190" s="56" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -12626,7 +12565,7 @@
         <v>295</v>
       </c>
       <c r="H190" s="42" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="I190" s="42" t="s">
         <v>67</v>
@@ -12644,7 +12583,7 @@
         <v>300000</v>
       </c>
       <c r="D191" s="56" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E191" s="3">
         <v>2</v>
@@ -12653,7 +12592,7 @@
         <v>295</v>
       </c>
       <c r="H191" s="42" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="I191" s="42" t="s">
         <v>67</v>
@@ -12671,7 +12610,7 @@
         <v>500000</v>
       </c>
       <c r="D192" s="56" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E192" s="3">
         <v>3</v>
@@ -12680,7 +12619,7 @@
         <v>295</v>
       </c>
       <c r="H192" s="42" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="I192" s="42" t="s">
         <v>67</v>
@@ -12698,7 +12637,7 @@
         <v>800000</v>
       </c>
       <c r="D193" s="56" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E193" s="3">
         <v>4</v>
@@ -12707,7 +12646,7 @@
         <v>295</v>
       </c>
       <c r="H193" s="42" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="I193" s="42" t="s">
         <v>67</v>
@@ -12725,7 +12664,7 @@
         <v>1000000</v>
       </c>
       <c r="D194" s="56" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E194" s="3">
         <v>5</v>
@@ -12734,7 +12673,7 @@
         <v>295</v>
       </c>
       <c r="H194" s="42" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="I194" s="42" t="s">
         <v>67</v>
@@ -12752,7 +12691,7 @@
         <v>2000000</v>
       </c>
       <c r="D195" s="56" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E195" s="3">
         <v>6</v>
@@ -12761,7 +12700,7 @@
         <v>295</v>
       </c>
       <c r="H195" s="42" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="I195" s="42" t="s">
         <v>67</v>
@@ -12779,7 +12718,7 @@
         <v>3500000</v>
       </c>
       <c r="D196" s="56" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E196" s="3">
         <v>7</v>
@@ -12788,7 +12727,7 @@
         <v>295</v>
       </c>
       <c r="H196" s="42" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="I196" s="42" t="s">
         <v>67</v>
@@ -12806,7 +12745,7 @@
         <v>9000000</v>
       </c>
       <c r="D197" s="56" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E197" s="3">
         <v>8</v>
@@ -12815,7 +12754,7 @@
         <v>295</v>
       </c>
       <c r="H197" s="42" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I197" s="42" t="s">
         <v>67</v>
@@ -12833,7 +12772,7 @@
         <v>18000000</v>
       </c>
       <c r="D198" s="56" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E198" s="3">
         <v>9</v>
@@ -12842,7 +12781,7 @@
         <v>295</v>
       </c>
       <c r="H198" s="42" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="I198" s="42" t="s">
         <v>67</v>
@@ -12860,7 +12799,7 @@
         <v>30000000</v>
       </c>
       <c r="D199" s="56" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E199" s="3">
         <v>10</v>
@@ -12869,7 +12808,7 @@
         <v>295</v>
       </c>
       <c r="H199" s="42" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I199" s="42" t="s">
         <v>67</v>
@@ -12887,7 +12826,7 @@
         <v>50000000</v>
       </c>
       <c r="D200" s="56" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E200" s="3">
         <v>11</v>
@@ -12896,7 +12835,7 @@
         <v>295</v>
       </c>
       <c r="H200" s="42" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="I200" s="42" t="s">
         <v>67</v>
@@ -12914,7 +12853,7 @@
         <v>90000000</v>
       </c>
       <c r="D201" s="56" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E201" s="3">
         <v>12</v>
@@ -12923,7 +12862,7 @@
         <v>295</v>
       </c>
       <c r="H201" s="42" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="I201" s="42" t="s">
         <v>67</v>
@@ -12941,7 +12880,7 @@
         <v>150000000</v>
       </c>
       <c r="D202" s="56" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E202" s="3">
         <v>13</v>
@@ -12950,10 +12889,10 @@
         <v>295</v>
       </c>
       <c r="H202" s="42" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="I202" s="42" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J202" s="42"/>
     </row>
@@ -12968,7 +12907,7 @@
         <v>250000000</v>
       </c>
       <c r="D203" s="56" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E203" s="3">
         <v>14</v>
@@ -12977,10 +12916,10 @@
         <v>295</v>
       </c>
       <c r="H203" s="42" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="I203" s="42" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="J203" s="42"/>
     </row>
@@ -12995,7 +12934,7 @@
         <v>450000000</v>
       </c>
       <c r="D204" s="56" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E204" s="3">
         <v>15</v>
@@ -13004,10 +12943,10 @@
         <v>295</v>
       </c>
       <c r="H204" s="42" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="I204" s="42" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J204" s="42"/>
     </row>
@@ -13022,7 +12961,7 @@
         <v>750000000</v>
       </c>
       <c r="D205" s="56" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E205" s="3">
         <v>16</v>
@@ -13031,10 +12970,10 @@
         <v>295</v>
       </c>
       <c r="H205" s="42" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="I205" s="42" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="J205" s="42"/>
     </row>
@@ -13049,7 +12988,7 @@
         <v>1000000000</v>
       </c>
       <c r="D206" s="56" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E206" s="3">
         <v>17</v>
@@ -13058,10 +12997,10 @@
         <v>295</v>
       </c>
       <c r="H206" s="42" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="I206" s="42" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J206" s="42"/>
     </row>
@@ -13076,7 +13015,7 @@
         <v>1500000000</v>
       </c>
       <c r="D207" s="56" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E207" s="3">
         <v>18</v>
@@ -13085,10 +13024,10 @@
         <v>295</v>
       </c>
       <c r="H207" s="42" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="I207" s="42" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="J207" s="42"/>
     </row>
@@ -13103,7 +13042,7 @@
         <v>3000000000</v>
       </c>
       <c r="D208" s="56" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E208" s="3">
         <v>19</v>
@@ -13112,10 +13051,10 @@
         <v>295</v>
       </c>
       <c r="H208" s="42" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I208" s="42" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J208" s="42"/>
     </row>
@@ -13130,7 +13069,7 @@
         <v>5000000000</v>
       </c>
       <c r="D209" s="56" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E209" s="3">
         <v>20</v>
@@ -13139,10 +13078,10 @@
         <v>295</v>
       </c>
       <c r="H209" s="42" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="I209" s="42" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="J209" s="42"/>
     </row>
@@ -13157,7 +13096,7 @@
         <v>10000000000</v>
       </c>
       <c r="D210" s="56" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E210" s="3">
         <v>21</v>
@@ -13166,10 +13105,10 @@
         <v>295</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="I210" s="42" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J210" s="42"/>
     </row>
@@ -13184,7 +13123,7 @@
         <v>30000000000</v>
       </c>
       <c r="D211" s="56" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E211" s="3">
         <v>22</v>
@@ -13193,10 +13132,10 @@
         <v>295</v>
       </c>
       <c r="H211" s="42" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="I211" s="42" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="J211" s="42"/>
     </row>
@@ -13211,7 +13150,7 @@
         <v>60000000000</v>
       </c>
       <c r="D212" s="56" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E212" s="3">
         <v>23</v>
@@ -13220,10 +13159,10 @@
         <v>295</v>
       </c>
       <c r="H212" s="42" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="I212" s="42" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J212" s="42"/>
     </row>
@@ -13235,10 +13174,10 @@
         <v>30034</v>
       </c>
       <c r="C213" s="64" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D213" s="56" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E213" s="3">
         <v>24</v>
@@ -13247,10 +13186,10 @@
         <v>295</v>
       </c>
       <c r="H213" s="42" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="I213" s="42" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="J213" s="42"/>
     </row>
@@ -13262,10 +13201,10 @@
         <v>30034</v>
       </c>
       <c r="C214" s="64" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D214" s="56" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E214" s="3">
         <v>25</v>
@@ -13274,10 +13213,10 @@
         <v>295</v>
       </c>
       <c r="H214" s="42" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="I214" s="42" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J214" s="42"/>
     </row>
@@ -13289,10 +13228,10 @@
         <v>30034</v>
       </c>
       <c r="C215" s="64" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D215" s="56" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E215" s="3">
         <v>26</v>
@@ -13301,10 +13240,10 @@
         <v>295</v>
       </c>
       <c r="H215" s="42" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="I215" s="42" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="J215" s="42"/>
     </row>
@@ -13316,10 +13255,10 @@
         <v>30035</v>
       </c>
       <c r="C216" s="64" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D216" s="56" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E216" s="3">
         <v>1</v>
@@ -13331,10 +13270,10 @@
         <v>295</v>
       </c>
       <c r="H216" s="42" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="I216" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J216" s="42"/>
     </row>
@@ -13346,10 +13285,10 @@
         <v>30035</v>
       </c>
       <c r="C217" s="64" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D217" s="56" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E217" s="3">
         <v>2</v>
@@ -13361,10 +13300,10 @@
         <v>295</v>
       </c>
       <c r="H217" s="42" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J217" s="42"/>
     </row>
@@ -13376,10 +13315,10 @@
         <v>30035</v>
       </c>
       <c r="C218" s="64" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D218" s="56" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E218" s="3">
         <v>3</v>
@@ -13391,10 +13330,10 @@
         <v>295</v>
       </c>
       <c r="H218" s="42" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="I218" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J218" s="42"/>
     </row>
@@ -13406,10 +13345,10 @@
         <v>30035</v>
       </c>
       <c r="C219" s="64" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D219" s="56" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E219" s="3">
         <v>4</v>
@@ -13421,10 +13360,10 @@
         <v>295</v>
       </c>
       <c r="H219" s="42" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="I219" s="42" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J219" s="42"/>
     </row>
@@ -13436,10 +13375,10 @@
         <v>30035</v>
       </c>
       <c r="C220" s="64" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D220" s="56" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="E220" s="3">
         <v>5</v>
@@ -13451,10 +13390,10 @@
         <v>295</v>
       </c>
       <c r="H220" s="42" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="I220" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J220" s="42"/>
     </row>
@@ -13466,10 +13405,10 @@
         <v>30035</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D221" s="56" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E221" s="3">
         <v>6</v>
@@ -13481,10 +13420,10 @@
         <v>295</v>
       </c>
       <c r="H221" s="42" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="I221" s="42" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J221" s="42"/>
     </row>
@@ -13496,10 +13435,10 @@
         <v>30035</v>
       </c>
       <c r="C222" s="64" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D222" s="56" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E222" s="3">
         <v>7</v>
@@ -13511,10 +13450,10 @@
         <v>295</v>
       </c>
       <c r="H222" s="42" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="I222" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J222" s="42"/>
     </row>
@@ -13526,10 +13465,10 @@
         <v>30035</v>
       </c>
       <c r="C223" s="64" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D223" s="56" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E223" s="3">
         <v>8</v>
@@ -13541,10 +13480,10 @@
         <v>295</v>
       </c>
       <c r="H223" s="42" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="I223" s="42" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J223" s="42"/>
     </row>
@@ -13556,10 +13495,10 @@
         <v>30035</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D224" s="56" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E224" s="3">
         <v>9</v>
@@ -13571,10 +13510,10 @@
         <v>295</v>
       </c>
       <c r="H224" s="42" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="I224" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J224" s="42"/>
     </row>
@@ -13586,10 +13525,10 @@
         <v>30035</v>
       </c>
       <c r="C225" s="64" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E225" s="3">
         <v>10</v>
@@ -13601,10 +13540,10 @@
         <v>295</v>
       </c>
       <c r="H225" s="42" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="I225" s="42" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J225" s="42"/>
     </row>
@@ -13616,10 +13555,10 @@
         <v>30035</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="E226" s="3">
         <v>11</v>
@@ -13631,10 +13570,10 @@
         <v>295</v>
       </c>
       <c r="H226" s="42" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="I226" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J226" s="42"/>
     </row>
@@ -13646,10 +13585,10 @@
         <v>30035</v>
       </c>
       <c r="C227" s="64" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E227" s="3">
         <v>12</v>
@@ -13661,10 +13600,10 @@
         <v>295</v>
       </c>
       <c r="H227" s="42" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="I227" s="42" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J227" s="42"/>
     </row>
@@ -13676,10 +13615,10 @@
         <v>30035</v>
       </c>
       <c r="C228" s="64" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E228" s="3">
         <v>13</v>
@@ -13691,10 +13630,10 @@
         <v>295</v>
       </c>
       <c r="H228" s="42" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="I228" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J228" s="42"/>
     </row>
@@ -13706,10 +13645,10 @@
         <v>30035</v>
       </c>
       <c r="C229" s="64" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D229" s="56" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E229" s="3">
         <v>14</v>
@@ -13721,10 +13660,10 @@
         <v>295</v>
       </c>
       <c r="H229" s="42" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="I229" s="42" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J229" s="42"/>
     </row>
@@ -13736,10 +13675,10 @@
         <v>30035</v>
       </c>
       <c r="C230" s="64" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D230" s="56" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E230" s="3">
         <v>15</v>
@@ -13748,13 +13687,13 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="H230" s="42" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I230" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J230" s="42"/>
     </row>
@@ -13766,7 +13705,7 @@
         <v>1000788</v>
       </c>
       <c r="C231" s="64" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D231" s="42" t="s">
         <v>277</v>
@@ -13778,7 +13717,7 @@
         <v>311</v>
       </c>
       <c r="H231" s="42" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>339</v>
@@ -13792,10 +13731,10 @@
         <v>1000789</v>
       </c>
       <c r="C232" s="64" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
@@ -13804,7 +13743,7 @@
         <v>311</v>
       </c>
       <c r="H232" s="42" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
@@ -13819,10 +13758,10 @@
         <v>1000790</v>
       </c>
       <c r="C233" s="64" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="E233" s="3">
         <v>1</v>
@@ -13831,10 +13770,10 @@
         <v>311</v>
       </c>
       <c r="H233" s="42" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="I233" s="42" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="J233" s="42"/>
     </row>
@@ -13846,10 +13785,10 @@
         <v>1000790</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D234" s="42" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E234" s="3">
         <v>2</v>
@@ -13858,10 +13797,10 @@
         <v>311</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="I234" s="42" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="J234" s="42"/>
     </row>
@@ -13873,10 +13812,10 @@
         <v>1000790</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E235" s="3">
         <v>3</v>
@@ -13885,10 +13824,10 @@
         <v>311</v>
       </c>
       <c r="H235" s="42" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="I235" s="42" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="J235" s="42"/>
     </row>
@@ -13900,10 +13839,10 @@
         <v>1000790</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E236" s="3">
         <v>4</v>
@@ -13912,10 +13851,10 @@
         <v>311</v>
       </c>
       <c r="H236" s="42" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="I236" s="42" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="J236" s="42"/>
     </row>
@@ -13927,10 +13866,10 @@
         <v>1000791</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E237" s="3">
         <v>1</v>
@@ -13939,10 +13878,10 @@
         <v>311</v>
       </c>
       <c r="H237" s="42" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="I237" s="42" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="J237" s="42"/>
     </row>
@@ -13954,10 +13893,10 @@
         <v>1000791</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="E238" s="3">
         <v>2</v>
@@ -13966,10 +13905,10 @@
         <v>311</v>
       </c>
       <c r="H238" s="42" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I238" s="42" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="J238" s="42"/>
     </row>
@@ -13981,10 +13920,10 @@
         <v>1000791</v>
       </c>
       <c r="C239" s="64" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="E239" s="3">
         <v>3</v>
@@ -13993,10 +13932,10 @@
         <v>311</v>
       </c>
       <c r="H239" s="42" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="I239" s="42" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="J239" s="42"/>
     </row>
@@ -14008,10 +13947,10 @@
         <v>1000791</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E240" s="3">
         <v>4</v>
@@ -14020,10 +13959,10 @@
         <v>311</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="J240" s="42"/>
     </row>
@@ -14035,10 +13974,10 @@
         <v>1000792</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="E241" s="3">
         <v>1</v>
@@ -14047,10 +13986,10 @@
         <v>295</v>
       </c>
       <c r="H241" s="42" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="J241" s="42"/>
     </row>
@@ -14062,7 +14001,7 @@
         <v>1000793</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D242" s="42" t="s">
         <v>277</v>
@@ -14074,7 +14013,7 @@
         <v>311</v>
       </c>
       <c r="H242" s="42" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>339</v>
@@ -14088,10 +14027,10 @@
         <v>1000794</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D243" s="42" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E243" s="3">
         <v>1</v>
@@ -14100,7 +14039,7 @@
         <v>311</v>
       </c>
       <c r="H243" s="42" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
@@ -14115,10 +14054,10 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
@@ -14127,10 +14066,10 @@
         <v>311</v>
       </c>
       <c r="H244" s="42" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="I244" s="42" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="J244" s="42"/>
     </row>
@@ -14142,10 +14081,10 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
@@ -14154,10 +14093,10 @@
         <v>311</v>
       </c>
       <c r="H245" s="42" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="I245" s="42" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="J245" s="42"/>
     </row>
@@ -14169,10 +14108,10 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
@@ -14181,10 +14120,10 @@
         <v>311</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="I246" s="42" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="J246" s="42"/>
     </row>
@@ -14196,10 +14135,10 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
@@ -14208,10 +14147,10 @@
         <v>311</v>
       </c>
       <c r="H247" s="42" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="I247" s="42" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="J247" s="42"/>
     </row>
@@ -14223,10 +14162,10 @@
         <v>1000796</v>
       </c>
       <c r="C248" s="64" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D248" s="42" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
@@ -14235,10 +14174,10 @@
         <v>311</v>
       </c>
       <c r="H248" s="42" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="I248" s="42" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="J248" s="42"/>
     </row>
@@ -14250,10 +14189,10 @@
         <v>1000796</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D249" s="42" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="E249" s="3">
         <v>2</v>
@@ -14262,10 +14201,10 @@
         <v>311</v>
       </c>
       <c r="H249" s="42" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I249" s="42" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="J249" s="42"/>
     </row>
@@ -14277,10 +14216,10 @@
         <v>1000796</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="E250" s="3">
         <v>3</v>
@@ -14289,10 +14228,10 @@
         <v>311</v>
       </c>
       <c r="H250" s="42" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="I250" s="42" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="J250" s="42"/>
     </row>
@@ -14304,10 +14243,10 @@
         <v>1000796</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E251" s="3">
         <v>4</v>
@@ -14316,10 +14255,10 @@
         <v>311</v>
       </c>
       <c r="H251" s="42" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="I251" s="42" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="J251" s="42"/>
     </row>
@@ -14331,7 +14270,7 @@
         <v>1000797</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D252" s="42" t="s">
         <v>202</v>
@@ -14343,10 +14282,10 @@
         <v>295</v>
       </c>
       <c r="H252" s="42" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="J252" s="42"/>
     </row>
@@ -14358,7 +14297,7 @@
         <v>1000801</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D253" s="42" t="s">
         <v>276</v>
@@ -14370,7 +14309,7 @@
         <v>311</v>
       </c>
       <c r="H253" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>270</v>
@@ -14384,7 +14323,7 @@
         <v>1000802</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D254" s="42" t="s">
         <v>252</v>
@@ -14393,10 +14332,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="42" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="H254" s="42" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="I254" s="42" t="s">
         <v>272</v>
@@ -14411,10 +14350,10 @@
         <v>1000803</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="E255" s="3">
         <v>1</v>
@@ -14423,7 +14362,7 @@
         <v>311</v>
       </c>
       <c r="H255" s="42" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="I255" s="42" t="s">
         <v>234</v>
@@ -14438,10 +14377,10 @@
         <v>1000803</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="E256" s="3">
         <v>2</v>
@@ -14450,7 +14389,7 @@
         <v>311</v>
       </c>
       <c r="H256" s="42" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="I256" s="42" t="s">
         <v>234</v>
@@ -14465,10 +14404,10 @@
         <v>1000803</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E257" s="3">
         <v>3</v>
@@ -14477,7 +14416,7 @@
         <v>311</v>
       </c>
       <c r="H257" s="42" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="I257" s="42" t="s">
         <v>234</v>
@@ -14492,10 +14431,10 @@
         <v>1000803</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E258" s="3">
         <v>4</v>
@@ -14504,7 +14443,7 @@
         <v>311</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="I258" s="42" t="s">
         <v>234</v>
@@ -14519,10 +14458,10 @@
         <v>1000803</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="E259" s="3">
         <v>5</v>
@@ -14531,7 +14470,7 @@
         <v>311</v>
       </c>
       <c r="H259" s="42" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="I259" s="42" t="s">
         <v>234</v>
@@ -14546,26 +14485,26 @@
         <v>1000803</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E260" s="3">
         <v>6</v>
       </c>
       <c r="G260" s="42" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="H260" s="42" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="I260" s="42" t="s">
         <v>234</v>
       </c>
       <c r="J260" s="42"/>
       <c r="M260" s="42" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -14576,26 +14515,26 @@
         <v>1000804</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E261" s="3">
         <v>1</v>
       </c>
       <c r="G261" s="42" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="H261" s="42" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="I261" s="42" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="J261" s="42"/>
       <c r="M261" s="3" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -14606,7 +14545,7 @@
         <v>1000805</v>
       </c>
       <c r="C262" s="64" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>276</v>
@@ -14618,7 +14557,7 @@
         <v>311</v>
       </c>
       <c r="H262" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>270</v>
@@ -14632,7 +14571,7 @@
         <v>1000806</v>
       </c>
       <c r="C263" s="64" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>252</v>
@@ -14644,7 +14583,7 @@
         <v>311</v>
       </c>
       <c r="H263" s="42" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="I263" s="42" t="s">
         <v>272</v>
@@ -14659,10 +14598,10 @@
         <v>1000807</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -14671,7 +14610,7 @@
         <v>311</v>
       </c>
       <c r="H264" s="42" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="I264" s="42" t="s">
         <v>237</v>
@@ -14686,10 +14625,10 @@
         <v>1000807</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
@@ -14698,7 +14637,7 @@
         <v>311</v>
       </c>
       <c r="H265" s="42" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="I265" s="42" t="s">
         <v>237</v>
@@ -14713,10 +14652,10 @@
         <v>1000807</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E266" s="3">
         <v>3</v>
@@ -14725,7 +14664,7 @@
         <v>311</v>
       </c>
       <c r="H266" s="42" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="I266" s="42" t="s">
         <v>237</v>
@@ -14740,10 +14679,10 @@
         <v>1000807</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="E267" s="3">
         <v>4</v>
@@ -14752,7 +14691,7 @@
         <v>311</v>
       </c>
       <c r="H267" s="42" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="I267" s="42" t="s">
         <v>237</v>
@@ -14767,10 +14706,10 @@
         <v>1000807</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E268" s="3">
         <v>5</v>
@@ -14779,7 +14718,7 @@
         <v>311</v>
       </c>
       <c r="H268" s="42" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="I268" s="42" t="s">
         <v>237</v>
@@ -14794,26 +14733,26 @@
         <v>1000807</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="E269" s="3">
         <v>6</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="H269" s="42" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="I269" s="42" t="s">
         <v>237</v>
       </c>
       <c r="J269" s="42"/>
       <c r="M269" s="3" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -14824,26 +14763,26 @@
         <v>1000808</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D270" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="H270" s="42" t="s">
         <v>689</v>
       </c>
-      <c r="E270" s="3">
-        <v>1</v>
-      </c>
-      <c r="G270" s="42" t="s">
-        <v>690</v>
-      </c>
-      <c r="H270" s="42" t="s">
-        <v>701</v>
-      </c>
       <c r="I270" s="42" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="J270" s="42"/>
       <c r="M270" s="3" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14854,7 +14793,7 @@
         <v>1000737</v>
       </c>
       <c r="C271" s="66" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="D271" s="41" t="s">
         <v>294</v>
@@ -14866,16 +14805,16 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="H271" s="41" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="I271" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J271" s="41" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K271" s="41"/>
       <c r="L271" s="41"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="757">
   <si>
     <t>index|索引</t>
   </si>
@@ -5247,11 +5247,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"","","10元优惠券",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"","","10元优惠券",</t>
+    <t>"","","20元优惠券",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -6817,9 +6821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G276" sqref="G276"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H277" sqref="H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9880,7 +9884,7 @@
         <v>296</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K98" s="41"/>
       <c r="L98" s="41"/>
@@ -9948,7 +9952,7 @@
         <v>296</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K100" s="41"/>
       <c r="L100" s="41"/>
@@ -9982,7 +9986,7 @@
         <v>296</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K101" s="41"/>
       <c r="L101" s="41"/>
@@ -10084,7 +10088,7 @@
         <v>296</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K104" s="41"/>
       <c r="L104" s="41"/>
@@ -10118,7 +10122,7 @@
         <v>238</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K105" s="41"/>
       <c r="L105" s="41"/>
@@ -14814,7 +14818,7 @@
         <v>238</v>
       </c>
       <c r="J271" s="41" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K271" s="41"/>
       <c r="L271" s="41"/>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="778">
   <si>
     <t>index|索引</t>
   </si>
@@ -4245,1420 +4245,1422 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达300万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获20条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获200条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除20个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除200个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,231,232,233,234,235,236,237,238,239,240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,242,243,244,245,246,247,248,249,250,251</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值300元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值800元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,20000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,100000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,200000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,300000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,800000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000,1000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,1500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"","可以在小游戏苹果大战中使用",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|描述</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","水滴",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","10元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","50元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,270</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除3个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除15个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除30个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>30</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_task_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达300万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达500万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达1000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日福利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获20条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获30条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获100条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获200条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除20个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除200个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>230,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>241,242,243,244,245,246,247,248,249,250,251</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值100元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值300元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值800元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1500元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,20000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,100000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,200000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,300000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000,800000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000,1000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000,1500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,2000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"","可以在小游戏苹果大战中使用",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,5000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|描述</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","水滴",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","5元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","5元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","10元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","20元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","20元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","50元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值198</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>271,272,273,274,275,276,277,278</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除9个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6295,8 +6297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6512,13 +6514,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>656</v>
+        <v>768</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -6535,7 +6537,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>656</v>
+        <v>768</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -6702,7 +6704,7 @@
         <v>591</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>587</v>
@@ -6723,7 +6725,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6982,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7002,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7042,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7216,9 +7218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A272" sqref="A272:D279"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7274,7 +7276,7 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>445</v>
@@ -10172,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H95" s="41" t="s">
         <v>286</v>
@@ -10221,7 +10223,7 @@
         <v>1000737</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>292</v>
@@ -10233,21 +10235,21 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J97" s="50" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="K97" s="41"/>
       <c r="L97" s="41"/>
       <c r="M97" s="41" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -10258,10 +10260,10 @@
         <v>1000737</v>
       </c>
       <c r="C98" s="66" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -10270,16 +10272,16 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="I98" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="K98" s="41"/>
       <c r="L98" s="41"/>
@@ -10292,10 +10294,10 @@
         <v>1000737</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -10304,16 +10306,16 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="K99" s="41"/>
       <c r="L99" s="41"/>
@@ -10326,10 +10328,10 @@
         <v>1000737</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -10338,16 +10340,16 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="I100" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="K100" s="41"/>
       <c r="L100" s="41"/>
@@ -10360,7 +10362,7 @@
         <v>1000737</v>
       </c>
       <c r="C101" s="66" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>293</v>
@@ -10372,16 +10374,16 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="K101" s="41"/>
       <c r="L101" s="41"/>
@@ -10394,10 +10396,10 @@
         <v>1000737</v>
       </c>
       <c r="C102" s="66" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -10406,16 +10408,16 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="I102" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="K102" s="41"/>
       <c r="L102" s="41"/>
@@ -10428,10 +10430,10 @@
         <v>1000737</v>
       </c>
       <c r="C103" s="66" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -10440,16 +10442,16 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J103" s="50" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="K103" s="41"/>
       <c r="L103" s="41"/>
@@ -10462,10 +10464,10 @@
         <v>1000737</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -10474,16 +10476,16 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="I104" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="K104" s="41"/>
       <c r="L104" s="41"/>
@@ -10496,10 +10498,10 @@
         <v>1000737</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -10508,16 +10510,16 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="K105" s="41"/>
       <c r="L105" s="41"/>
@@ -11755,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="H148" s="54" t="s">
         <v>383</v>
@@ -12022,7 +12024,7 @@
         <v>352</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J157" s="54"/>
       <c r="K157" s="54"/>
@@ -12109,7 +12111,7 @@
         <v>355</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -12355,19 +12357,19 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H169" s="42" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="I169" s="42" t="s">
         <v>432</v>
@@ -12385,19 +12387,19 @@
         <v>1000775</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="I170" s="42" t="s">
         <v>432</v>
@@ -12414,19 +12416,19 @@
         <v>1000775</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H171" s="42" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="I171" s="42" t="s">
         <v>432</v>
@@ -12452,10 +12454,10 @@
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H172" s="42" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="I172" s="42" t="s">
         <v>432</v>
@@ -12481,10 +12483,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="I173" s="42" t="s">
         <v>432</v>
@@ -12510,10 +12512,10 @@
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H174" s="42" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="I174" s="42" t="s">
         <v>432</v>
@@ -12539,10 +12541,10 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="I175" s="42" t="s">
         <v>432</v>
@@ -12568,10 +12570,10 @@
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="I176" s="42" t="s">
         <v>432</v>
@@ -12597,10 +12599,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -12911,7 +12913,7 @@
         <v>536</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="J188" s="42"/>
     </row>
@@ -12938,7 +12940,7 @@
         <v>537</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="J189" s="42"/>
     </row>
@@ -13640,7 +13642,7 @@
         <v>561</v>
       </c>
       <c r="I215" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J215" s="42"/>
     </row>
@@ -14084,7 +14086,7 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="H230" s="42" t="s">
         <v>576</v>
@@ -14111,10 +14113,10 @@
         <v>1</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H231" s="42" t="s">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>338</v>
@@ -14137,10 +14139,10 @@
         <v>1</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H232" s="42" t="s">
-        <v>635</v>
+        <v>761</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
@@ -14164,13 +14166,13 @@
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H233" s="42" t="s">
-        <v>636</v>
+        <v>288</v>
       </c>
       <c r="I233" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J233" s="42"/>
     </row>
@@ -14182,7 +14184,7 @@
         <v>1000790</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D234" s="42" t="s">
         <v>595</v>
@@ -14191,13 +14193,13 @@
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>637</v>
+        <v>762</v>
       </c>
       <c r="I234" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J234" s="42"/>
     </row>
@@ -14209,7 +14211,7 @@
         <v>1000790</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D235" s="42" t="s">
         <v>596</v>
@@ -14218,13 +14220,13 @@
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H235" s="42" t="s">
-        <v>638</v>
+        <v>763</v>
       </c>
       <c r="I235" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J235" s="42"/>
     </row>
@@ -14236,7 +14238,7 @@
         <v>1000790</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>597</v>
@@ -14245,13 +14247,13 @@
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H236" s="42" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="I236" s="42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J236" s="42"/>
     </row>
@@ -14263,22 +14265,22 @@
         <v>1000791</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E237" s="3">
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H237" s="42" t="s">
-        <v>640</v>
+        <v>288</v>
       </c>
       <c r="I237" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J237" s="42"/>
     </row>
@@ -14290,22 +14292,22 @@
         <v>1000791</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E238" s="3">
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H238" s="42" t="s">
-        <v>641</v>
+        <v>764</v>
       </c>
       <c r="I238" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J238" s="42"/>
     </row>
@@ -14317,22 +14319,22 @@
         <v>1000791</v>
       </c>
       <c r="C239" s="64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E239" s="3">
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H239" s="42" t="s">
-        <v>642</v>
+        <v>765</v>
       </c>
       <c r="I239" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J239" s="42"/>
     </row>
@@ -14344,22 +14346,22 @@
         <v>1000791</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E240" s="3">
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>643</v>
+        <v>766</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J240" s="42"/>
     </row>
@@ -14371,22 +14373,22 @@
         <v>1000792</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E241" s="3">
         <v>1</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="H241" s="42" t="s">
-        <v>644</v>
+        <v>767</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="J241" s="42"/>
     </row>
@@ -14398,7 +14400,7 @@
         <v>1000793</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D242" s="42" t="s">
         <v>277</v>
@@ -14407,10 +14409,10 @@
         <v>1</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H242" s="42" t="s">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>338</v>
@@ -14424,7 +14426,7 @@
         <v>1000794</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D243" s="42" t="s">
         <v>593</v>
@@ -14433,10 +14435,10 @@
         <v>1</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H243" s="42" t="s">
-        <v>635</v>
+        <v>761</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
@@ -14451,22 +14453,22 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>629</v>
+        <v>759</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H244" s="42" t="s">
-        <v>636</v>
+        <v>288</v>
       </c>
       <c r="I244" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J244" s="42"/>
     </row>
@@ -14478,22 +14480,22 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>600</v>
+        <v>777</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>623</v>
+        <v>776</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H245" s="42" t="s">
-        <v>637</v>
+        <v>762</v>
       </c>
       <c r="I245" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J245" s="42"/>
     </row>
@@ -14505,22 +14507,22 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>626</v>
+        <v>774</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>624</v>
+        <v>772</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>638</v>
+        <v>763</v>
       </c>
       <c r="I246" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J246" s="42"/>
     </row>
@@ -14532,22 +14534,22 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>630</v>
+        <v>775</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>625</v>
+        <v>773</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H247" s="42" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="I247" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J247" s="42"/>
     </row>
@@ -14559,22 +14561,22 @@
         <v>1000796</v>
       </c>
       <c r="C248" s="64" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D248" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H248" s="42" t="s">
-        <v>640</v>
+        <v>288</v>
       </c>
       <c r="I248" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J248" s="42"/>
     </row>
@@ -14586,22 +14588,22 @@
         <v>1000796</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D249" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E249" s="3">
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H249" s="42" t="s">
-        <v>641</v>
+        <v>764</v>
       </c>
       <c r="I249" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J249" s="42"/>
     </row>
@@ -14613,22 +14615,22 @@
         <v>1000796</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E250" s="3">
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H250" s="42" t="s">
-        <v>642</v>
+        <v>765</v>
       </c>
       <c r="I250" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J250" s="42"/>
     </row>
@@ -14640,22 +14642,22 @@
         <v>1000796</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E251" s="3">
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>310</v>
+        <v>769</v>
       </c>
       <c r="H251" s="42" t="s">
-        <v>643</v>
+        <v>766</v>
       </c>
       <c r="I251" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J251" s="42"/>
     </row>
@@ -14667,7 +14669,7 @@
         <v>1000797</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D252" s="42" t="s">
         <v>202</v>
@@ -14676,13 +14678,13 @@
         <v>1</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="H252" s="42" t="s">
-        <v>645</v>
+        <v>767</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="J252" s="42"/>
     </row>
@@ -14694,7 +14696,7 @@
         <v>1000801</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="D253" s="42" t="s">
         <v>276</v>
@@ -14706,7 +14708,7 @@
         <v>310</v>
       </c>
       <c r="H253" s="42" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>270</v>
@@ -14720,7 +14722,7 @@
         <v>1000802</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D254" s="42" t="s">
         <v>252</v>
@@ -14729,10 +14731,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="42" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="H254" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I254" s="42" t="s">
         <v>272</v>
@@ -14747,7 +14749,7 @@
         <v>1000803</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="D255" s="42" t="s">
         <v>594</v>
@@ -14759,7 +14761,7 @@
         <v>310</v>
       </c>
       <c r="H255" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I255" s="42" t="s">
         <v>234</v>
@@ -14774,10 +14776,10 @@
         <v>1000803</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="E256" s="3">
         <v>2</v>
@@ -14786,7 +14788,7 @@
         <v>310</v>
       </c>
       <c r="H256" s="42" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="I256" s="42" t="s">
         <v>234</v>
@@ -14801,10 +14803,10 @@
         <v>1000803</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E257" s="3">
         <v>3</v>
@@ -14813,7 +14815,7 @@
         <v>310</v>
       </c>
       <c r="H257" s="42" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="I257" s="42" t="s">
         <v>234</v>
@@ -14828,7 +14830,7 @@
         <v>1000803</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="D258" s="42" t="s">
         <v>596</v>
@@ -14840,7 +14842,7 @@
         <v>310</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="I258" s="42" t="s">
         <v>234</v>
@@ -14855,10 +14857,10 @@
         <v>1000803</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E259" s="3">
         <v>5</v>
@@ -14867,7 +14869,7 @@
         <v>310</v>
       </c>
       <c r="H259" s="42" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="I259" s="42" t="s">
         <v>234</v>
@@ -14882,26 +14884,26 @@
         <v>1000803</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="E260" s="3">
         <v>6</v>
       </c>
       <c r="G260" s="42" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="H260" s="42" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="I260" s="42" t="s">
         <v>234</v>
       </c>
       <c r="J260" s="42"/>
       <c r="M260" s="42" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -14912,26 +14914,26 @@
         <v>1000804</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="E261" s="3">
         <v>1</v>
       </c>
       <c r="G261" s="42" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="H261" s="42" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="I261" s="42" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="J261" s="42"/>
       <c r="M261" s="3" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -14942,7 +14944,7 @@
         <v>1000805</v>
       </c>
       <c r="C262" s="64" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>276</v>
@@ -14954,7 +14956,7 @@
         <v>310</v>
       </c>
       <c r="H262" s="42" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>270</v>
@@ -14968,7 +14970,7 @@
         <v>1000806</v>
       </c>
       <c r="C263" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>252</v>
@@ -14980,7 +14982,7 @@
         <v>310</v>
       </c>
       <c r="H263" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I263" s="42" t="s">
         <v>272</v>
@@ -14995,10 +14997,10 @@
         <v>1000807</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -15007,7 +15009,7 @@
         <v>310</v>
       </c>
       <c r="H264" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I264" s="42" t="s">
         <v>237</v>
@@ -15022,10 +15024,10 @@
         <v>1000807</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
@@ -15034,7 +15036,7 @@
         <v>310</v>
       </c>
       <c r="H265" s="42" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="I265" s="42" t="s">
         <v>237</v>
@@ -15049,10 +15051,10 @@
         <v>1000807</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="E266" s="3">
         <v>3</v>
@@ -15061,7 +15063,7 @@
         <v>310</v>
       </c>
       <c r="H266" s="42" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="I266" s="42" t="s">
         <v>237</v>
@@ -15076,10 +15078,10 @@
         <v>1000807</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="E267" s="3">
         <v>4</v>
@@ -15088,7 +15090,7 @@
         <v>310</v>
       </c>
       <c r="H267" s="42" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="I267" s="42" t="s">
         <v>237</v>
@@ -15103,10 +15105,10 @@
         <v>1000807</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="E268" s="3">
         <v>5</v>
@@ -15115,7 +15117,7 @@
         <v>310</v>
       </c>
       <c r="H268" s="42" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="I268" s="42" t="s">
         <v>237</v>
@@ -15130,26 +15132,26 @@
         <v>1000807</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="E269" s="3">
         <v>6</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="H269" s="42" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="I269" s="42" t="s">
         <v>237</v>
       </c>
       <c r="J269" s="42"/>
       <c r="M269" s="3" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -15160,26 +15162,26 @@
         <v>1000808</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D270" s="42" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="E270" s="3">
         <v>1</v>
       </c>
       <c r="G270" s="42" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="H270" s="42" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="I270" s="42" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="J270" s="42"/>
       <c r="M270" s="3" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15190,10 +15192,10 @@
         <v>1000737</v>
       </c>
       <c r="C271" s="66" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="D271" s="41" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="E271" s="13">
         <v>10</v>
@@ -15202,16 +15204,16 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="H271" s="41" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="I271" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J271" s="41" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="K271" s="41"/>
       <c r="L271" s="41"/>
@@ -15224,10 +15226,10 @@
         <v>1000737</v>
       </c>
       <c r="C272" s="64" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -15239,7 +15241,7 @@
         <v>310</v>
       </c>
       <c r="H272" s="42" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="I272" s="41" t="s">
         <v>238</v>
@@ -15253,10 +15255,10 @@
         <v>1000737</v>
       </c>
       <c r="C273" s="64" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="E273" s="3">
         <v>2</v>
@@ -15268,7 +15270,7 @@
         <v>294</v>
       </c>
       <c r="H273" s="42" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="I273" s="41" t="s">
         <v>238</v>
@@ -15282,10 +15284,10 @@
         <v>1000737</v>
       </c>
       <c r="C274" s="64" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="E274" s="3">
         <v>3</v>
@@ -15297,7 +15299,7 @@
         <v>310</v>
       </c>
       <c r="H274" s="42" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="I274" s="41" t="s">
         <v>238</v>
@@ -15311,10 +15313,10 @@
         <v>1000737</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="E275" s="3">
         <v>4</v>
@@ -15326,7 +15328,7 @@
         <v>294</v>
       </c>
       <c r="H275" s="42" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="I275" s="41" t="s">
         <v>238</v>
@@ -15340,10 +15342,10 @@
         <v>1000737</v>
       </c>
       <c r="C276" s="64" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="E276" s="3">
         <v>5</v>
@@ -15355,7 +15357,7 @@
         <v>310</v>
       </c>
       <c r="H276" s="42" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="I276" s="41" t="s">
         <v>238</v>
@@ -15369,10 +15371,10 @@
         <v>1000737</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="E277" s="3">
         <v>6</v>
@@ -15384,7 +15386,7 @@
         <v>294</v>
       </c>
       <c r="H277" s="42" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="I277" s="41" t="s">
         <v>238</v>
@@ -15398,10 +15400,10 @@
         <v>1000737</v>
       </c>
       <c r="C278" s="64" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="E278" s="3">
         <v>7</v>
@@ -15413,7 +15415,7 @@
         <v>310</v>
       </c>
       <c r="H278" s="42" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="I278" s="41" t="s">
         <v>238</v>
@@ -15427,10 +15429,10 @@
         <v>1000737</v>
       </c>
       <c r="C279" s="64" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="E279" s="3">
         <v>8</v>
@@ -15442,7 +15444,7 @@
         <v>294</v>
       </c>
       <c r="H279" s="42" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="I279" s="41" t="s">
         <v>238</v>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="823">
   <si>
     <t>index|索引</t>
   </si>
@@ -4444,10 +4444,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"shop_gold_sum",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5042,6 +5038,898 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|描述</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","水滴",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","10元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","50元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>97,98,99,100,101,102,103,104,270</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>288</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>588</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>088</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>188</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值298元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值888元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1288元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1588元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2088元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5188元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,15000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,100000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,200000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,500000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,880000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>280000,1280000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>580000,1580000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>080000,2080000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>180000,5180000,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>"</t>
     </r>
@@ -5070,63 +5958,102 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>5000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,5000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|描述</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","水滴",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","5元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","5元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","10元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","20元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","20元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","50元优惠券",</t>
+    <t>"","","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>79,280,281,282,283,284,285,286,287,288</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值赠礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjshxn_czzl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>czzl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值赠礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,66,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4980000,128,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可在元宝兑奖中兑换奖励",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5138,461 +6065,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值198</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
+    <t>10,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5600,39 +6081,32 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>300,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103,104,270</t>
+    <t>1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"可在元宝兑奖中兑换奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"可在元宝兑奖中兑换奖励",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5644,23 +6118,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>在西游消消乐中累计消除9个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>在西游消消乐中累计消除30个孙悟空</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>15</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除9个孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5872,7 +6346,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6016,6 +6490,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6295,10 +6775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6520,7 +7000,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -6537,7 +7017,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -6704,13 +7184,30 @@
         <v>591</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>587</v>
       </c>
       <c r="E23">
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>787</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6722,10 +7219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6984,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7004,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7044,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7205,6 +7702,26 @@
       </c>
       <c r="G23" s="44" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>786</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -7216,11 +7733,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W279"/>
+  <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
+      <selection pane="bottomLeft" activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7231,7 +7748,7 @@
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="60" customWidth="1"/>
     <col min="9" max="12" width="28.875" style="3" customWidth="1"/>
     <col min="13" max="13" width="86.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="22.875" style="3" customWidth="1"/>
@@ -7269,14 +7786,14 @@
       <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="57" t="s">
         <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>445</v>
@@ -7977,7 +8494,7 @@
       <c r="G22" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="60" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -8015,7 +8532,7 @@
       <c r="G23" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="60" t="s">
         <v>103</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -8053,7 +8570,7 @@
       <c r="G24" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="60" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -8091,7 +8608,7 @@
       <c r="G25" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="60" t="s">
         <v>113</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -8128,7 +8645,7 @@
       <c r="G26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="60" t="s">
         <v>118</v>
       </c>
       <c r="I26" s="5" t="s">
@@ -8165,7 +8682,7 @@
       <c r="G27" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="60" t="s">
         <v>123</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -8202,7 +8719,7 @@
       <c r="G28" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="60" t="s">
         <v>128</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -8239,7 +8756,7 @@
       <c r="G29" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="60" t="s">
         <v>133</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -8270,7 +8787,7 @@
       <c r="G30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="60" t="s">
         <v>135</v>
       </c>
       <c r="I30" s="5" t="s">
@@ -8523,7 +9040,7 @@
       <c r="G38" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="60" t="s">
         <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
@@ -8552,7 +9069,7 @@
       <c r="G39" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="60" t="s">
         <v>150</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -8581,7 +9098,7 @@
       <c r="G40" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="60" t="s">
         <v>152</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -8610,7 +9127,7 @@
       <c r="G41" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="60" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -8639,7 +9156,7 @@
       <c r="G42" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="60" t="s">
         <v>156</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -8668,7 +9185,7 @@
       <c r="G43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="60" t="s">
         <v>158</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -8697,7 +9214,7 @@
       <c r="G44" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="60" t="s">
         <v>160</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -8726,7 +9243,7 @@
       <c r="G45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="60" t="s">
         <v>162</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -8755,7 +9272,7 @@
       <c r="G46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="60" t="s">
         <v>164</v>
       </c>
       <c r="I46" s="5" t="s">
@@ -8784,7 +9301,7 @@
       <c r="G47" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="60" t="s">
         <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -8813,7 +9330,7 @@
       <c r="G48" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="60" t="s">
         <v>168</v>
       </c>
       <c r="I48" s="5" t="s">
@@ -8842,7 +9359,7 @@
       <c r="G49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="60" t="s">
         <v>170</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -8871,7 +9388,7 @@
       <c r="G50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="60" t="s">
         <v>172</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -8900,7 +9417,7 @@
       <c r="G51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="60" t="s">
         <v>174</v>
       </c>
       <c r="I51" s="5" t="s">
@@ -8929,7 +9446,7 @@
       <c r="G52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="60" t="s">
         <v>176</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -8958,7 +9475,7 @@
       <c r="G53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I53" s="5" t="s">
@@ -8987,7 +9504,7 @@
       <c r="G54" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="60" t="s">
         <v>180</v>
       </c>
       <c r="I54" s="5" t="s">
@@ -9016,7 +9533,7 @@
       <c r="G55" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="60" t="s">
         <v>182</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -9045,7 +9562,7 @@
       <c r="G56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="60" t="s">
         <v>140</v>
       </c>
       <c r="I56" s="5" t="s">
@@ -9074,7 +9591,7 @@
       <c r="G57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="60" t="s">
         <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
@@ -9103,7 +9620,7 @@
       <c r="G58" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="60" t="s">
         <v>150</v>
       </c>
       <c r="I58" s="5" t="s">
@@ -9132,7 +9649,7 @@
       <c r="G59" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="60" t="s">
         <v>188</v>
       </c>
       <c r="I59" s="5" t="s">
@@ -9161,7 +9678,7 @@
       <c r="G60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="60" t="s">
         <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
@@ -9277,7 +9794,7 @@
       <c r="G64" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="67" t="s">
         <v>280</v>
       </c>
       <c r="I64" s="50" t="s">
@@ -9306,7 +9823,7 @@
       <c r="G65" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="67" t="s">
         <v>222</v>
       </c>
       <c r="I65" s="50" t="s">
@@ -9335,7 +9852,7 @@
       <c r="G66" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H66" s="50" t="s">
+      <c r="H66" s="67" t="s">
         <v>221</v>
       </c>
       <c r="I66" s="50" t="s">
@@ -9364,7 +9881,7 @@
       <c r="G67" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H67" s="50" t="s">
+      <c r="H67" s="67" t="s">
         <v>223</v>
       </c>
       <c r="I67" s="50" t="s">
@@ -9393,7 +9910,7 @@
       <c r="G68" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="67" t="s">
         <v>224</v>
       </c>
       <c r="I68" s="50" t="s">
@@ -9422,7 +9939,7 @@
       <c r="G69" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H69" s="50" t="s">
+      <c r="H69" s="67" t="s">
         <v>225</v>
       </c>
       <c r="I69" s="50" t="s">
@@ -9451,7 +9968,7 @@
       <c r="G70" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H70" s="50" t="s">
+      <c r="H70" s="67" t="s">
         <v>226</v>
       </c>
       <c r="I70" s="50" t="s">
@@ -9480,7 +9997,7 @@
       <c r="G71" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H71" s="66" t="s">
         <v>221</v>
       </c>
       <c r="I71" s="41" t="s">
@@ -9509,7 +10026,7 @@
       <c r="G72" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="66" t="s">
         <v>227</v>
       </c>
       <c r="I72" s="41" t="s">
@@ -9538,7 +10055,7 @@
       <c r="G73" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H73" s="50" t="s">
+      <c r="H73" s="67" t="s">
         <v>225</v>
       </c>
       <c r="I73" s="50" t="s">
@@ -9567,7 +10084,7 @@
       <c r="G74" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H74" s="50" t="s">
+      <c r="H74" s="67" t="s">
         <v>227</v>
       </c>
       <c r="I74" s="50" t="s">
@@ -9596,7 +10113,7 @@
       <c r="G75" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="66" t="s">
         <v>221</v>
       </c>
       <c r="I75" s="41" t="s">
@@ -9625,7 +10142,7 @@
       <c r="G76" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H76" s="41" t="s">
+      <c r="H76" s="66" t="s">
         <v>228</v>
       </c>
       <c r="I76" s="41" t="s">
@@ -9654,7 +10171,7 @@
       <c r="G77" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H77" s="41" t="s">
+      <c r="H77" s="66" t="s">
         <v>229</v>
       </c>
       <c r="I77" s="41" t="s">
@@ -9683,7 +10200,7 @@
       <c r="G78" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="66" t="s">
         <v>230</v>
       </c>
       <c r="I78" s="41" t="s">
@@ -9712,7 +10229,7 @@
       <c r="G79" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H79" s="41" t="s">
+      <c r="H79" s="66" t="s">
         <v>231</v>
       </c>
       <c r="I79" s="41" t="s">
@@ -9741,7 +10258,7 @@
       <c r="G80" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H80" s="41" t="s">
+      <c r="H80" s="66" t="s">
         <v>232</v>
       </c>
       <c r="I80" s="41" t="s">
@@ -9770,7 +10287,7 @@
       <c r="G81" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H81" s="41" t="s">
+      <c r="H81" s="66" t="s">
         <v>228</v>
       </c>
       <c r="I81" s="41" t="s">
@@ -9799,7 +10316,7 @@
       <c r="G82" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H82" s="41" t="s">
+      <c r="H82" s="66" t="s">
         <v>233</v>
       </c>
       <c r="I82" s="41" t="s">
@@ -9828,7 +10345,7 @@
       <c r="G83" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H83" s="41" t="s">
+      <c r="H83" s="66" t="s">
         <v>233</v>
       </c>
       <c r="I83" s="41" t="s">
@@ -9857,7 +10374,7 @@
       <c r="G84" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="H84" s="41" t="s">
+      <c r="H84" s="66" t="s">
         <v>233</v>
       </c>
       <c r="I84" s="41" t="s">
@@ -9886,7 +10403,7 @@
       <c r="G85" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H85" s="41" t="s">
+      <c r="H85" s="66" t="s">
         <v>243</v>
       </c>
       <c r="I85" s="41" t="s">
@@ -9915,7 +10432,7 @@
       <c r="G86" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H86" s="41" t="s">
+      <c r="H86" s="66" t="s">
         <v>260</v>
       </c>
       <c r="I86" s="41" t="s">
@@ -9944,7 +10461,7 @@
       <c r="G87" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H87" s="41" t="s">
+      <c r="H87" s="66" t="s">
         <v>261</v>
       </c>
       <c r="I87" s="41" t="s">
@@ -9973,7 +10490,7 @@
       <c r="G88" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H88" s="41" t="s">
+      <c r="H88" s="66" t="s">
         <v>262</v>
       </c>
       <c r="I88" s="41" t="s">
@@ -10002,7 +10519,7 @@
       <c r="G89" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H89" s="41" t="s">
+      <c r="H89" s="66" t="s">
         <v>263</v>
       </c>
       <c r="I89" s="41" t="s">
@@ -10031,7 +10548,7 @@
       <c r="G90" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H90" s="41" t="s">
+      <c r="H90" s="66" t="s">
         <v>264</v>
       </c>
       <c r="I90" s="41" t="s">
@@ -10060,7 +10577,7 @@
       <c r="G91" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H91" s="41" t="s">
+      <c r="H91" s="66" t="s">
         <v>265</v>
       </c>
       <c r="I91" s="41" t="s">
@@ -10089,7 +10606,7 @@
       <c r="G92" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H92" s="41" t="s">
+      <c r="H92" s="66" t="s">
         <v>266</v>
       </c>
       <c r="I92" s="41" t="s">
@@ -10118,7 +10635,7 @@
       <c r="G93" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H93" s="41" t="s">
+      <c r="H93" s="66" t="s">
         <v>267</v>
       </c>
       <c r="I93" s="41" t="s">
@@ -10147,7 +10664,7 @@
       <c r="G94" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="H94" s="41" t="s">
+      <c r="H94" s="66" t="s">
         <v>268</v>
       </c>
       <c r="I94" s="41" t="s">
@@ -10176,7 +10693,7 @@
       <c r="G95" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="H95" s="41" t="s">
+      <c r="H95" s="66" t="s">
         <v>286</v>
       </c>
       <c r="I95" s="41" t="s">
@@ -10205,7 +10722,7 @@
       <c r="G96" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="H96" s="66" t="s">
         <v>288</v>
       </c>
       <c r="I96" s="41" t="s">
@@ -10223,7 +10740,7 @@
         <v>1000737</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>292</v>
@@ -10235,21 +10752,21 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="H97" s="66" t="s">
         <v>695</v>
-      </c>
-      <c r="H97" s="41" t="s">
-        <v>696</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J97" s="50" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K97" s="41"/>
       <c r="L97" s="41"/>
       <c r="M97" s="41" t="s">
-        <v>705</v>
+        <v>783</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -10260,10 +10777,10 @@
         <v>1000737</v>
       </c>
       <c r="C98" s="66" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -10272,16 +10789,16 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>708</v>
-      </c>
-      <c r="H98" s="41" t="s">
-        <v>697</v>
+        <v>706</v>
+      </c>
+      <c r="H98" s="66" t="s">
+        <v>696</v>
       </c>
       <c r="I98" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K98" s="41"/>
       <c r="L98" s="41"/>
@@ -10294,10 +10811,10 @@
         <v>1000737</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -10306,16 +10823,16 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>708</v>
-      </c>
-      <c r="H99" s="41" t="s">
-        <v>698</v>
+        <v>706</v>
+      </c>
+      <c r="H99" s="66" t="s">
+        <v>697</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K99" s="41"/>
       <c r="L99" s="41"/>
@@ -10328,10 +10845,10 @@
         <v>1000737</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -10340,16 +10857,16 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="H100" s="41" t="s">
-        <v>699</v>
+        <v>707</v>
+      </c>
+      <c r="H100" s="66" t="s">
+        <v>698</v>
       </c>
       <c r="I100" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K100" s="41"/>
       <c r="L100" s="41"/>
@@ -10362,7 +10879,7 @@
         <v>1000737</v>
       </c>
       <c r="C101" s="66" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>293</v>
@@ -10374,16 +10891,16 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="H101" s="41" t="s">
-        <v>700</v>
+        <v>707</v>
+      </c>
+      <c r="H101" s="66" t="s">
+        <v>699</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K101" s="41"/>
       <c r="L101" s="41"/>
@@ -10396,10 +10913,10 @@
         <v>1000737</v>
       </c>
       <c r="C102" s="66" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -10408,16 +10925,16 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="H102" s="41" t="s">
-        <v>701</v>
+        <v>707</v>
+      </c>
+      <c r="H102" s="66" t="s">
+        <v>700</v>
       </c>
       <c r="I102" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K102" s="41"/>
       <c r="L102" s="41"/>
@@ -10430,10 +10947,10 @@
         <v>1000737</v>
       </c>
       <c r="C103" s="66" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -10442,16 +10959,16 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>710</v>
-      </c>
-      <c r="H103" s="41" t="s">
-        <v>702</v>
+        <v>708</v>
+      </c>
+      <c r="H103" s="66" t="s">
+        <v>701</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J103" s="50" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="K103" s="41"/>
       <c r="L103" s="41"/>
@@ -10464,10 +10981,10 @@
         <v>1000737</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -10476,16 +10993,16 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>710</v>
-      </c>
-      <c r="H104" s="41" t="s">
-        <v>703</v>
+        <v>708</v>
+      </c>
+      <c r="H104" s="66" t="s">
+        <v>702</v>
       </c>
       <c r="I104" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="K104" s="41"/>
       <c r="L104" s="41"/>
@@ -10498,10 +11015,10 @@
         <v>1000737</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -10510,16 +11027,16 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>711</v>
-      </c>
-      <c r="H105" s="41" t="s">
-        <v>704</v>
+        <v>709</v>
+      </c>
+      <c r="H105" s="66" t="s">
+        <v>703</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K105" s="41"/>
       <c r="L105" s="41"/>
@@ -10543,7 +11060,7 @@
       <c r="G106" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="H106" s="41" t="s">
+      <c r="H106" s="66" t="s">
         <v>312</v>
       </c>
       <c r="I106" s="41" t="s">
@@ -10572,7 +11089,7 @@
       <c r="G107" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="H107" s="41" t="s">
+      <c r="H107" s="66" t="s">
         <v>314</v>
       </c>
       <c r="I107" s="41" t="s">
@@ -10601,7 +11118,7 @@
       <c r="G108" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="H108" s="41" t="s">
+      <c r="H108" s="66" t="s">
         <v>315</v>
       </c>
       <c r="I108" s="41" t="s">
@@ -10630,7 +11147,7 @@
       <c r="G109" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="H109" s="41" t="s">
+      <c r="H109" s="66" t="s">
         <v>316</v>
       </c>
       <c r="I109" s="41" t="s">
@@ -10659,7 +11176,7 @@
       <c r="G110" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H110" s="41" t="s">
+      <c r="H110" s="66" t="s">
         <v>317</v>
       </c>
       <c r="I110" s="41" t="s">
@@ -10688,7 +11205,7 @@
       <c r="G111" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H111" s="42" t="s">
+      <c r="H111" s="64" t="s">
         <v>318</v>
       </c>
       <c r="I111" s="41" t="s">
@@ -10717,7 +11234,7 @@
       <c r="G112" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H112" s="42" t="s">
+      <c r="H112" s="64" t="s">
         <v>319</v>
       </c>
       <c r="I112" s="41" t="s">
@@ -10746,7 +11263,7 @@
       <c r="G113" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H113" s="42" t="s">
+      <c r="H113" s="64" t="s">
         <v>320</v>
       </c>
       <c r="I113" s="41" t="s">
@@ -10775,7 +11292,7 @@
       <c r="G114" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H114" s="42" t="s">
+      <c r="H114" s="64" t="s">
         <v>321</v>
       </c>
       <c r="I114" s="41" t="s">
@@ -10804,7 +11321,7 @@
       <c r="G115" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H115" s="42" t="s">
+      <c r="H115" s="64" t="s">
         <v>314</v>
       </c>
       <c r="I115" s="41" t="s">
@@ -10833,7 +11350,7 @@
       <c r="G116" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H116" s="42" t="s">
+      <c r="H116" s="64" t="s">
         <v>322</v>
       </c>
       <c r="I116" s="41" t="s">
@@ -10862,7 +11379,7 @@
       <c r="G117" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="H117" s="42" t="s">
+      <c r="H117" s="64" t="s">
         <v>323</v>
       </c>
       <c r="I117" s="41" t="s">
@@ -10894,7 +11411,7 @@
       <c r="G118" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="H118" s="42" t="s">
+      <c r="H118" s="64" t="s">
         <v>331</v>
       </c>
       <c r="I118" s="42" t="s">
@@ -10926,7 +11443,7 @@
       <c r="G119" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="H119" s="42" t="s">
+      <c r="H119" s="64" t="s">
         <v>332</v>
       </c>
       <c r="I119" s="42" t="s">
@@ -10958,7 +11475,7 @@
       <c r="G120" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="H120" s="42" t="s">
+      <c r="H120" s="64" t="s">
         <v>333</v>
       </c>
       <c r="I120" s="42" t="s">
@@ -10987,7 +11504,7 @@
       <c r="G121" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="60" t="s">
         <v>340</v>
       </c>
       <c r="I121" s="3" t="s">
@@ -11013,7 +11530,7 @@
       <c r="G122" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="60" t="s">
         <v>344</v>
       </c>
       <c r="I122" s="3" t="s">
@@ -11039,7 +11556,7 @@
       <c r="G123" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H123" s="42" t="s">
+      <c r="H123" s="64" t="s">
         <v>352</v>
       </c>
       <c r="I123" s="42" t="s">
@@ -11068,7 +11585,7 @@
       <c r="G124" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H124" s="42" t="s">
+      <c r="H124" s="64" t="s">
         <v>353</v>
       </c>
       <c r="I124" s="42" t="s">
@@ -11097,7 +11614,7 @@
       <c r="G125" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H125" s="42" t="s">
+      <c r="H125" s="64" t="s">
         <v>354</v>
       </c>
       <c r="I125" s="42" t="s">
@@ -11126,7 +11643,7 @@
       <c r="G126" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H126" s="42" t="s">
+      <c r="H126" s="64" t="s">
         <v>355</v>
       </c>
       <c r="I126" s="42" t="s">
@@ -11155,7 +11672,7 @@
       <c r="G127" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H127" s="42" t="s">
+      <c r="H127" s="64" t="s">
         <v>356</v>
       </c>
       <c r="I127" s="42" t="s">
@@ -11184,7 +11701,7 @@
       <c r="G128" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H128" s="42" t="s">
+      <c r="H128" s="64" t="s">
         <v>357</v>
       </c>
       <c r="I128" s="42" t="s">
@@ -11213,7 +11730,7 @@
       <c r="G129" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H129" s="42" t="s">
+      <c r="H129" s="64" t="s">
         <v>358</v>
       </c>
       <c r="I129" s="42" t="s">
@@ -11242,7 +11759,7 @@
       <c r="G130" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="60" t="s">
         <v>340</v>
       </c>
       <c r="I130" s="3" t="s">
@@ -11268,7 +11785,7 @@
       <c r="G131" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="60" t="s">
         <v>344</v>
       </c>
       <c r="I131" s="42" t="s">
@@ -11295,7 +11812,7 @@
       <c r="G132" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H132" s="42" t="s">
+      <c r="H132" s="64" t="s">
         <v>352</v>
       </c>
       <c r="I132" s="42" t="s">
@@ -11324,7 +11841,7 @@
       <c r="G133" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H133" s="42" t="s">
+      <c r="H133" s="64" t="s">
         <v>353</v>
       </c>
       <c r="I133" s="42" t="s">
@@ -11353,7 +11870,7 @@
       <c r="G134" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H134" s="42" t="s">
+      <c r="H134" s="64" t="s">
         <v>354</v>
       </c>
       <c r="I134" s="42" t="s">
@@ -11382,7 +11899,7 @@
       <c r="G135" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H135" s="42" t="s">
+      <c r="H135" s="64" t="s">
         <v>355</v>
       </c>
       <c r="I135" s="42" t="s">
@@ -11411,7 +11928,7 @@
       <c r="G136" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H136" s="42" t="s">
+      <c r="H136" s="64" t="s">
         <v>356</v>
       </c>
       <c r="I136" s="42" t="s">
@@ -11440,7 +11957,7 @@
       <c r="G137" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H137" s="42" t="s">
+      <c r="H137" s="64" t="s">
         <v>265</v>
       </c>
       <c r="I137" s="42" t="s">
@@ -11469,7 +11986,7 @@
       <c r="G138" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H138" s="42" t="s">
+      <c r="H138" s="64" t="s">
         <v>358</v>
       </c>
       <c r="I138" s="42" t="s">
@@ -11498,7 +12015,7 @@
       <c r="G139" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H139" s="54" t="s">
+      <c r="H139" s="68" t="s">
         <v>383</v>
       </c>
       <c r="I139" s="54" t="s">
@@ -11527,7 +12044,7 @@
       <c r="G140" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H140" s="54" t="s">
+      <c r="H140" s="68" t="s">
         <v>423</v>
       </c>
       <c r="I140" s="54" t="s">
@@ -11556,7 +12073,7 @@
       <c r="G141" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H141" s="54" t="s">
+      <c r="H141" s="68" t="s">
         <v>384</v>
       </c>
       <c r="I141" s="54" t="s">
@@ -11585,7 +12102,7 @@
       <c r="G142" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H142" s="54" t="s">
+      <c r="H142" s="68" t="s">
         <v>385</v>
       </c>
       <c r="I142" s="54" t="s">
@@ -11614,7 +12131,7 @@
       <c r="G143" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H143" s="54" t="s">
+      <c r="H143" s="68" t="s">
         <v>422</v>
       </c>
       <c r="I143" s="54" t="s">
@@ -11643,7 +12160,7 @@
       <c r="G144" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H144" s="54" t="s">
+      <c r="H144" s="68" t="s">
         <v>386</v>
       </c>
       <c r="I144" s="54" t="s">
@@ -11672,7 +12189,7 @@
       <c r="G145" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H145" s="54" t="s">
+      <c r="H145" s="68" t="s">
         <v>387</v>
       </c>
       <c r="I145" s="54" t="s">
@@ -11701,7 +12218,7 @@
       <c r="G146" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H146" s="54" t="s">
+      <c r="H146" s="68" t="s">
         <v>388</v>
       </c>
       <c r="I146" s="54" t="s">
@@ -11730,7 +12247,7 @@
       <c r="G147" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="H147" s="54" t="s">
+      <c r="H147" s="68" t="s">
         <v>389</v>
       </c>
       <c r="I147" s="54" t="s">
@@ -11757,9 +12274,9 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>694</v>
-      </c>
-      <c r="H148" s="54" t="s">
+        <v>693</v>
+      </c>
+      <c r="H148" s="68" t="s">
         <v>383</v>
       </c>
       <c r="I148" s="54" t="s">
@@ -11788,7 +12305,7 @@
       <c r="G149" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H149" s="54" t="s">
+      <c r="H149" s="68" t="s">
         <v>421</v>
       </c>
       <c r="I149" s="54" t="s">
@@ -11817,7 +12334,7 @@
       <c r="G150" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H150" s="54" t="s">
+      <c r="H150" s="68" t="s">
         <v>384</v>
       </c>
       <c r="I150" s="54" t="s">
@@ -11846,7 +12363,7 @@
       <c r="G151" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H151" s="54" t="s">
+      <c r="H151" s="68" t="s">
         <v>385</v>
       </c>
       <c r="I151" s="54" t="s">
@@ -11875,7 +12392,7 @@
       <c r="G152" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H152" s="54" t="s">
+      <c r="H152" s="68" t="s">
         <v>420</v>
       </c>
       <c r="I152" s="54" t="s">
@@ -11904,7 +12421,7 @@
       <c r="G153" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H153" s="54" t="s">
+      <c r="H153" s="68" t="s">
         <v>386</v>
       </c>
       <c r="I153" s="54" t="s">
@@ -11933,7 +12450,7 @@
       <c r="G154" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H154" s="54" t="s">
+      <c r="H154" s="68" t="s">
         <v>387</v>
       </c>
       <c r="I154" s="54" t="s">
@@ -11962,7 +12479,7 @@
       <c r="G155" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H155" s="54" t="s">
+      <c r="H155" s="68" t="s">
         <v>388</v>
       </c>
       <c r="I155" s="54" t="s">
@@ -11991,7 +12508,7 @@
       <c r="G156" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="H156" s="54" t="s">
+      <c r="H156" s="68" t="s">
         <v>389</v>
       </c>
       <c r="I156" s="54" t="s">
@@ -12020,7 +12537,7 @@
       <c r="G157" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="H157" s="54" t="s">
+      <c r="H157" s="68" t="s">
         <v>352</v>
       </c>
       <c r="I157" s="54" t="s">
@@ -12049,7 +12566,7 @@
       <c r="G158" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="H158" s="54" t="s">
+      <c r="H158" s="68" t="s">
         <v>353</v>
       </c>
       <c r="I158" s="54" t="s">
@@ -12078,7 +12595,7 @@
       <c r="G159" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="H159" s="54" t="s">
+      <c r="H159" s="68" t="s">
         <v>262</v>
       </c>
       <c r="I159" s="54" t="s">
@@ -12107,11 +12624,11 @@
       <c r="G160" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H160" s="54" t="s">
+      <c r="H160" s="68" t="s">
         <v>355</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -12136,7 +12653,7 @@
       <c r="G161" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H161" s="54" t="s">
+      <c r="H161" s="68" t="s">
         <v>409</v>
       </c>
       <c r="I161" s="54" t="s">
@@ -12165,7 +12682,7 @@
       <c r="G162" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H162" s="54" t="s">
+      <c r="H162" s="68" t="s">
         <v>410</v>
       </c>
       <c r="I162" s="54" t="s">
@@ -12194,7 +12711,7 @@
       <c r="G163" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H163" s="54" t="s">
+      <c r="H163" s="68" t="s">
         <v>352</v>
       </c>
       <c r="I163" s="54" t="s">
@@ -12223,7 +12740,7 @@
       <c r="G164" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H164" s="54" t="s">
+      <c r="H164" s="68" t="s">
         <v>353</v>
       </c>
       <c r="I164" s="54" t="s">
@@ -12252,7 +12769,7 @@
       <c r="G165" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H165" s="54" t="s">
+      <c r="H165" s="68" t="s">
         <v>262</v>
       </c>
       <c r="I165" s="54" t="s">
@@ -12281,7 +12798,7 @@
       <c r="G166" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H166" s="54" t="s">
+      <c r="H166" s="68" t="s">
         <v>355</v>
       </c>
       <c r="I166" s="54" t="s">
@@ -12310,7 +12827,7 @@
       <c r="G167" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H167" s="54" t="s">
+      <c r="H167" s="68" t="s">
         <v>409</v>
       </c>
       <c r="I167" s="54" t="s">
@@ -12339,7 +12856,7 @@
       <c r="G168" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="H168" s="54" t="s">
+      <c r="H168" s="68" t="s">
         <v>410</v>
       </c>
       <c r="I168" s="54" t="s">
@@ -12357,19 +12874,19 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="H169" s="42" t="s">
-        <v>725</v>
+        <v>791</v>
+      </c>
+      <c r="H169" s="64" t="s">
+        <v>794</v>
       </c>
       <c r="I169" s="42" t="s">
         <v>432</v>
@@ -12377,7 +12894,9 @@
       <c r="J169" s="42"/>
       <c r="K169" s="42"/>
       <c r="L169" s="42"/>
-      <c r="M169" s="42"/>
+      <c r="M169" s="42" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
@@ -12387,19 +12906,19 @@
         <v>1000775</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="H170" s="42" t="s">
-        <v>726</v>
+        <v>791</v>
+      </c>
+      <c r="H170" s="64" t="s">
+        <v>795</v>
       </c>
       <c r="I170" s="42" t="s">
         <v>432</v>
@@ -12407,6 +12926,9 @@
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
       <c r="L170" s="42"/>
+      <c r="M170" s="42" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
@@ -12416,19 +12938,19 @@
         <v>1000775</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="H171" s="42" t="s">
-        <v>727</v>
+        <v>790</v>
+      </c>
+      <c r="H171" s="64" t="s">
+        <v>796</v>
       </c>
       <c r="I171" s="42" t="s">
         <v>432</v>
@@ -12436,6 +12958,9 @@
       <c r="J171" s="42"/>
       <c r="K171" s="42"/>
       <c r="L171" s="42"/>
+      <c r="M171" s="42" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
@@ -12454,10 +12979,10 @@
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="H172" s="42" t="s">
-        <v>728</v>
+        <v>790</v>
+      </c>
+      <c r="H172" s="64" t="s">
+        <v>797</v>
       </c>
       <c r="I172" s="42" t="s">
         <v>432</v>
@@ -12465,6 +12990,9 @@
       <c r="J172" s="42"/>
       <c r="K172" s="42"/>
       <c r="L172" s="42"/>
+      <c r="M172" s="42" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
@@ -12483,10 +13011,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="H173" s="42" t="s">
-        <v>729</v>
+        <v>790</v>
+      </c>
+      <c r="H173" s="64" t="s">
+        <v>798</v>
       </c>
       <c r="I173" s="42" t="s">
         <v>432</v>
@@ -12494,6 +13022,9 @@
       <c r="J173" s="42"/>
       <c r="K173" s="42"/>
       <c r="L173" s="42"/>
+      <c r="M173" s="42" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
@@ -12512,10 +13043,10 @@
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="H174" s="42" t="s">
-        <v>730</v>
+        <v>790</v>
+      </c>
+      <c r="H174" s="64" t="s">
+        <v>799</v>
       </c>
       <c r="I174" s="42" t="s">
         <v>432</v>
@@ -12523,6 +13054,9 @@
       <c r="J174" s="42"/>
       <c r="K174" s="42"/>
       <c r="L174" s="42"/>
+      <c r="M174" s="42" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
@@ -12541,10 +13075,10 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="H175" s="42" t="s">
-        <v>731</v>
+        <v>790</v>
+      </c>
+      <c r="H175" s="64" t="s">
+        <v>800</v>
       </c>
       <c r="I175" s="42" t="s">
         <v>432</v>
@@ -12552,6 +13086,9 @@
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
       <c r="L175" s="42"/>
+      <c r="M175" s="42" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
@@ -12570,10 +13107,10 @@
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="H176" s="42" t="s">
-        <v>732</v>
+        <v>792</v>
+      </c>
+      <c r="H176" s="64" t="s">
+        <v>801</v>
       </c>
       <c r="I176" s="42" t="s">
         <v>432</v>
@@ -12599,10 +13136,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>723</v>
-      </c>
-      <c r="H177" s="42" t="s">
-        <v>733</v>
+        <v>793</v>
+      </c>
+      <c r="H177" s="64" t="s">
+        <v>802</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -12630,7 +13167,7 @@
       <c r="G178" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H178" s="42" t="s">
+      <c r="H178" s="64" t="s">
         <v>449</v>
       </c>
       <c r="K178" s="42" t="s">
@@ -12657,7 +13194,7 @@
       <c r="G179" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H179" s="42" t="s">
+      <c r="H179" s="64" t="s">
         <v>449</v>
       </c>
       <c r="K179" s="42" t="s">
@@ -12684,7 +13221,7 @@
       <c r="G180" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H180" s="42" t="s">
+      <c r="H180" s="64" t="s">
         <v>449</v>
       </c>
       <c r="K180" s="42" t="s">
@@ -12711,7 +13248,7 @@
       <c r="G181" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H181" s="42" t="s">
+      <c r="H181" s="64" t="s">
         <v>450</v>
       </c>
       <c r="I181" s="42" t="s">
@@ -12741,7 +13278,7 @@
       <c r="G182" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H182" s="42" t="s">
+      <c r="H182" s="64" t="s">
         <v>451</v>
       </c>
       <c r="I182" s="42" t="s">
@@ -12771,7 +13308,7 @@
       <c r="G183" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H183" s="42" t="s">
+      <c r="H183" s="64" t="s">
         <v>452</v>
       </c>
       <c r="I183" s="42" t="s">
@@ -12801,7 +13338,7 @@
       <c r="G184" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H184" s="42" t="s">
+      <c r="H184" s="64" t="s">
         <v>464</v>
       </c>
       <c r="I184" s="42" t="s">
@@ -12828,7 +13365,7 @@
       <c r="G185" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H185" s="42" t="s">
+      <c r="H185" s="64" t="s">
         <v>465</v>
       </c>
       <c r="I185" s="42" t="s">
@@ -12855,7 +13392,7 @@
       <c r="G186" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H186" s="42" t="s">
+      <c r="H186" s="64" t="s">
         <v>466</v>
       </c>
       <c r="I186" s="42" t="s">
@@ -12882,7 +13419,7 @@
       <c r="G187" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="H187" s="42" t="s">
+      <c r="H187" s="64" t="s">
         <v>467</v>
       </c>
       <c r="I187" s="42" t="s">
@@ -12909,11 +13446,11 @@
       <c r="G188" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H188" s="42" t="s">
+      <c r="H188" s="64" t="s">
         <v>536</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J188" s="42"/>
     </row>
@@ -12936,11 +13473,11 @@
       <c r="G189" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H189" s="42" t="s">
+      <c r="H189" s="64" t="s">
         <v>537</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J189" s="42"/>
     </row>
@@ -12963,7 +13500,7 @@
       <c r="G190" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H190" s="42" t="s">
+      <c r="H190" s="64" t="s">
         <v>536</v>
       </c>
       <c r="I190" s="42" t="s">
@@ -12990,7 +13527,7 @@
       <c r="G191" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H191" s="42" t="s">
+      <c r="H191" s="64" t="s">
         <v>536</v>
       </c>
       <c r="I191" s="42" t="s">
@@ -13017,7 +13554,7 @@
       <c r="G192" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H192" s="42" t="s">
+      <c r="H192" s="64" t="s">
         <v>538</v>
       </c>
       <c r="I192" s="42" t="s">
@@ -13044,7 +13581,7 @@
       <c r="G193" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H193" s="42" t="s">
+      <c r="H193" s="64" t="s">
         <v>539</v>
       </c>
       <c r="I193" s="42" t="s">
@@ -13071,7 +13608,7 @@
       <c r="G194" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H194" s="42" t="s">
+      <c r="H194" s="64" t="s">
         <v>540</v>
       </c>
       <c r="I194" s="42" t="s">
@@ -13098,7 +13635,7 @@
       <c r="G195" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H195" s="42" t="s">
+      <c r="H195" s="64" t="s">
         <v>541</v>
       </c>
       <c r="I195" s="42" t="s">
@@ -13125,7 +13662,7 @@
       <c r="G196" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H196" s="42" t="s">
+      <c r="H196" s="64" t="s">
         <v>542</v>
       </c>
       <c r="I196" s="42" t="s">
@@ -13152,7 +13689,7 @@
       <c r="G197" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H197" s="42" t="s">
+      <c r="H197" s="64" t="s">
         <v>543</v>
       </c>
       <c r="I197" s="42" t="s">
@@ -13179,7 +13716,7 @@
       <c r="G198" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H198" s="42" t="s">
+      <c r="H198" s="64" t="s">
         <v>544</v>
       </c>
       <c r="I198" s="42" t="s">
@@ -13206,7 +13743,7 @@
       <c r="G199" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H199" s="42" t="s">
+      <c r="H199" s="64" t="s">
         <v>545</v>
       </c>
       <c r="I199" s="42" t="s">
@@ -13233,7 +13770,7 @@
       <c r="G200" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H200" s="42" t="s">
+      <c r="H200" s="64" t="s">
         <v>546</v>
       </c>
       <c r="I200" s="42" t="s">
@@ -13260,7 +13797,7 @@
       <c r="G201" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H201" s="42" t="s">
+      <c r="H201" s="64" t="s">
         <v>547</v>
       </c>
       <c r="I201" s="42" t="s">
@@ -13287,7 +13824,7 @@
       <c r="G202" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H202" s="42" t="s">
+      <c r="H202" s="64" t="s">
         <v>548</v>
       </c>
       <c r="I202" s="42" t="s">
@@ -13314,7 +13851,7 @@
       <c r="G203" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H203" s="42" t="s">
+      <c r="H203" s="64" t="s">
         <v>549</v>
       </c>
       <c r="I203" s="42" t="s">
@@ -13341,7 +13878,7 @@
       <c r="G204" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H204" s="42" t="s">
+      <c r="H204" s="64" t="s">
         <v>550</v>
       </c>
       <c r="I204" s="42" t="s">
@@ -13368,7 +13905,7 @@
       <c r="G205" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H205" s="42" t="s">
+      <c r="H205" s="64" t="s">
         <v>551</v>
       </c>
       <c r="I205" s="42" t="s">
@@ -13395,7 +13932,7 @@
       <c r="G206" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H206" s="42" t="s">
+      <c r="H206" s="64" t="s">
         <v>552</v>
       </c>
       <c r="I206" s="42" t="s">
@@ -13422,7 +13959,7 @@
       <c r="G207" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H207" s="42" t="s">
+      <c r="H207" s="64" t="s">
         <v>553</v>
       </c>
       <c r="I207" s="42" t="s">
@@ -13449,7 +13986,7 @@
       <c r="G208" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H208" s="42" t="s">
+      <c r="H208" s="64" t="s">
         <v>554</v>
       </c>
       <c r="I208" s="42" t="s">
@@ -13476,7 +14013,7 @@
       <c r="G209" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H209" s="42" t="s">
+      <c r="H209" s="64" t="s">
         <v>555</v>
       </c>
       <c r="I209" s="42" t="s">
@@ -13503,7 +14040,7 @@
       <c r="G210" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H210" s="42" t="s">
+      <c r="H210" s="64" t="s">
         <v>556</v>
       </c>
       <c r="I210" s="42" t="s">
@@ -13530,7 +14067,7 @@
       <c r="G211" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H211" s="42" t="s">
+      <c r="H211" s="64" t="s">
         <v>557</v>
       </c>
       <c r="I211" s="42" t="s">
@@ -13557,7 +14094,7 @@
       <c r="G212" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H212" s="42" t="s">
+      <c r="H212" s="64" t="s">
         <v>558</v>
       </c>
       <c r="I212" s="42" t="s">
@@ -13584,7 +14121,7 @@
       <c r="G213" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H213" s="42" t="s">
+      <c r="H213" s="64" t="s">
         <v>559</v>
       </c>
       <c r="I213" s="42" t="s">
@@ -13611,7 +14148,7 @@
       <c r="G214" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H214" s="42" t="s">
+      <c r="H214" s="64" t="s">
         <v>560</v>
       </c>
       <c r="I214" s="42" t="s">
@@ -13638,7 +14175,7 @@
       <c r="G215" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H215" s="42" t="s">
+      <c r="H215" s="64" t="s">
         <v>561</v>
       </c>
       <c r="I215" s="42" t="s">
@@ -13668,7 +14205,7 @@
       <c r="G216" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H216" s="42" t="s">
+      <c r="H216" s="64" t="s">
         <v>562</v>
       </c>
       <c r="I216" s="42" t="s">
@@ -13698,7 +14235,7 @@
       <c r="G217" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H217" s="42" t="s">
+      <c r="H217" s="64" t="s">
         <v>563</v>
       </c>
       <c r="I217" s="42" t="s">
@@ -13728,7 +14265,7 @@
       <c r="G218" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H218" s="42" t="s">
+      <c r="H218" s="64" t="s">
         <v>564</v>
       </c>
       <c r="I218" s="42" t="s">
@@ -13758,7 +14295,7 @@
       <c r="G219" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H219" s="42" t="s">
+      <c r="H219" s="64" t="s">
         <v>565</v>
       </c>
       <c r="I219" s="42" t="s">
@@ -13788,7 +14325,7 @@
       <c r="G220" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H220" s="42" t="s">
+      <c r="H220" s="64" t="s">
         <v>566</v>
       </c>
       <c r="I220" s="42" t="s">
@@ -13818,7 +14355,7 @@
       <c r="G221" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H221" s="42" t="s">
+      <c r="H221" s="64" t="s">
         <v>567</v>
       </c>
       <c r="I221" s="42" t="s">
@@ -13848,7 +14385,7 @@
       <c r="G222" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H222" s="42" t="s">
+      <c r="H222" s="64" t="s">
         <v>568</v>
       </c>
       <c r="I222" s="42" t="s">
@@ -13878,7 +14415,7 @@
       <c r="G223" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H223" s="42" t="s">
+      <c r="H223" s="64" t="s">
         <v>569</v>
       </c>
       <c r="I223" s="42" t="s">
@@ -13908,7 +14445,7 @@
       <c r="G224" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H224" s="42" t="s">
+      <c r="H224" s="64" t="s">
         <v>570</v>
       </c>
       <c r="I224" s="42" t="s">
@@ -13916,7 +14453,7 @@
       </c>
       <c r="J224" s="42"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -13938,7 +14475,7 @@
       <c r="G225" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H225" s="42" t="s">
+      <c r="H225" s="64" t="s">
         <v>571</v>
       </c>
       <c r="I225" s="42" t="s">
@@ -13946,7 +14483,7 @@
       </c>
       <c r="J225" s="42"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -13968,7 +14505,7 @@
       <c r="G226" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H226" s="42" t="s">
+      <c r="H226" s="64" t="s">
         <v>572</v>
       </c>
       <c r="I226" s="42" t="s">
@@ -13976,7 +14513,7 @@
       </c>
       <c r="J226" s="42"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -13998,7 +14535,7 @@
       <c r="G227" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H227" s="42" t="s">
+      <c r="H227" s="64" t="s">
         <v>573</v>
       </c>
       <c r="I227" s="42" t="s">
@@ -14006,7 +14543,7 @@
       </c>
       <c r="J227" s="42"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -14028,7 +14565,7 @@
       <c r="G228" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H228" s="42" t="s">
+      <c r="H228" s="64" t="s">
         <v>574</v>
       </c>
       <c r="I228" s="42" t="s">
@@ -14036,7 +14573,7 @@
       </c>
       <c r="J228" s="42"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -14058,7 +14595,7 @@
       <c r="G229" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H229" s="42" t="s">
+      <c r="H229" s="64" t="s">
         <v>575</v>
       </c>
       <c r="I229" s="42" t="s">
@@ -14066,7 +14603,7 @@
       </c>
       <c r="J229" s="42"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -14086,9 +14623,9 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>628</v>
-      </c>
-      <c r="H230" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="H230" s="64" t="s">
         <v>576</v>
       </c>
       <c r="I230" s="42" t="s">
@@ -14096,7 +14633,7 @@
       </c>
       <c r="J230" s="42"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -14113,16 +14650,16 @@
         <v>1</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H231" s="42" t="s">
-        <v>760</v>
+        <v>806</v>
+      </c>
+      <c r="H231" s="64" t="s">
+        <v>745</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -14139,17 +14676,20 @@
         <v>1</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H232" s="42" t="s">
-        <v>761</v>
+        <v>805</v>
+      </c>
+      <c r="H232" s="64" t="s">
+        <v>811</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J232" s="42"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M232" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -14166,17 +14706,20 @@
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H233" s="42" t="s">
-        <v>288</v>
+        <v>805</v>
+      </c>
+      <c r="H233" s="64" t="s">
+        <v>812</v>
       </c>
       <c r="I233" s="42" t="s">
         <v>619</v>
       </c>
       <c r="J233" s="42"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M233" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -14193,17 +14736,20 @@
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H234" s="42" t="s">
-        <v>762</v>
+        <v>804</v>
+      </c>
+      <c r="H234" s="64" t="s">
+        <v>813</v>
       </c>
       <c r="I234" s="42" t="s">
         <v>619</v>
       </c>
       <c r="J234" s="42"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M234" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -14220,17 +14766,20 @@
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H235" s="42" t="s">
-        <v>763</v>
+        <v>804</v>
+      </c>
+      <c r="H235" s="64" t="s">
+        <v>746</v>
       </c>
       <c r="I235" s="42" t="s">
         <v>620</v>
       </c>
       <c r="J235" s="42"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M235" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -14247,17 +14796,20 @@
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H236" s="42" t="s">
-        <v>627</v>
+        <v>804</v>
+      </c>
+      <c r="H236" s="64" t="s">
+        <v>808</v>
       </c>
       <c r="I236" s="42" t="s">
         <v>621</v>
       </c>
       <c r="J236" s="42"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M236" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -14274,17 +14826,20 @@
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H237" s="42" t="s">
-        <v>288</v>
+        <v>804</v>
+      </c>
+      <c r="H237" s="64" t="s">
+        <v>809</v>
       </c>
       <c r="I237" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J237" s="42"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M237" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -14301,17 +14856,20 @@
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H238" s="42" t="s">
-        <v>764</v>
+        <v>804</v>
+      </c>
+      <c r="H238" s="64" t="s">
+        <v>810</v>
       </c>
       <c r="I238" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J238" s="42"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M238" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -14328,17 +14886,20 @@
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H239" s="42" t="s">
-        <v>765</v>
+        <v>804</v>
+      </c>
+      <c r="H239" s="64" t="s">
+        <v>811</v>
       </c>
       <c r="I239" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J239" s="42"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M239" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -14355,17 +14916,20 @@
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H240" s="42" t="s">
-        <v>766</v>
+        <v>804</v>
+      </c>
+      <c r="H240" s="64" t="s">
+        <v>808</v>
       </c>
       <c r="I240" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J240" s="42"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M240" s="42" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -14382,17 +14946,17 @@
         <v>1</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H241" s="42" t="s">
-        <v>767</v>
+        <v>807</v>
+      </c>
+      <c r="H241" s="64" t="s">
+        <v>747</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J241" s="42"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -14409,16 +14973,16 @@
         <v>1</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H242" s="42" t="s">
-        <v>760</v>
+        <v>806</v>
+      </c>
+      <c r="H242" s="64" t="s">
+        <v>288</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -14435,17 +14999,20 @@
         <v>1</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H243" s="42" t="s">
-        <v>761</v>
+        <v>805</v>
+      </c>
+      <c r="H243" s="64" t="s">
+        <v>811</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J243" s="42"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M243" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -14453,26 +15020,29 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>771</v>
+        <v>816</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H244" s="42" t="s">
-        <v>288</v>
+        <v>805</v>
+      </c>
+      <c r="H244" s="64" t="s">
+        <v>812</v>
       </c>
       <c r="I244" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J244" s="42"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M244" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -14480,26 +15050,29 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>777</v>
+        <v>820</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H245" s="42" t="s">
-        <v>762</v>
+        <v>804</v>
+      </c>
+      <c r="H245" s="64" t="s">
+        <v>813</v>
       </c>
       <c r="I245" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J245" s="42"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M245" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -14507,26 +15080,29 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>774</v>
+        <v>821</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H246" s="42" t="s">
-        <v>763</v>
+        <v>804</v>
+      </c>
+      <c r="H246" s="64" t="s">
+        <v>746</v>
       </c>
       <c r="I246" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J246" s="42"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M246" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -14534,26 +15110,29 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>775</v>
+        <v>822</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>773</v>
+        <v>819</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H247" s="42" t="s">
-        <v>627</v>
+        <v>804</v>
+      </c>
+      <c r="H247" s="64" t="s">
+        <v>808</v>
       </c>
       <c r="I247" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J247" s="42"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M247" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -14570,17 +15149,20 @@
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H248" s="42" t="s">
-        <v>288</v>
+        <v>804</v>
+      </c>
+      <c r="H248" s="64" t="s">
+        <v>809</v>
       </c>
       <c r="I248" s="42" t="s">
         <v>614</v>
       </c>
       <c r="J248" s="42"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M248" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -14597,17 +15179,20 @@
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H249" s="42" t="s">
-        <v>764</v>
+        <v>804</v>
+      </c>
+      <c r="H249" s="64" t="s">
+        <v>810</v>
       </c>
       <c r="I249" s="42" t="s">
         <v>615</v>
       </c>
       <c r="J249" s="42"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M249" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -14624,17 +15209,20 @@
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H250" s="42" t="s">
-        <v>765</v>
+        <v>804</v>
+      </c>
+      <c r="H250" s="64" t="s">
+        <v>811</v>
       </c>
       <c r="I250" s="42" t="s">
         <v>616</v>
       </c>
       <c r="J250" s="42"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M250" s="42" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -14651,17 +15239,20 @@
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="H251" s="42" t="s">
-        <v>766</v>
+        <v>804</v>
+      </c>
+      <c r="H251" s="64" t="s">
+        <v>808</v>
       </c>
       <c r="I251" s="42" t="s">
         <v>617</v>
       </c>
       <c r="J251" s="42"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M251" s="42" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -14678,17 +15269,17 @@
         <v>1</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H252" s="42" t="s">
-        <v>767</v>
+        <v>807</v>
+      </c>
+      <c r="H252" s="64" t="s">
+        <v>280</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J252" s="42"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -14696,7 +15287,7 @@
         <v>1000801</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D253" s="42" t="s">
         <v>276</v>
@@ -14707,14 +15298,14 @@
       <c r="G253" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H253" s="42" t="s">
-        <v>661</v>
+      <c r="H253" s="64" t="s">
+        <v>660</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -14722,7 +15313,7 @@
         <v>1000802</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D254" s="42" t="s">
         <v>252</v>
@@ -14731,17 +15322,17 @@
         <v>1</v>
       </c>
       <c r="G254" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="H254" s="64" t="s">
         <v>662</v>
-      </c>
-      <c r="H254" s="42" t="s">
-        <v>663</v>
       </c>
       <c r="I254" s="42" t="s">
         <v>272</v>
       </c>
       <c r="J254" s="42"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -14749,7 +15340,7 @@
         <v>1000803</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D255" s="42" t="s">
         <v>594</v>
@@ -14760,15 +15351,15 @@
       <c r="G255" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H255" s="42" t="s">
-        <v>663</v>
+      <c r="H255" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="I255" s="42" t="s">
         <v>234</v>
       </c>
       <c r="J255" s="42"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -14776,10 +15367,10 @@
         <v>1000803</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E256" s="3">
         <v>2</v>
@@ -14787,8 +15378,8 @@
       <c r="G256" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H256" s="42" t="s">
-        <v>664</v>
+      <c r="H256" s="64" t="s">
+        <v>663</v>
       </c>
       <c r="I256" s="42" t="s">
         <v>234</v>
@@ -14803,10 +15394,10 @@
         <v>1000803</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E257" s="3">
         <v>3</v>
@@ -14814,8 +15405,8 @@
       <c r="G257" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H257" s="42" t="s">
-        <v>665</v>
+      <c r="H257" s="64" t="s">
+        <v>664</v>
       </c>
       <c r="I257" s="42" t="s">
         <v>234</v>
@@ -14830,7 +15421,7 @@
         <v>1000803</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D258" s="42" t="s">
         <v>596</v>
@@ -14841,8 +15432,8 @@
       <c r="G258" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H258" s="42" t="s">
-        <v>666</v>
+      <c r="H258" s="64" t="s">
+        <v>665</v>
       </c>
       <c r="I258" s="42" t="s">
         <v>234</v>
@@ -14857,10 +15448,10 @@
         <v>1000803</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E259" s="3">
         <v>5</v>
@@ -14868,8 +15459,8 @@
       <c r="G259" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H259" s="42" t="s">
-        <v>667</v>
+      <c r="H259" s="64" t="s">
+        <v>666</v>
       </c>
       <c r="I259" s="42" t="s">
         <v>234</v>
@@ -14884,26 +15475,26 @@
         <v>1000803</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E260" s="3">
         <v>6</v>
       </c>
       <c r="G260" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="H260" s="42" t="s">
-        <v>670</v>
+        <v>658</v>
+      </c>
+      <c r="H260" s="64" t="s">
+        <v>669</v>
       </c>
       <c r="I260" s="42" t="s">
         <v>234</v>
       </c>
       <c r="J260" s="42"/>
       <c r="M260" s="42" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -14914,26 +15505,26 @@
         <v>1000804</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E261" s="3">
         <v>1</v>
       </c>
       <c r="G261" s="42" t="s">
-        <v>660</v>
-      </c>
-      <c r="H261" s="42" t="s">
-        <v>668</v>
+        <v>659</v>
+      </c>
+      <c r="H261" s="64" t="s">
+        <v>667</v>
       </c>
       <c r="I261" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J261" s="42"/>
       <c r="M261" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -14944,7 +15535,7 @@
         <v>1000805</v>
       </c>
       <c r="C262" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>276</v>
@@ -14955,8 +15546,8 @@
       <c r="G262" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H262" s="42" t="s">
-        <v>661</v>
+      <c r="H262" s="64" t="s">
+        <v>660</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>270</v>
@@ -14970,7 +15561,7 @@
         <v>1000806</v>
       </c>
       <c r="C263" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>252</v>
@@ -14981,8 +15572,8 @@
       <c r="G263" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H263" s="42" t="s">
-        <v>663</v>
+      <c r="H263" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="I263" s="42" t="s">
         <v>272</v>
@@ -14997,10 +15588,10 @@
         <v>1000807</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -15008,8 +15599,8 @@
       <c r="G264" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H264" s="42" t="s">
-        <v>663</v>
+      <c r="H264" s="64" t="s">
+        <v>662</v>
       </c>
       <c r="I264" s="42" t="s">
         <v>237</v>
@@ -15024,10 +15615,10 @@
         <v>1000807</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
@@ -15035,8 +15626,8 @@
       <c r="G265" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H265" s="42" t="s">
-        <v>664</v>
+      <c r="H265" s="64" t="s">
+        <v>663</v>
       </c>
       <c r="I265" s="42" t="s">
         <v>237</v>
@@ -15051,10 +15642,10 @@
         <v>1000807</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E266" s="3">
         <v>3</v>
@@ -15062,8 +15653,8 @@
       <c r="G266" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H266" s="42" t="s">
-        <v>665</v>
+      <c r="H266" s="64" t="s">
+        <v>664</v>
       </c>
       <c r="I266" s="42" t="s">
         <v>237</v>
@@ -15078,10 +15669,10 @@
         <v>1000807</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E267" s="3">
         <v>4</v>
@@ -15089,8 +15680,8 @@
       <c r="G267" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H267" s="42" t="s">
-        <v>666</v>
+      <c r="H267" s="64" t="s">
+        <v>665</v>
       </c>
       <c r="I267" s="42" t="s">
         <v>237</v>
@@ -15105,10 +15696,10 @@
         <v>1000807</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E268" s="3">
         <v>5</v>
@@ -15116,8 +15707,8 @@
       <c r="G268" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H268" s="42" t="s">
-        <v>667</v>
+      <c r="H268" s="64" t="s">
+        <v>666</v>
       </c>
       <c r="I268" s="42" t="s">
         <v>237</v>
@@ -15132,26 +15723,26 @@
         <v>1000807</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E269" s="3">
         <v>6</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="H269" s="42" t="s">
-        <v>669</v>
+        <v>658</v>
+      </c>
+      <c r="H269" s="64" t="s">
+        <v>668</v>
       </c>
       <c r="I269" s="42" t="s">
         <v>237</v>
       </c>
       <c r="J269" s="42"/>
       <c r="M269" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -15162,26 +15753,26 @@
         <v>1000808</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D270" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="E270" s="3">
-        <v>1</v>
-      </c>
-      <c r="G270" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="H270" s="42" t="s">
-        <v>668</v>
+      <c r="H270" s="64" t="s">
+        <v>667</v>
       </c>
       <c r="I270" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J270" s="42"/>
-      <c r="M270" s="3" t="s">
-        <v>675</v>
+      <c r="M270" s="42" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15192,10 +15783,10 @@
         <v>1000737</v>
       </c>
       <c r="C271" s="66" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D271" s="41" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E271" s="13">
         <v>10</v>
@@ -15204,16 +15795,16 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>712</v>
-      </c>
-      <c r="H271" s="41" t="s">
-        <v>707</v>
+        <v>770</v>
+      </c>
+      <c r="H271" s="66" t="s">
+        <v>705</v>
       </c>
       <c r="I271" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J271" s="41" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K271" s="41"/>
       <c r="L271" s="41"/>
@@ -15226,10 +15817,10 @@
         <v>1000737</v>
       </c>
       <c r="C272" s="64" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -15240,14 +15831,14 @@
       <c r="G272" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H272" s="42" t="s">
-        <v>751</v>
+      <c r="H272" s="64" t="s">
+        <v>735</v>
       </c>
       <c r="I272" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -15255,10 +15846,10 @@
         <v>1000737</v>
       </c>
       <c r="C273" s="64" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="E273" s="3">
         <v>2</v>
@@ -15269,14 +15860,14 @@
       <c r="G273" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H273" s="42" t="s">
-        <v>752</v>
+      <c r="H273" s="64" t="s">
+        <v>736</v>
       </c>
       <c r="I273" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -15284,10 +15875,10 @@
         <v>1000737</v>
       </c>
       <c r="C274" s="64" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="E274" s="3">
         <v>3</v>
@@ -15298,14 +15889,14 @@
       <c r="G274" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H274" s="42" t="s">
-        <v>753</v>
+      <c r="H274" s="64" t="s">
+        <v>737</v>
       </c>
       <c r="I274" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -15313,10 +15904,10 @@
         <v>1000737</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="E275" s="3">
         <v>4</v>
@@ -15327,14 +15918,14 @@
       <c r="G275" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H275" s="42" t="s">
-        <v>754</v>
+      <c r="H275" s="64" t="s">
+        <v>738</v>
       </c>
       <c r="I275" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -15342,10 +15933,10 @@
         <v>1000737</v>
       </c>
       <c r="C276" s="64" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="E276" s="3">
         <v>5</v>
@@ -15356,14 +15947,14 @@
       <c r="G276" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H276" s="42" t="s">
-        <v>755</v>
+      <c r="H276" s="64" t="s">
+        <v>739</v>
       </c>
       <c r="I276" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -15371,10 +15962,10 @@
         <v>1000737</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="E277" s="3">
         <v>6</v>
@@ -15385,14 +15976,14 @@
       <c r="G277" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H277" s="42" t="s">
-        <v>756</v>
+      <c r="H277" s="64" t="s">
+        <v>740</v>
       </c>
       <c r="I277" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -15400,10 +15991,10 @@
         <v>1000737</v>
       </c>
       <c r="C278" s="64" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="E278" s="3">
         <v>7</v>
@@ -15414,14 +16005,14 @@
       <c r="G278" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="H278" s="42" t="s">
-        <v>757</v>
+      <c r="H278" s="64" t="s">
+        <v>741</v>
       </c>
       <c r="I278" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -15429,10 +16020,10 @@
         <v>1000737</v>
       </c>
       <c r="C279" s="64" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="E279" s="3">
         <v>8</v>
@@ -15443,11 +16034,334 @@
       <c r="G279" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H279" s="42" t="s">
-        <v>758</v>
+      <c r="H279" s="64" t="s">
+        <v>742</v>
       </c>
       <c r="I279" s="41" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C280" s="64" t="s">
+        <v>749</v>
+      </c>
+      <c r="D280" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1</v>
+      </c>
+      <c r="F280" s="3">
+        <v>1</v>
+      </c>
+      <c r="G280" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="H280" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="I280" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J280" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="M280" s="42" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>280</v>
+      </c>
+      <c r="B281" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C281" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="D281" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="E281" s="3">
+        <v>2</v>
+      </c>
+      <c r="F281" s="3">
+        <v>1</v>
+      </c>
+      <c r="G281" s="41" t="s">
+        <v>706</v>
+      </c>
+      <c r="H281" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="I281" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J281" s="50" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>281</v>
+      </c>
+      <c r="B282" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C282" s="64" t="s">
+        <v>751</v>
+      </c>
+      <c r="D282" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="E282" s="3">
+        <v>3</v>
+      </c>
+      <c r="F282" s="3">
+        <v>1</v>
+      </c>
+      <c r="G282" s="41" t="s">
+        <v>706</v>
+      </c>
+      <c r="H282" s="64" t="s">
+        <v>774</v>
+      </c>
+      <c r="I282" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J282" s="50" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>282</v>
+      </c>
+      <c r="B283" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C283" s="64" t="s">
+        <v>752</v>
+      </c>
+      <c r="D283" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="E283" s="3">
+        <v>4</v>
+      </c>
+      <c r="F283" s="3">
+        <v>1</v>
+      </c>
+      <c r="G283" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="H283" s="64" t="s">
+        <v>775</v>
+      </c>
+      <c r="I283" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J283" s="50" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C284" s="64" t="s">
+        <v>753</v>
+      </c>
+      <c r="D284" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="E284" s="3">
+        <v>5</v>
+      </c>
+      <c r="F284" s="3">
+        <v>1</v>
+      </c>
+      <c r="G284" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="H284" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="I284" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J284" s="50" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C285" s="64" t="s">
+        <v>754</v>
+      </c>
+      <c r="D285" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="E285" s="3">
+        <v>6</v>
+      </c>
+      <c r="F285" s="3">
+        <v>1</v>
+      </c>
+      <c r="G285" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="H285" s="64" t="s">
+        <v>777</v>
+      </c>
+      <c r="I285" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J285" s="50" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>285</v>
+      </c>
+      <c r="B286" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C286" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="D286" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="E286" s="3">
+        <v>7</v>
+      </c>
+      <c r="F286" s="3">
+        <v>1</v>
+      </c>
+      <c r="G286" s="41" t="s">
+        <v>708</v>
+      </c>
+      <c r="H286" s="64" t="s">
+        <v>778</v>
+      </c>
+      <c r="I286" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J286" s="50" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C287" s="64" t="s">
+        <v>756</v>
+      </c>
+      <c r="D287" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="E287" s="3">
+        <v>8</v>
+      </c>
+      <c r="F287" s="3">
+        <v>1</v>
+      </c>
+      <c r="G287" s="41" t="s">
+        <v>708</v>
+      </c>
+      <c r="H287" s="64" t="s">
+        <v>779</v>
+      </c>
+      <c r="I287" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J287" s="50" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C288" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="D288" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="E288" s="3">
+        <v>9</v>
+      </c>
+      <c r="F288" s="3">
+        <v>1</v>
+      </c>
+      <c r="G288" s="41" t="s">
+        <v>709</v>
+      </c>
+      <c r="H288" s="64" t="s">
+        <v>780</v>
+      </c>
+      <c r="I288" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J288" s="50" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>288</v>
+      </c>
+      <c r="B289" s="3">
+        <v>1000816</v>
+      </c>
+      <c r="C289" s="64" t="s">
+        <v>758</v>
+      </c>
+      <c r="D289" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E289" s="3">
+        <v>10</v>
+      </c>
+      <c r="F289" s="3">
+        <v>1</v>
+      </c>
+      <c r="G289" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="H289" s="64" t="s">
+        <v>781</v>
+      </c>
+      <c r="I289" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J289" s="50" t="s">
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_ty_task_config.xlsx
+++ b/config_Release/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="821">
   <si>
     <t>index|索引</t>
   </si>
@@ -4300,1841 +4300,1782 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达300万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获20条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获200条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除20个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除200个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="